--- a/azure-vm-sizes.xlsx
+++ b/azure-vm-sizes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1572739f6e00b/GitHub/azure-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1355" documentId="A1DFC2B313F5EA7EBAAE61F77AE579EB56285B58" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{EE1F4D42-A6B9-4320-A2A4-22272E3F0957}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VM Sizes" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="311">
   <si>
     <t>Type</t>
   </si>
@@ -934,6 +933,30 @@
   </si>
   <si>
     <t>GS 5-8</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>ND12</t>
+  </si>
+  <si>
+    <t>ND 6</t>
+  </si>
+  <si>
+    <t>ND24</t>
+  </si>
+  <si>
+    <t>ND24r</t>
+  </si>
+  <si>
+    <t>1 GPU (1 x P40 card)</t>
+  </si>
+  <si>
+    <t>1 GPU (2 x P40 card)</t>
+  </si>
+  <si>
+    <t>1 GPU (4 x P40 card)</t>
   </si>
 </sst>
 </file>
@@ -1024,64 +1047,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1367,6 +1332,64 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1439,32 +1462,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:S141" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S141" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:S145" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S145" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A2:S141">
-    <sortCondition ref="A2:A141"/>
-    <sortCondition ref="B2:B141"/>
+    <sortCondition ref="A1:A141"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Size" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{5DD33DC2-A401-48C2-B506-F559FA55F3C0}" name="Storage Type" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3037319D-829A-42BC-8D15-B399A6BB5BD4}" name="Category" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Price" dataDxfId="16" dataCellStyle="Currency"/>
-    <tableColumn id="20" xr3:uid="{37484686-C16B-4F5B-B747-532271A5D4AD}" name="MSDN Price" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Region" dataDxfId="15"/>
-    <tableColumn id="18" xr3:uid="{83FDDE87-814A-408B-BFA0-80C2EF9523EE}" name="CPU" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Core" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00ADF934-41FB-49C8-83C8-80D12E6C2679}" name="ACU" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Memory: GiB" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Local HDD: GiB" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Local SDD: GiB" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Max local disk throughput: IOPS" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Max local disk throughput: MBps" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Max Data Disks" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Max NICs" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Network bandwidth" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Note" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{5DD33DC2-A401-48C2-B506-F559FA55F3C0}" name="Storage Type" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3037319D-829A-42BC-8D15-B399A6BB5BD4}" name="Category" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Price" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="20" xr3:uid="{37484686-C16B-4F5B-B747-532271A5D4AD}" name="MSDN Price" dataDxfId="13" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Region" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{83FDDE87-814A-408B-BFA0-80C2EF9523EE}" name="CPU" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Core" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{00ADF934-41FB-49C8-83C8-80D12E6C2679}" name="ACU" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Memory: GiB" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Local HDD: GiB" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Local SDD: GiB" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Max local disk throughput: IOPS" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Max local disk throughput: MBps" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Max Data Disks" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Max NICs" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Network bandwidth" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1767,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="I143" sqref="I143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1790,7 +1812,7 @@
     <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -2012,7 +2034,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>254</v>
@@ -2021,40 +2043,40 @@
         <v>154</v>
       </c>
       <c r="E5" s="2">
-        <v>150.58000000000001</v>
+        <v>301.58</v>
       </c>
       <c r="F5" s="2">
-        <v>150.58000000000001</v>
+        <v>301.16000000000003</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>232</v>
       </c>
       <c r="K5" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="L5" s="1">
-        <v>285</v>
+        <v>605</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q5" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S5" s="1"/>
     </row>
@@ -2063,7 +2085,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>254</v>
@@ -2072,17 +2094,17 @@
         <v>154</v>
       </c>
       <c r="E6" s="2">
-        <v>301.58</v>
+        <v>155.6</v>
       </c>
       <c r="F6" s="2">
-        <v>301.16000000000003</v>
+        <v>155.6</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>232</v>
@@ -2091,21 +2113,21 @@
         <v>14</v>
       </c>
       <c r="L6" s="1">
-        <v>605</v>
+        <v>135</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="S6" s="1"/>
     </row>
@@ -2114,7 +2136,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>254</v>
@@ -2123,40 +2145,40 @@
         <v>154</v>
       </c>
       <c r="E7" s="2">
-        <v>155.6</v>
+        <v>311.2</v>
       </c>
       <c r="F7" s="2">
-        <v>155.6</v>
+        <v>311.2</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>232</v>
       </c>
       <c r="K7" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L7" s="1">
-        <v>135</v>
+        <v>285</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="1">
         <v>2</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S7" s="1"/>
     </row>
@@ -2165,7 +2187,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>254</v>
@@ -2174,40 +2196,40 @@
         <v>154</v>
       </c>
       <c r="E8" s="2">
-        <v>311.2</v>
+        <v>622.4</v>
       </c>
       <c r="F8" s="2">
-        <v>311.2</v>
+        <v>622.4</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>232</v>
       </c>
       <c r="K8" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L8" s="1">
-        <v>285</v>
+        <v>605</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q8" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S8" s="1"/>
     </row>
@@ -2216,35 +2238,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E9" s="2">
-        <v>622.4</v>
+        <v>611.73</v>
       </c>
       <c r="F9" s="2">
-        <v>622.4</v>
+        <v>611.73</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="I9" s="1">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>232</v>
+      <c r="J9" s="1">
+        <v>225</v>
       </c>
       <c r="K9" s="1">
         <v>56</v>
       </c>
       <c r="L9" s="1">
-        <v>605</v>
+        <v>382</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1">
@@ -2255,19 +2279,21 @@
         <v>16</v>
       </c>
       <c r="Q9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="S9" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>254</v>
@@ -2276,10 +2302,10 @@
         <v>157</v>
       </c>
       <c r="E10" s="2">
-        <v>611.73</v>
+        <v>1223.46</v>
       </c>
       <c r="F10" s="2">
-        <v>611.73</v>
+        <v>1223.46</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>78</v>
@@ -2288,13 +2314,13 @@
         <v>283</v>
       </c>
       <c r="I10" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1">
         <v>225</v>
       </c>
       <c r="K10" s="1">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L10" s="1">
         <v>382</v>
@@ -2308,10 +2334,10 @@
         <v>16</v>
       </c>
       <c r="Q10" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>10</v>
@@ -2322,7 +2348,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>254</v>
@@ -2331,10 +2357,10 @@
         <v>157</v>
       </c>
       <c r="E11" s="2">
-        <v>1223.46</v>
+        <v>489.38</v>
       </c>
       <c r="F11" s="2">
-        <v>1223.46</v>
+        <v>489.38</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>78</v>
@@ -2343,13 +2369,13 @@
         <v>283</v>
       </c>
       <c r="I11" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1">
         <v>225</v>
       </c>
       <c r="K11" s="1">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="L11" s="1">
         <v>382</v>
@@ -2363,21 +2389,19 @@
         <v>16</v>
       </c>
       <c r="Q11" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>254</v>
@@ -2386,10 +2410,10 @@
         <v>157</v>
       </c>
       <c r="E12" s="2">
-        <v>489.38</v>
+        <v>978.77</v>
       </c>
       <c r="F12" s="2">
-        <v>489.38</v>
+        <v>978.77</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>78</v>
@@ -2398,13 +2422,13 @@
         <v>283</v>
       </c>
       <c r="I12" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1">
         <v>225</v>
       </c>
       <c r="K12" s="1">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L12" s="1">
         <v>382</v>
@@ -2418,10 +2442,10 @@
         <v>16</v>
       </c>
       <c r="Q12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S12" s="1"/>
     </row>
@@ -2430,51 +2454,49 @@
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E13" s="2">
-        <v>978.77</v>
+        <v>150.58000000000001</v>
       </c>
       <c r="F13" s="2">
-        <v>978.77</v>
+        <v>150.58000000000001</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>16</v>
-      </c>
-      <c r="J13" s="1">
-        <v>225</v>
+        <v>4</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="K13" s="1">
-        <v>112</v>
+        <v>7</v>
       </c>
       <c r="L13" s="1">
-        <v>382</v>
+        <v>285</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q13" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>9</v>
+        <v>218</v>
       </c>
       <c r="S13" s="1"/>
     </row>
@@ -2718,7 +2740,7 @@
         <v>153</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>254</v>
@@ -2727,42 +2749,42 @@
         <v>122</v>
       </c>
       <c r="E19" s="2">
-        <v>25.73</v>
+        <v>114.82</v>
       </c>
       <c r="F19" s="2">
-        <v>25.72</v>
+        <v>114.82</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1">
         <v>100</v>
       </c>
       <c r="K19" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N19" s="1">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P19" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="S19" s="1"/>
     </row>
@@ -2771,7 +2793,7 @@
         <v>153</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>254</v>
@@ -2780,42 +2802,42 @@
         <v>122</v>
       </c>
       <c r="E20" s="2">
-        <v>54.59</v>
+        <v>25.73</v>
       </c>
       <c r="F20" s="2">
-        <v>54.59</v>
+        <v>25.72</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" s="1">
         <v>100</v>
       </c>
       <c r="K20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="N20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P20" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="1">
         <v>2</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="S20" s="1"/>
     </row>
@@ -2824,7 +2846,7 @@
         <v>153</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>254</v>
@@ -2833,10 +2855,10 @@
         <v>122</v>
       </c>
       <c r="E21" s="2">
-        <v>77.8</v>
+        <v>54.59</v>
       </c>
       <c r="F21" s="2">
-        <v>87.21</v>
+        <v>54.59</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>78</v>
@@ -2849,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1">
@@ -2868,7 +2890,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S21" s="1"/>
     </row>
@@ -2877,7 +2899,7 @@
         <v>153</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>254</v>
@@ -2886,39 +2908,39 @@
         <v>122</v>
       </c>
       <c r="E22" s="2">
-        <v>114.82</v>
+        <v>77.8</v>
       </c>
       <c r="F22" s="2">
-        <v>114.82</v>
+        <v>87.21</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" s="1">
         <v>100</v>
       </c>
       <c r="K22" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N22" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R22" s="1" t="s">
         <v>218</v>
@@ -3489,7 +3511,7 @@
         <v>134</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>254</v>
@@ -3498,42 +3520,42 @@
         <v>155</v>
       </c>
       <c r="E34" s="2">
-        <v>183.21</v>
+        <v>366.42</v>
       </c>
       <c r="F34" s="2">
-        <v>183.21</v>
+        <v>366.41</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1">
         <v>160</v>
       </c>
       <c r="K34" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N34" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P34" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q34" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S34" s="1"/>
     </row>
@@ -3542,51 +3564,51 @@
         <v>134</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>254</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E35" s="2">
-        <v>366.42</v>
+        <v>122.35</v>
       </c>
       <c r="F35" s="2">
-        <v>366.41</v>
+        <v>122.35</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J35" s="1">
         <v>160</v>
       </c>
       <c r="K35" s="1">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N35" s="1">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P35" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="Q35" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="S35" s="1"/>
     </row>
@@ -3595,7 +3617,7 @@
         <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>254</v>
@@ -3604,42 +3626,42 @@
         <v>146</v>
       </c>
       <c r="E36" s="2">
-        <v>122.35</v>
+        <v>244.7</v>
       </c>
       <c r="F36" s="2">
-        <v>122.35</v>
+        <v>244.69</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J36" s="1">
         <v>160</v>
       </c>
       <c r="K36" s="1">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N36" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P36" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="1">
         <v>4</v>
       </c>
-      <c r="Q36" s="1">
-        <v>2</v>
-      </c>
       <c r="R36" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S36" s="1"/>
     </row>
@@ -3648,7 +3670,7 @@
         <v>134</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>254</v>
@@ -3657,42 +3679,42 @@
         <v>146</v>
       </c>
       <c r="E37" s="2">
-        <v>244.7</v>
+        <v>489.38</v>
       </c>
       <c r="F37" s="2">
-        <v>244.69</v>
+        <v>489.38</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J37" s="1">
         <v>160</v>
       </c>
       <c r="K37" s="1">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="N37" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P37" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q37" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S37" s="1"/>
     </row>
@@ -3701,7 +3723,7 @@
         <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>254</v>
@@ -3710,42 +3732,42 @@
         <v>146</v>
       </c>
       <c r="E38" s="2">
-        <v>489.38</v>
+        <v>967.48</v>
       </c>
       <c r="F38" s="2">
-        <v>489.38</v>
+        <v>967.47</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>78</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J38" s="1">
         <v>160</v>
       </c>
       <c r="K38" s="1">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="N38" s="1">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P38" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q38" s="1">
         <v>8</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="S38" s="1"/>
     </row>
@@ -3754,51 +3776,51 @@
         <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E39" s="2">
-        <v>967.48</v>
+        <v>52.71</v>
       </c>
       <c r="F39" s="2">
-        <v>967.47</v>
+        <v>45.8</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J39" s="1">
         <v>160</v>
       </c>
       <c r="K39" s="1">
-        <v>112</v>
+        <v>3.5</v>
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <v>800</v>
-      </c>
-      <c r="N39" s="1">
-        <v>48000</v>
+        <v>7</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="P39" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="Q39" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="S39" s="1"/>
     </row>
@@ -3807,7 +3829,7 @@
         <v>134</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>255</v>
@@ -3816,42 +3838,42 @@
         <v>155</v>
       </c>
       <c r="E40" s="2">
-        <v>52.71</v>
+        <v>105.41</v>
       </c>
       <c r="F40" s="2">
-        <v>45.8</v>
+        <v>91.6</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="1">
         <v>160</v>
       </c>
       <c r="K40" s="1">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q40" s="1">
         <v>2</v>
       </c>
       <c r="R40" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="S40" s="1"/>
     </row>
@@ -3860,7 +3882,7 @@
         <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>255</v>
@@ -3869,42 +3891,42 @@
         <v>155</v>
       </c>
       <c r="E41" s="2">
-        <v>105.41</v>
+        <v>421.63</v>
       </c>
       <c r="F41" s="2">
-        <v>91.6</v>
+        <v>366.42</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J41" s="1">
         <v>160</v>
       </c>
       <c r="K41" s="1">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P41" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q41" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R41" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S41" s="1"/>
     </row>
@@ -3913,26 +3935,26 @@
         <v>134</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E42" s="2">
-        <v>210.82</v>
+        <v>140.55000000000001</v>
       </c>
       <c r="F42" s="2">
-        <v>183.21</v>
+        <v>122.35</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" s="1">
         <v>160</v>
@@ -3945,19 +3967,19 @@
         <v>28</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P42" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q42" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S42" s="1"/>
     </row>
@@ -3966,26 +3988,26 @@
         <v>134</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="E43" s="2">
-        <v>421.63</v>
+        <v>281.70999999999998</v>
       </c>
       <c r="F43" s="2">
-        <v>366.42</v>
+        <v>244.69</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J43" s="1">
         <v>160</v>
@@ -3998,19 +4020,19 @@
         <v>56</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P43" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q43" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S43" s="1"/>
     </row>
@@ -4019,7 +4041,7 @@
         <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>255</v>
@@ -4028,42 +4050,42 @@
         <v>146</v>
       </c>
       <c r="E44" s="2">
-        <v>140.55000000000001</v>
+        <v>562.79999999999995</v>
       </c>
       <c r="F44" s="2">
-        <v>122.35</v>
+        <v>489.38</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J44" s="1">
         <v>160</v>
       </c>
       <c r="K44" s="1">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P44" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="Q44" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R44" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="S44" s="1"/>
     </row>
@@ -4072,7 +4094,7 @@
         <v>134</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>255</v>
@@ -4081,42 +4103,42 @@
         <v>146</v>
       </c>
       <c r="E45" s="2">
-        <v>281.70999999999998</v>
+        <v>1109.9000000000001</v>
       </c>
       <c r="F45" s="2">
-        <v>244.69</v>
+        <v>967.47</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1">
         <v>160</v>
       </c>
       <c r="K45" s="1">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P45" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q45" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>219</v>
+        <v>278</v>
       </c>
       <c r="S45" s="1"/>
     </row>
@@ -4125,51 +4147,51 @@
         <v>134</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E46" s="2">
-        <v>562.79999999999995</v>
+        <v>183.21</v>
       </c>
       <c r="F46" s="2">
-        <v>489.38</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>75</v>
+        <v>183.21</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J46" s="1">
         <v>160</v>
       </c>
       <c r="K46" s="1">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
-        <v>112</v>
-      </c>
-      <c r="N46" s="1" t="s">
-        <v>31</v>
+        <v>200</v>
+      </c>
+      <c r="N46" s="1">
+        <v>12000</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="P46" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q46" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S46" s="1"/>
     </row>
@@ -4178,51 +4200,51 @@
         <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>133</v>
+        <v>215</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>255</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E47" s="2">
-        <v>1109.9000000000001</v>
+        <v>210.82</v>
       </c>
       <c r="F47" s="2">
-        <v>967.47</v>
-      </c>
-      <c r="G47" s="1" t="s">
+        <v>183.21</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J47" s="1">
         <v>160</v>
       </c>
       <c r="K47" s="1">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P47" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q47" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R47" s="1" t="s">
-        <v>278</v>
+        <v>219</v>
       </c>
       <c r="S47" s="1"/>
     </row>
@@ -6662,7 +6684,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>254</v>
@@ -6671,44 +6693,44 @@
         <v>145</v>
       </c>
       <c r="E93" s="2">
-        <v>35.770000000000003</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="F93" s="2">
-        <v>35.770000000000003</v>
-      </c>
-      <c r="G93" s="1" t="s">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>78</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>243</v>
       </c>
       <c r="I93" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N93" s="1">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="P93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q93" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R93" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S93" s="1"/>
     </row>
@@ -6717,7 +6739,7 @@
         <v>46</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>255</v>
@@ -6726,10 +6748,10 @@
         <v>145</v>
       </c>
       <c r="E94" s="2">
-        <v>35.770000000000003</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="F94" s="2">
-        <v>35.770000000000003</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>78</v>
@@ -6738,32 +6760,32 @@
         <v>243</v>
       </c>
       <c r="I94" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K94" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
+        <v>16</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O94" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P94" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="1">
         <v>4</v>
       </c>
-      <c r="N94" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="P94" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q94" s="1">
-        <v>2</v>
-      </c>
       <c r="R94" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S94" s="1"/>
     </row>
@@ -6772,7 +6794,7 @@
         <v>46</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>254</v>
@@ -6781,10 +6803,10 @@
         <v>145</v>
       </c>
       <c r="E95" s="2">
-        <v>70.900000000000006</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="F95" s="2">
-        <v>70.900000000000006</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>78</v>
@@ -6793,32 +6815,32 @@
         <v>243</v>
       </c>
       <c r="I95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N95" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="P95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q95" s="1">
         <v>2</v>
       </c>
       <c r="R95" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S95" s="1"/>
     </row>
@@ -6827,7 +6849,7 @@
         <v>46</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>255</v>
@@ -6836,10 +6858,10 @@
         <v>145</v>
       </c>
       <c r="E96" s="2">
-        <v>70.900000000000006</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="F96" s="2">
-        <v>70.900000000000006</v>
+        <v>35.770000000000003</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>78</v>
@@ -6848,32 +6870,32 @@
         <v>243</v>
       </c>
       <c r="I96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q96" s="1">
         <v>2</v>
       </c>
       <c r="R96" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="S96" s="1"/>
     </row>
@@ -6882,7 +6904,7 @@
         <v>46</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>254</v>
@@ -6891,10 +6913,10 @@
         <v>145</v>
       </c>
       <c r="E97" s="2">
-        <v>141.80000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F97" s="2">
-        <v>141.80000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>78</v>
@@ -6903,32 +6925,32 @@
         <v>243</v>
       </c>
       <c r="I97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K97" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N97" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P97" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R97" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S97" s="1"/>
     </row>
@@ -6937,7 +6959,7 @@
         <v>46</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>255</v>
@@ -6946,10 +6968,10 @@
         <v>145</v>
       </c>
       <c r="E98" s="2">
-        <v>141.80000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="F98" s="2">
-        <v>141.80000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>78</v>
@@ -6958,32 +6980,32 @@
         <v>243</v>
       </c>
       <c r="I98" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K98" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P98" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q98" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R98" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="S98" s="1"/>
     </row>
@@ -9066,6 +9088,178 @@
         <v>69</v>
       </c>
     </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1655.59</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1">
+        <v>6</v>
+      </c>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1">
+        <v>112</v>
+      </c>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1">
+        <v>336</v>
+      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E143" s="2">
+        <v>3312.41</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1">
+        <v>12</v>
+      </c>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1">
+        <v>224</v>
+      </c>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1">
+        <v>672</v>
+      </c>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1">
+        <v>24</v>
+      </c>
+      <c r="Q143" s="1"/>
+      <c r="R143" s="1"/>
+      <c r="S143" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E144" s="2">
+        <v>6624.82</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1">
+        <v>24</v>
+      </c>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1">
+        <v>448</v>
+      </c>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1">
+        <v>1344</v>
+      </c>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q144" s="1"/>
+      <c r="R144" s="1"/>
+      <c r="S144" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E145" s="2">
+        <v>7286.56</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1">
+        <v>24</v>
+      </c>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1">
+        <v>1448</v>
+      </c>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1">
+        <v>1344</v>
+      </c>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q145" s="1"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/azure-vm-sizes.xlsx
+++ b/azure-vm-sizes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1572739f6e00b/GitHub/azure-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="927" documentId="752F80ACB641A52679494D6065DC081809D56F18" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{7B758FF2-79B9-4C41-908F-6B27344275AB}"/>
+  <xr:revisionPtr revIDLastSave="945" documentId="752F80ACB641A52679494D6065DC081809D56F18" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{0AF20FBE-F614-43F4-B482-0814091BDC72}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VM Sizes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="320">
   <si>
     <t>Type</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>1 GPU (4 x P40 card), RDMA</t>
+  </si>
+  <si>
+    <t>E64i v3</t>
+  </si>
+  <si>
+    <t>E64is v3</t>
   </si>
 </sst>
 </file>
@@ -989,7 +995,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,15 +1021,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1064,14 +1061,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1080,6 +1076,26 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1365,26 +1381,6 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1495,32 +1491,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:S158" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S158" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A2:S158">
-    <sortCondition ref="A2:A158"/>
-    <sortCondition ref="B2:B158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:S160" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S160" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A2:S160">
+    <sortCondition ref="A2:A160"/>
+    <sortCondition ref="B2:B160"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="18"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Size" dataDxfId="17"/>
     <tableColumn id="19" xr3:uid="{5DD33DC2-A401-48C2-B506-F559FA55F3C0}" name="Storage Type" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3037319D-829A-42BC-8D15-B399A6BB5BD4}" name="Category" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Price Linux" dataDxfId="14" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{FFEF408E-6C9E-4C51-8290-92BD1D391352}" name="Price Windows" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Region" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{83FDDE87-814A-408B-BFA0-80C2EF9523EE}" name="CPU" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Core" dataDxfId="11"/>
-    <tableColumn id="15" xr3:uid="{00ADF934-41FB-49C8-83C8-80D12E6C2679}" name="ACU" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Memory: GiB" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Local HDD: GiB" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Local SDD: GiB" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Max local disk throughput: IOPS" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Max local disk throughput: MBps" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Max Data Disks" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Max NICs" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Network bandwidth" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Note" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3037319D-829A-42BC-8D15-B399A6BB5BD4}" name="Category" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Price Linux" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{FFEF408E-6C9E-4C51-8290-92BD1D391352}" name="Price Windows" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Region" dataDxfId="15"/>
+    <tableColumn id="18" xr3:uid="{83FDDE87-814A-408B-BFA0-80C2EF9523EE}" name="CPU" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Core" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00ADF934-41FB-49C8-83C8-80D12E6C2679}" name="ACU" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Memory: GiB" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Local HDD: GiB" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Local SDD: GiB" dataDxfId="9"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Max local disk throughput: IOPS" dataDxfId="8"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Max local disk throughput: MBps" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Max Data Disks" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Max NICs" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Network bandwidth" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Note" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1823,10 +1819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S158"/>
+  <dimension ref="A1:S160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="J131" sqref="J131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,7 +1920,7 @@
       <c r="D2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="2">
         <v>12.32</v>
       </c>
       <c r="F2" s="2">
@@ -1975,7 +1971,7 @@
       <c r="D3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="2">
         <v>36.94</v>
       </c>
       <c r="F3" s="2">
@@ -2026,7 +2022,7 @@
       <c r="D4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>73.88</v>
       </c>
       <c r="F4" s="2">
@@ -2077,7 +2073,7 @@
       <c r="D5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="2">
         <v>147.75</v>
       </c>
       <c r="F5" s="2">
@@ -2128,7 +2124,7 @@
       <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="2">
         <v>295.5</v>
       </c>
       <c r="F6" s="2">
@@ -2179,7 +2175,7 @@
       <c r="D7" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="2">
         <v>152.68</v>
       </c>
       <c r="F7" s="2">
@@ -2230,7 +2226,7 @@
       <c r="D8" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="2">
         <v>305.35000000000002</v>
       </c>
       <c r="F8" s="2">
@@ -2281,7 +2277,7 @@
       <c r="D9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="2">
         <v>610.69000000000005</v>
       </c>
       <c r="F9" s="2">
@@ -2332,7 +2328,7 @@
       <c r="D10" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="2">
         <v>600.22</v>
       </c>
       <c r="F10" s="2">
@@ -2387,7 +2383,7 @@
       <c r="D11" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="2">
         <v>1200.44</v>
       </c>
       <c r="F11" s="2">
@@ -2442,7 +2438,7 @@
       <c r="D12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="2">
         <v>480.18</v>
       </c>
       <c r="F12" s="2">
@@ -2495,7 +2491,7 @@
       <c r="D13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="2">
         <v>960.36</v>
       </c>
       <c r="F13" s="2">
@@ -2548,7 +2544,7 @@
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="2">
         <v>11.09</v>
       </c>
       <c r="F14" s="2">
@@ -2595,7 +2591,7 @@
       <c r="D15" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="2">
         <v>17.239999999999998</v>
       </c>
       <c r="F15" s="2">
@@ -2642,7 +2638,7 @@
       <c r="D16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="2">
         <v>46.18</v>
       </c>
       <c r="F16" s="2">
@@ -2689,7 +2685,7 @@
       <c r="D17" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="2">
         <v>115.74</v>
       </c>
       <c r="F17" s="2">
@@ -2736,7 +2732,7 @@
       <c r="D18" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="2">
         <v>231.47</v>
       </c>
       <c r="F18" s="2">
@@ -2783,7 +2779,7 @@
       <c r="D19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="2">
         <v>25.24</v>
       </c>
       <c r="F19" s="2">
@@ -2836,7 +2832,7 @@
       <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="2">
         <v>53.56</v>
       </c>
       <c r="F20" s="2">
@@ -2889,7 +2885,7 @@
       <c r="D21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="2">
         <v>85.57</v>
       </c>
       <c r="F21" s="2">
@@ -2942,7 +2938,7 @@
       <c r="D22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="2">
         <v>112.66</v>
       </c>
       <c r="F22" s="2">
@@ -2995,7 +2991,7 @@
       <c r="D23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="2">
         <v>179.15</v>
       </c>
       <c r="F23" s="2">
@@ -3048,7 +3044,7 @@
       <c r="D24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="2">
         <v>235.78</v>
       </c>
       <c r="F24" s="2">
@@ -3101,7 +3097,7 @@
       <c r="D25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="2">
         <v>376.14</v>
       </c>
       <c r="F25" s="2">
@@ -3154,7 +3150,7 @@
       <c r="D26" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="2">
         <v>14.16</v>
       </c>
       <c r="F26" s="2">
@@ -3205,7 +3201,7 @@
       <c r="D27" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="2">
         <v>7.3879999999999999</v>
       </c>
       <c r="F27" s="2">
@@ -3256,7 +3252,7 @@
       <c r="D28" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="2">
         <v>56.03</v>
       </c>
       <c r="F28" s="2">
@@ -3307,7 +3303,7 @@
       <c r="D29" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="2">
         <v>27.71</v>
       </c>
       <c r="F29" s="2">
@@ -3358,7 +3354,7 @@
       <c r="D30" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="2">
         <v>112.05</v>
       </c>
       <c r="F30" s="2">
@@ -3409,7 +3405,7 @@
       <c r="D31" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="2">
         <v>224.09</v>
       </c>
       <c r="F31" s="2">
@@ -3460,7 +3456,7 @@
       <c r="D32" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="2">
         <v>44.94</v>
       </c>
       <c r="F32" s="2">
@@ -3513,7 +3509,7 @@
       <c r="D33" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="2">
         <v>89.88</v>
       </c>
       <c r="F33" s="2">
@@ -3566,7 +3562,7 @@
       <c r="D34" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="2">
         <v>179.76</v>
       </c>
       <c r="F34" s="2">
@@ -3619,7 +3615,7 @@
       <c r="D35" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="2">
         <v>359.52</v>
       </c>
       <c r="F35" s="2">
@@ -3672,7 +3668,7 @@
       <c r="D36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="2">
         <v>120.05</v>
       </c>
       <c r="F36" s="2">
@@ -3725,7 +3721,7 @@
       <c r="D37" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="2">
         <v>240.09</v>
       </c>
       <c r="F37" s="2">
@@ -3778,7 +3774,7 @@
       <c r="D38" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="2">
         <v>480.18</v>
       </c>
       <c r="F38" s="2">
@@ -3831,7 +3827,7 @@
       <c r="D39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="2">
         <v>949.27</v>
       </c>
       <c r="F39" s="2">
@@ -3884,7 +3880,7 @@
       <c r="D40" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="2">
         <v>44.94</v>
       </c>
       <c r="F40" s="2">
@@ -3937,7 +3933,7 @@
       <c r="D41" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="2">
         <v>89.88</v>
       </c>
       <c r="F41" s="2">
@@ -3990,7 +3986,7 @@
       <c r="D42" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="2">
         <v>179.76</v>
       </c>
       <c r="F42" s="2">
@@ -4043,7 +4039,7 @@
       <c r="D43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="2">
         <v>359.52</v>
       </c>
       <c r="F43" s="2">
@@ -4096,7 +4092,7 @@
       <c r="D44" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="2">
         <v>120.05</v>
       </c>
       <c r="F44" s="2">
@@ -4149,7 +4145,7 @@
       <c r="D45" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="2">
         <v>240.09</v>
       </c>
       <c r="F45" s="2">
@@ -4202,7 +4198,7 @@
       <c r="D46" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="2">
         <v>480.18</v>
       </c>
       <c r="F46" s="2">
@@ -4255,7 +4251,7 @@
       <c r="D47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="2">
         <v>949.27</v>
       </c>
       <c r="F47" s="2">
@@ -4308,7 +4304,7 @@
       <c r="D48" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="2">
         <v>40.64</v>
       </c>
       <c r="F48" s="2">
@@ -4345,7 +4341,7 @@
       <c r="Q48" s="1">
         <v>2</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="6">
         <v>750</v>
       </c>
       <c r="S48" s="1"/>
@@ -4363,7 +4359,7 @@
       <c r="D49" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="2">
         <v>81.27</v>
       </c>
       <c r="F49" s="2">
@@ -4400,7 +4396,7 @@
       <c r="Q49" s="1">
         <v>2</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="6">
         <v>1500</v>
       </c>
       <c r="S49" s="1"/>
@@ -4418,7 +4414,7 @@
       <c r="D50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="2">
         <v>162.53</v>
       </c>
       <c r="F50" s="2">
@@ -4455,7 +4451,7 @@
       <c r="Q50" s="1">
         <v>4</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="6">
         <v>3000</v>
       </c>
       <c r="S50" s="1"/>
@@ -4473,7 +4469,7 @@
       <c r="D51" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="2">
         <v>325.05</v>
       </c>
       <c r="F51" s="2">
@@ -4510,7 +4506,7 @@
       <c r="Q51" s="1">
         <v>8</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="6">
         <v>6000</v>
       </c>
       <c r="S51" s="1"/>
@@ -4528,7 +4524,7 @@
       <c r="D52" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="2">
         <v>650.09</v>
       </c>
       <c r="F52" s="2">
@@ -4565,7 +4561,7 @@
       <c r="Q52" s="1">
         <v>8</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="6">
         <v>12000</v>
       </c>
       <c r="S52" s="1"/>
@@ -4583,7 +4579,7 @@
       <c r="D53" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="2">
         <v>113.89</v>
       </c>
       <c r="F53" s="2">
@@ -4620,7 +4616,7 @@
       <c r="Q53" s="1">
         <v>2</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="6">
         <v>1500</v>
       </c>
       <c r="S53" s="1"/>
@@ -4638,7 +4634,7 @@
       <c r="D54" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="2">
         <v>228.4</v>
       </c>
       <c r="F54" s="2">
@@ -4675,7 +4671,7 @@
       <c r="Q54" s="1">
         <v>4</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="6">
         <v>3000</v>
       </c>
       <c r="S54" s="1"/>
@@ -4693,7 +4689,7 @@
       <c r="D55" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="2">
         <v>456.17</v>
       </c>
       <c r="F55" s="2">
@@ -4730,7 +4726,7 @@
       <c r="Q55" s="1">
         <v>8</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="6">
         <v>6000</v>
       </c>
       <c r="S55" s="1"/>
@@ -4748,7 +4744,7 @@
       <c r="D56" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="2">
         <v>912.34</v>
       </c>
       <c r="F56" s="2">
@@ -4785,7 +4781,7 @@
       <c r="Q56" s="1">
         <v>8</v>
       </c>
-      <c r="R56" s="7">
+      <c r="R56" s="6">
         <v>12000</v>
       </c>
       <c r="S56" s="1"/>
@@ -4803,7 +4799,7 @@
       <c r="D57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="2">
         <v>1140.73</v>
       </c>
       <c r="F57" s="2">
@@ -4840,7 +4836,7 @@
       <c r="Q57" s="1">
         <v>8</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="6">
         <v>25000</v>
       </c>
       <c r="S57" s="1" t="s">
@@ -4860,7 +4856,7 @@
       <c r="D58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="2">
         <v>40.64</v>
       </c>
       <c r="F58" s="2">
@@ -4897,7 +4893,7 @@
       <c r="Q58" s="1">
         <v>2</v>
       </c>
-      <c r="R58" s="7">
+      <c r="R58" s="6">
         <v>750</v>
       </c>
       <c r="S58" s="1"/>
@@ -4915,7 +4911,7 @@
       <c r="D59" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="2">
         <v>81.27</v>
       </c>
       <c r="F59" s="2">
@@ -4952,7 +4948,7 @@
       <c r="Q59" s="1">
         <v>2</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="6">
         <v>1500</v>
       </c>
       <c r="S59" s="1"/>
@@ -4970,7 +4966,7 @@
       <c r="D60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="2">
         <v>162.53</v>
       </c>
       <c r="F60" s="2">
@@ -5007,7 +5003,7 @@
       <c r="Q60" s="1">
         <v>4</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60" s="6">
         <v>3000</v>
       </c>
       <c r="S60" s="1"/>
@@ -5025,7 +5021,7 @@
       <c r="D61" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="2">
         <v>325.05</v>
       </c>
       <c r="F61" s="2">
@@ -5062,7 +5058,7 @@
       <c r="Q61" s="1">
         <v>8</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="6">
         <v>6000</v>
       </c>
       <c r="S61" s="1"/>
@@ -5080,7 +5076,7 @@
       <c r="D62" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="2">
         <v>650.09</v>
       </c>
       <c r="F62" s="2">
@@ -5117,7 +5113,7 @@
       <c r="Q62" s="1">
         <v>8</v>
       </c>
-      <c r="R62" s="7">
+      <c r="R62" s="6">
         <v>12000</v>
       </c>
       <c r="S62" s="1"/>
@@ -5135,7 +5131,7 @@
       <c r="D63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="2">
         <v>113.89</v>
       </c>
       <c r="F63" s="2">
@@ -5172,7 +5168,7 @@
       <c r="Q63" s="1">
         <v>2</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63" s="6">
         <v>1500</v>
       </c>
       <c r="S63" s="1"/>
@@ -5190,7 +5186,7 @@
       <c r="D64" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="2">
         <v>228.4</v>
       </c>
       <c r="F64" s="2">
@@ -5227,7 +5223,7 @@
       <c r="Q64" s="1">
         <v>4</v>
       </c>
-      <c r="R64" s="7">
+      <c r="R64" s="6">
         <v>3000</v>
       </c>
       <c r="S64" s="1"/>
@@ -5245,7 +5241,7 @@
       <c r="D65" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="2">
         <v>456.17</v>
       </c>
       <c r="F65" s="2">
@@ -5282,7 +5278,7 @@
       <c r="Q65" s="1">
         <v>8</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65" s="6">
         <v>6000</v>
       </c>
       <c r="S65" s="1"/>
@@ -5300,7 +5296,7 @@
       <c r="D66" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="2">
         <v>912.34</v>
       </c>
       <c r="F66" s="2">
@@ -5337,7 +5333,7 @@
       <c r="Q66" s="1">
         <v>8</v>
       </c>
-      <c r="R66" s="7">
+      <c r="R66" s="6">
         <v>12000</v>
       </c>
       <c r="S66" s="1"/>
@@ -5355,7 +5351,7 @@
       <c r="D67" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="2">
         <v>1140.73</v>
       </c>
       <c r="F67" s="2">
@@ -5392,7 +5388,7 @@
       <c r="Q67" s="1">
         <v>8</v>
       </c>
-      <c r="R67" s="7">
+      <c r="R67" s="6">
         <v>25000</v>
       </c>
       <c r="S67" s="1" t="s">
@@ -5412,7 +5408,7 @@
       <c r="D68" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="2">
         <v>65.88</v>
       </c>
       <c r="F68" s="2">
@@ -5467,7 +5463,7 @@
       <c r="D69" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="2">
         <v>73.88</v>
       </c>
       <c r="F69" s="2">
@@ -5522,7 +5518,7 @@
       <c r="D70" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="2">
         <v>131.75</v>
       </c>
       <c r="F70" s="2">
@@ -5577,7 +5573,7 @@
       <c r="D71" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="2">
         <v>147.75</v>
       </c>
       <c r="F71" s="2">
@@ -5632,7 +5628,7 @@
       <c r="D72" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="2">
         <v>263.49</v>
       </c>
       <c r="F72" s="2">
@@ -5687,7 +5683,7 @@
       <c r="D73" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="2">
         <v>295.5</v>
       </c>
       <c r="F73" s="2">
@@ -5742,7 +5738,7 @@
       <c r="D74" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="2">
         <v>526.97</v>
       </c>
       <c r="F74" s="2">
@@ -5797,7 +5793,7 @@
       <c r="D75" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="2">
         <v>590.99</v>
       </c>
       <c r="F75" s="2">
@@ -5852,7 +5848,7 @@
       <c r="D76" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="2">
         <v>1053.93</v>
       </c>
       <c r="F76" s="2">
@@ -5907,7 +5903,7 @@
       <c r="D77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="2">
         <v>1181.97</v>
       </c>
       <c r="F77" s="2">
@@ -5962,7 +5958,7 @@
       <c r="D78" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="2">
         <v>2107.85</v>
       </c>
       <c r="F78" s="2">
@@ -6017,7 +6013,7 @@
       <c r="D79" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="2">
         <v>2363.94</v>
       </c>
       <c r="F79" s="2">
@@ -6072,7 +6068,7 @@
       <c r="D80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="2">
         <v>91.12</v>
       </c>
       <c r="F80" s="2">
@@ -6127,7 +6123,7 @@
       <c r="D81" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="2">
         <v>91.12</v>
       </c>
       <c r="F81" s="2">
@@ -6182,7 +6178,7 @@
       <c r="D82" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="2">
         <v>182.23</v>
       </c>
       <c r="F82" s="2">
@@ -6237,7 +6233,7 @@
       <c r="D83" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="2">
         <v>182.23</v>
       </c>
       <c r="F83" s="2">
@@ -6292,7 +6288,7 @@
       <c r="D84" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="2">
         <v>365.06</v>
       </c>
       <c r="F84" s="2">
@@ -6347,7 +6343,7 @@
       <c r="D85" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="2">
         <v>365.06</v>
       </c>
       <c r="F85" s="2">
@@ -6402,7 +6398,7 @@
       <c r="D86" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="2">
         <v>730.12</v>
       </c>
       <c r="F86" s="2">
@@ -6457,7 +6453,7 @@
       <c r="D87" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="2">
         <v>730.12</v>
       </c>
       <c r="F87" s="2">
@@ -6512,7 +6508,7 @@
       <c r="D88" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="2">
         <v>1459.61</v>
       </c>
       <c r="F88" s="2">
@@ -6567,7 +6563,7 @@
       <c r="D89" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="2">
         <v>1459.61</v>
       </c>
       <c r="F89" s="2">
@@ -6622,7 +6618,7 @@
       <c r="D90" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="2">
         <v>2751.16</v>
       </c>
       <c r="F90" s="2">
@@ -6669,15 +6665,15 @@
         <v>215</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="2">
         <v>2751.16</v>
       </c>
       <c r="F91" s="2">
@@ -6700,13 +6696,13 @@
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
-        <v>1600</v>
-      </c>
-      <c r="N91" s="1">
-        <v>96000</v>
+        <v>864</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
       <c r="P91" s="1">
         <v>32</v>
@@ -6717,115 +6713,119 @@
       <c r="R91" s="1">
         <v>30000</v>
       </c>
-      <c r="S91" s="1"/>
+      <c r="S91" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>81</v>
+        <v>319</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E92" s="6">
-        <v>35.090000000000003</v>
+        <v>135</v>
+      </c>
+      <c r="E92" s="2">
+        <v>2751.16</v>
       </c>
       <c r="F92" s="2">
-        <v>62.8</v>
-      </c>
-      <c r="G92" s="4" t="s">
+        <v>4459.4799999999996</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="I92" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K92" s="1">
-        <v>2</v>
+        <v>432</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
-        <v>16</v>
+        <v>1600</v>
       </c>
       <c r="N92" s="1">
-        <v>3000</v>
+        <v>96000</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="P92" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q92" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R92" s="1">
-        <v>750</v>
-      </c>
-      <c r="S92" s="1"/>
+        <v>30000</v>
+      </c>
+      <c r="S92" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E93" s="6">
-        <v>35.090000000000003</v>
+        <v>135</v>
+      </c>
+      <c r="E93" s="2">
+        <v>2751.16</v>
       </c>
       <c r="F93" s="2">
-        <v>62.8</v>
+        <v>4459.4799999999996</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>76</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="I93" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="K93" s="1">
-        <v>2</v>
+        <v>432</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
-        <v>4</v>
-      </c>
-      <c r="N93" s="1" t="s">
-        <v>27</v>
+        <v>1600</v>
+      </c>
+      <c r="N93" s="1">
+        <v>96000</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>49</v>
+        <v>178</v>
       </c>
       <c r="P93" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q93" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R93" s="1">
-        <v>750</v>
+        <v>30000</v>
       </c>
       <c r="S93" s="1"/>
     </row>
@@ -6834,7 +6834,7 @@
         <v>45</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>225</v>
@@ -6842,11 +6842,11 @@
       <c r="D94" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E94" s="6">
-        <v>69.569999999999993</v>
+      <c r="E94" s="2">
+        <v>35.090000000000003</v>
       </c>
       <c r="F94" s="2">
-        <v>125.59</v>
+        <v>62.8</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>76</v>
@@ -6855,32 +6855,32 @@
         <v>214</v>
       </c>
       <c r="I94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K94" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N94" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="P94" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q94" s="1">
         <v>2</v>
       </c>
       <c r="R94" s="1">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="S94" s="1"/>
     </row>
@@ -6889,7 +6889,7 @@
         <v>45</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>226</v>
@@ -6897,11 +6897,11 @@
       <c r="D95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="6">
-        <v>69.569999999999993</v>
+      <c r="E95" s="2">
+        <v>35.090000000000003</v>
       </c>
       <c r="F95" s="2">
-        <v>125.59</v>
+        <v>62.8</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>76</v>
@@ -6910,32 +6910,32 @@
         <v>214</v>
       </c>
       <c r="I95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P95" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q95" s="1">
         <v>2</v>
       </c>
       <c r="R95" s="1">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="S95" s="1"/>
     </row>
@@ -6944,7 +6944,7 @@
         <v>45</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>225</v>
@@ -6952,11 +6952,11 @@
       <c r="D96" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E96" s="6">
-        <v>139.13</v>
+      <c r="E96" s="2">
+        <v>69.569999999999993</v>
       </c>
       <c r="F96" s="2">
-        <v>251.17</v>
+        <v>125.59</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>76</v>
@@ -6965,32 +6965,32 @@
         <v>214</v>
       </c>
       <c r="I96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K96" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N96" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P96" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R96" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="S96" s="1"/>
     </row>
@@ -6999,7 +6999,7 @@
         <v>45</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>226</v>
@@ -7007,11 +7007,11 @@
       <c r="D97" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E97" s="6">
-        <v>139.13</v>
+      <c r="E97" s="2">
+        <v>69.569999999999993</v>
       </c>
       <c r="F97" s="2">
-        <v>251.17</v>
+        <v>125.59</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>76</v>
@@ -7020,32 +7020,32 @@
         <v>214</v>
       </c>
       <c r="I97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K97" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P97" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q97" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R97" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="S97" s="1"/>
     </row>
@@ -7054,7 +7054,7 @@
         <v>45</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>225</v>
@@ -7062,11 +7062,11 @@
       <c r="D98" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="6">
-        <v>278.88</v>
+      <c r="E98" s="2">
+        <v>139.13</v>
       </c>
       <c r="F98" s="2">
-        <v>502.34</v>
+        <v>251.17</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>76</v>
@@ -7075,32 +7075,32 @@
         <v>214</v>
       </c>
       <c r="I98" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K98" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="N98" s="1">
-        <v>24000</v>
+        <v>12000</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P98" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q98" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R98" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="S98" s="1"/>
     </row>
@@ -7109,7 +7109,7 @@
         <v>45</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>226</v>
@@ -7117,11 +7117,11 @@
       <c r="D99" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E99" s="6">
-        <v>278.88</v>
+      <c r="E99" s="2">
+        <v>139.13</v>
       </c>
       <c r="F99" s="2">
-        <v>502.34</v>
+        <v>251.17</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>76</v>
@@ -7130,32 +7130,32 @@
         <v>214</v>
       </c>
       <c r="I99" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K99" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P99" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q99" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R99" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="S99" s="1"/>
     </row>
@@ -7164,7 +7164,7 @@
         <v>45</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>225</v>
@@ -7172,11 +7172,11 @@
       <c r="D100" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E100" s="6">
-        <v>557.13</v>
+      <c r="E100" s="2">
+        <v>278.88</v>
       </c>
       <c r="F100" s="2">
-        <v>1004.68</v>
+        <v>502.34</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>76</v>
@@ -7185,32 +7185,32 @@
         <v>214</v>
       </c>
       <c r="I100" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K100" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="N100" s="1">
-        <v>48000</v>
+        <v>24000</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P100" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q100" s="1">
         <v>8</v>
       </c>
       <c r="R100" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="S100" s="1"/>
     </row>
@@ -7219,7 +7219,7 @@
         <v>45</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>136</v>
+        <v>213</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>226</v>
@@ -7227,11 +7227,11 @@
       <c r="D101" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E101" s="6">
-        <v>557.13</v>
+      <c r="E101" s="2">
+        <v>278.88</v>
       </c>
       <c r="F101" s="2">
-        <v>1004.68</v>
+        <v>502.34</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>76</v>
@@ -7240,41 +7240,41 @@
         <v>214</v>
       </c>
       <c r="I101" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K101" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P101" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q101" s="1">
         <v>8</v>
       </c>
       <c r="R101" s="1">
-        <v>12000</v>
+        <v>6000</v>
       </c>
       <c r="S101" s="1"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>225</v>
@@ -7282,50 +7282,54 @@
       <c r="D102" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E102" s="6">
-        <v>63.41</v>
+      <c r="E102" s="2">
+        <v>557.13</v>
       </c>
       <c r="F102" s="2">
-        <v>113.89</v>
+        <v>1004.68</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="I102" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="K102" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
-        <v>16</v>
-      </c>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1">
-        <v>4000</v>
+        <v>256</v>
+      </c>
+      <c r="N102" s="1">
+        <v>48000</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="P102" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="1"/>
-      <c r="R102" s="1" t="s">
-        <v>313</v>
+        <v>64</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>8</v>
+      </c>
+      <c r="R102" s="1">
+        <v>12000</v>
       </c>
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>274</v>
+        <v>45</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>281</v>
+        <v>136</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>226</v>
@@ -7333,41 +7337,45 @@
       <c r="D103" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E103" s="6">
-        <v>63.41</v>
+      <c r="E103" s="2">
+        <v>557.13</v>
       </c>
       <c r="F103" s="2">
-        <v>113.89</v>
+        <v>1004.68</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>303</v>
+        <v>214</v>
       </c>
       <c r="I103" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>314</v>
+        <v>177</v>
       </c>
       <c r="K103" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
-        <v>16</v>
-      </c>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1">
-        <v>4000</v>
+        <v>64</v>
+      </c>
+      <c r="N103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="P103" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1" t="s">
-        <v>313</v>
+        <v>64</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>8</v>
+      </c>
+      <c r="R103" s="1">
+        <v>12000</v>
       </c>
       <c r="S103" s="1"/>
     </row>
@@ -7376,7 +7384,7 @@
         <v>274</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>225</v>
@@ -7384,11 +7392,11 @@
       <c r="D104" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E104" s="6">
-        <v>125.59</v>
+      <c r="E104" s="2">
+        <v>63.41</v>
       </c>
       <c r="F104" s="2">
-        <v>227.78</v>
+        <v>113.89</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>74</v>
@@ -7397,24 +7405,24 @@
         <v>303</v>
       </c>
       <c r="I104" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K104" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N104" s="1"/>
       <c r="O104" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P104" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q104" s="1"/>
       <c r="R104" s="1" t="s">
@@ -7427,7 +7435,7 @@
         <v>274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>226</v>
@@ -7435,11 +7443,11 @@
       <c r="D105" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E105" s="6">
-        <v>125.59</v>
+      <c r="E105" s="2">
+        <v>63.41</v>
       </c>
       <c r="F105" s="2">
-        <v>227.78</v>
+        <v>113.89</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>74</v>
@@ -7448,24 +7456,24 @@
         <v>303</v>
       </c>
       <c r="I105" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K105" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N105" s="1"/>
       <c r="O105" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P105" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q105" s="1"/>
       <c r="R105" s="1" t="s">
@@ -7478,7 +7486,7 @@
         <v>274</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>225</v>
@@ -7486,11 +7494,11 @@
       <c r="D106" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E106" s="6">
-        <v>251.79</v>
+      <c r="E106" s="2">
+        <v>125.59</v>
       </c>
       <c r="F106" s="2">
-        <v>455.56</v>
+        <v>227.78</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>74</v>
@@ -7499,28 +7507,28 @@
         <v>303</v>
       </c>
       <c r="I106" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K106" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N106" s="1"/>
       <c r="O106" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P106" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q106" s="1"/>
       <c r="R106" s="1" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="S106" s="1"/>
     </row>
@@ -7529,7 +7537,7 @@
         <v>274</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>226</v>
@@ -7537,11 +7545,11 @@
       <c r="D107" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E107" s="6">
-        <v>251.79</v>
+      <c r="E107" s="2">
+        <v>125.59</v>
       </c>
       <c r="F107" s="2">
-        <v>455.56</v>
+        <v>227.78</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>74</v>
@@ -7550,28 +7558,28 @@
         <v>303</v>
       </c>
       <c r="I107" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J107" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K107" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N107" s="1"/>
       <c r="O107" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P107" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q107" s="1"/>
       <c r="R107" s="1" t="s">
-        <v>7</v>
+        <v>313</v>
       </c>
       <c r="S107" s="1"/>
     </row>
@@ -7580,7 +7588,7 @@
         <v>274</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>225</v>
@@ -7588,11 +7596,11 @@
       <c r="D108" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E108" s="6">
-        <v>503.57</v>
+      <c r="E108" s="2">
+        <v>251.79</v>
       </c>
       <c r="F108" s="2">
-        <v>911.72</v>
+        <v>455.56</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>74</v>
@@ -7601,24 +7609,24 @@
         <v>303</v>
       </c>
       <c r="I108" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K108" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="P108" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q108" s="1"/>
       <c r="R108" s="1" t="s">
@@ -7631,7 +7639,7 @@
         <v>274</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>226</v>
@@ -7639,11 +7647,11 @@
       <c r="D109" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E109" s="6">
-        <v>503.57</v>
+      <c r="E109" s="2">
+        <v>251.79</v>
       </c>
       <c r="F109" s="2">
-        <v>911.72</v>
+        <v>455.56</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>74</v>
@@ -7652,24 +7660,24 @@
         <v>303</v>
       </c>
       <c r="I109" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K109" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="P109" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1" t="s">
@@ -7682,7 +7690,7 @@
         <v>274</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>225</v>
@@ -7690,11 +7698,11 @@
       <c r="D110" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="6">
-        <v>1007.14</v>
+      <c r="E110" s="2">
+        <v>503.57</v>
       </c>
       <c r="F110" s="2">
-        <v>1822.82</v>
+        <v>911.72</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>74</v>
@@ -7703,28 +7711,28 @@
         <v>303</v>
       </c>
       <c r="I110" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K110" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="P110" s="1">
         <v>32</v>
       </c>
       <c r="Q110" s="1"/>
       <c r="R110" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S110" s="1"/>
     </row>
@@ -7733,7 +7741,7 @@
         <v>274</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>226</v>
@@ -7741,11 +7749,11 @@
       <c r="D111" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E111" s="6">
-        <v>1007.14</v>
+      <c r="E111" s="2">
+        <v>503.57</v>
       </c>
       <c r="F111" s="2">
-        <v>1822.82</v>
+        <v>911.72</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>74</v>
@@ -7754,28 +7762,28 @@
         <v>303</v>
       </c>
       <c r="I111" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K111" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1">
-        <v>64000</v>
+        <v>32000</v>
       </c>
       <c r="P111" s="1">
         <v>32</v>
       </c>
       <c r="Q111" s="1"/>
       <c r="R111" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S111" s="1"/>
     </row>
@@ -7784,7 +7792,7 @@
         <v>274</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>225</v>
@@ -7792,11 +7800,11 @@
       <c r="D112" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E112" s="6">
-        <v>2014.28</v>
+      <c r="E112" s="2">
+        <v>1007.14</v>
       </c>
       <c r="F112" s="2">
-        <v>3645.64</v>
+        <v>1822.82</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>74</v>
@@ -7805,21 +7813,21 @@
         <v>303</v>
       </c>
       <c r="I112" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K112" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1">
-        <v>128000</v>
+        <v>64000</v>
       </c>
       <c r="P112" s="1">
         <v>32</v>
@@ -7835,7 +7843,7 @@
         <v>274</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>226</v>
@@ -7843,11 +7851,11 @@
       <c r="D113" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E113" s="6">
-        <v>2014.28</v>
+      <c r="E113" s="2">
+        <v>1007.14</v>
       </c>
       <c r="F113" s="2">
-        <v>3645.64</v>
+        <v>1822.82</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>74</v>
@@ -7856,21 +7864,21 @@
         <v>303</v>
       </c>
       <c r="I113" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K113" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1">
-        <v>128000</v>
+        <v>64000</v>
       </c>
       <c r="P113" s="1">
         <v>32</v>
@@ -7886,7 +7894,7 @@
         <v>274</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>225</v>
@@ -7894,11 +7902,11 @@
       <c r="D114" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E114" s="6">
-        <v>2266.06</v>
+      <c r="E114" s="2">
+        <v>2014.28</v>
       </c>
       <c r="F114" s="2">
-        <v>4101.1899999999996</v>
+        <v>3645.64</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>74</v>
@@ -7907,21 +7915,21 @@
         <v>303</v>
       </c>
       <c r="I114" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J114" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K114" s="1">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="N114" s="1"/>
       <c r="O114" s="1">
-        <v>144000</v>
+        <v>128000</v>
       </c>
       <c r="P114" s="1">
         <v>32</v>
@@ -7930,16 +7938,14 @@
       <c r="R114" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S114" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="S114" s="1"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>226</v>
@@ -7947,11 +7953,11 @@
       <c r="D115" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E115" s="6">
-        <v>2266.06</v>
+      <c r="E115" s="2">
+        <v>2014.28</v>
       </c>
       <c r="F115" s="2">
-        <v>4101.1899999999996</v>
+        <v>3645.64</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>74</v>
@@ -7960,21 +7966,21 @@
         <v>303</v>
       </c>
       <c r="I115" s="1">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K115" s="1">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1">
-        <v>576</v>
+        <v>512</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1">
-        <v>144000</v>
+        <v>128000</v>
       </c>
       <c r="P115" s="1">
         <v>32</v>
@@ -7983,126 +7989,120 @@
       <c r="R115" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S115" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="S115" s="1"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D116" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2266.06</v>
+      </c>
+      <c r="F116" s="2">
+        <v>4101.1899999999996</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I116" s="1">
+        <v>72</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K116" s="1">
         <v>144</v>
-      </c>
-      <c r="E116" s="6">
-        <v>430.93</v>
-      </c>
-      <c r="F116" s="2">
-        <v>474.02</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I116" s="1">
-        <v>2</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K116" s="1">
-        <v>28</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1">
-        <v>384</v>
-      </c>
-      <c r="N116" s="1">
-        <v>6000</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>22</v>
+        <v>576</v>
+      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1">
+        <v>144000</v>
       </c>
       <c r="P116" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>2</v>
-      </c>
-      <c r="R116" s="1">
-        <v>2000</v>
-      </c>
-      <c r="S116" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S116" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>52</v>
+        <v>274</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>234</v>
+        <v>287</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D117" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2">
+        <v>2266.06</v>
+      </c>
+      <c r="F117" s="2">
+        <v>4101.1899999999996</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I117" s="1">
+        <v>72</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K117" s="1">
         <v>144</v>
-      </c>
-      <c r="E117" s="6">
-        <v>861.86</v>
-      </c>
-      <c r="F117" s="2">
-        <v>948.04</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I117" s="1">
-        <v>4</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K117" s="1">
-        <v>56</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
-        <v>768</v>
-      </c>
-      <c r="N117" s="1">
-        <v>12000</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>23</v>
+        <v>576</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1">
+        <v>144000</v>
       </c>
       <c r="P117" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>2</v>
-      </c>
-      <c r="R117" s="1">
-        <v>4000</v>
-      </c>
-      <c r="S117" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S117" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>225</v>
@@ -8110,11 +8110,11 @@
       <c r="D118" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E118" s="6">
-        <v>1723.71</v>
+      <c r="E118" s="2">
+        <v>430.93</v>
       </c>
       <c r="F118" s="2">
-        <v>1896.08</v>
+        <v>474.02</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>74</v>
@@ -8123,32 +8123,32 @@
         <v>302</v>
       </c>
       <c r="I118" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K118" s="1">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
-        <v>1536</v>
+        <v>384</v>
       </c>
       <c r="N118" s="1">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="O118" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P118" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q118" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R118" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="S118" s="1"/>
     </row>
@@ -8157,7 +8157,7 @@
         <v>52</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>225</v>
@@ -8165,45 +8165,45 @@
       <c r="D119" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E119" s="6">
-        <v>3447.42</v>
+      <c r="E119" s="2">
+        <v>861.86</v>
       </c>
       <c r="F119" s="2">
-        <v>3792.16</v>
-      </c>
-      <c r="G119" s="4" t="s">
+        <v>948.04</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>302</v>
       </c>
       <c r="I119" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K119" s="1">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
-        <v>3072</v>
+        <v>768</v>
       </c>
       <c r="N119" s="1">
-        <v>48000</v>
+        <v>12000</v>
       </c>
       <c r="O119" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="P119" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="Q119" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R119" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="S119" s="1"/>
     </row>
@@ -8212,7 +8212,7 @@
         <v>52</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>225</v>
@@ -8220,68 +8220,66 @@
       <c r="D120" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E120" s="6">
-        <v>6149.94</v>
+      <c r="E120" s="2">
+        <v>1723.71</v>
       </c>
       <c r="F120" s="2">
-        <v>6833.26</v>
-      </c>
-      <c r="G120" s="4" t="s">
+        <v>1896.08</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>302</v>
       </c>
       <c r="I120" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K120" s="1">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="L120" s="1"/>
       <c r="M120" s="1">
-        <v>6144</v>
+        <v>1536</v>
       </c>
       <c r="N120" s="1">
-        <v>96000</v>
+        <v>24000</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="P120" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q120" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R120" s="1">
-        <v>20000</v>
-      </c>
-      <c r="S120" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="S120" s="1"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E121" s="6">
-        <v>430.93</v>
+      <c r="E121" s="2">
+        <v>3447.42</v>
       </c>
       <c r="F121" s="2">
-        <v>474.02</v>
+        <v>3792.16</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>74</v>
@@ -8290,32 +8288,32 @@
         <v>302</v>
       </c>
       <c r="I121" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K121" s="1">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
-        <v>56</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>54</v>
+        <v>3072</v>
+      </c>
+      <c r="N121" s="1">
+        <v>48000</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="P121" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="Q121" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R121" s="1">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="S121" s="1"/>
     </row>
@@ -8324,19 +8322,19 @@
         <v>52</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E122" s="6">
-        <v>861.86</v>
+      <c r="E122" s="2">
+        <v>6149.94</v>
       </c>
       <c r="F122" s="2">
-        <v>948.04</v>
+        <v>6833.26</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>74</v>
@@ -8345,41 +8343,43 @@
         <v>302</v>
       </c>
       <c r="I122" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K122" s="1">
-        <v>56</v>
+        <v>448</v>
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
-        <v>112</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>55</v>
+        <v>6144</v>
+      </c>
+      <c r="N122" s="1">
+        <v>96000</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P122" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Q122" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R122" s="1">
-        <v>4000</v>
-      </c>
-      <c r="S122" s="1"/>
+        <v>20000</v>
+      </c>
+      <c r="S122" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>226</v>
@@ -8387,11 +8387,11 @@
       <c r="D123" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E123" s="6">
-        <v>1723.71</v>
+      <c r="E123" s="2">
+        <v>430.93</v>
       </c>
       <c r="F123" s="2">
-        <v>1896.08</v>
+        <v>474.02</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>74</v>
@@ -8400,32 +8400,32 @@
         <v>302</v>
       </c>
       <c r="I123" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K123" s="1">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="N123" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P123" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q123" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R123" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="S123" s="1"/>
     </row>
@@ -8434,7 +8434,7 @@
         <v>52</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>226</v>
@@ -8442,11 +8442,11 @@
       <c r="D124" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E124" s="6">
-        <v>3447.42</v>
+      <c r="E124" s="2">
+        <v>861.86</v>
       </c>
       <c r="F124" s="2">
-        <v>3792.16</v>
+        <v>948.04</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>74</v>
@@ -8455,32 +8455,32 @@
         <v>302</v>
       </c>
       <c r="I124" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K124" s="1">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P124" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="Q124" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R124" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="S124" s="1"/>
     </row>
@@ -8489,7 +8489,7 @@
         <v>52</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>226</v>
@@ -8497,11 +8497,11 @@
       <c r="D125" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E125" s="6">
-        <v>6149.94</v>
+      <c r="E125" s="2">
+        <v>1723.71</v>
       </c>
       <c r="F125" s="2">
-        <v>6833.26</v>
+        <v>1896.08</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>74</v>
@@ -8510,149 +8510,153 @@
         <v>302</v>
       </c>
       <c r="I125" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K125" s="1">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
-        <v>896</v>
+        <v>224</v>
       </c>
       <c r="N125" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P125" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q125" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R125" s="1">
-        <v>20000</v>
-      </c>
-      <c r="S125" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="S125" s="1"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E126" s="6">
-        <v>597.76</v>
+        <v>144</v>
+      </c>
+      <c r="E126" s="2">
+        <v>3447.42</v>
       </c>
       <c r="F126" s="2">
-        <v>931.42</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>76</v>
+        <v>3792.16</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="I126" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K126" s="1">
-        <v>56</v>
+        <v>224</v>
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N126" s="1">
-        <v>8000</v>
-      </c>
-      <c r="O126" s="1"/>
+        <v>448</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O126" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="P126" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q126" s="1">
-        <v>2</v>
-      </c>
-      <c r="R126" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="R126" s="1">
+        <v>16000</v>
       </c>
       <c r="S126" s="1"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E127" s="6">
-        <v>800.91</v>
+        <v>144</v>
+      </c>
+      <c r="E127" s="2">
+        <v>6149.94</v>
       </c>
       <c r="F127" s="2">
-        <v>1247.8399999999999</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>76</v>
+        <v>6833.26</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="I127" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K127" s="1">
-        <v>112</v>
+        <v>448</v>
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N127" s="1">
-        <v>8000</v>
-      </c>
-      <c r="O127" s="1"/>
+        <v>896</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O127" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="P127" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q127" s="1">
-        <v>2</v>
-      </c>
-      <c r="R127" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="S127" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="R127" s="1">
+        <v>20000</v>
+      </c>
+      <c r="S127" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>225</v>
@@ -8660,11 +8664,11 @@
       <c r="D128" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E128" s="6">
-        <v>1194.9000000000001</v>
+      <c r="E128" s="2">
+        <v>597.76</v>
       </c>
       <c r="F128" s="2">
-        <v>1862.22</v>
+        <v>931.42</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>76</v>
@@ -8673,30 +8677,30 @@
         <v>261</v>
       </c>
       <c r="I128" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>247</v>
       </c>
       <c r="K128" s="1">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N128" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O128" s="1"/>
       <c r="P128" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q128" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R128" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S128" s="1"/>
     </row>
@@ -8705,7 +8709,7 @@
         <v>64</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>225</v>
@@ -8713,11 +8717,11 @@
       <c r="D129" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E129" s="6">
-        <v>1601.2</v>
+      <c r="E129" s="2">
+        <v>800.91</v>
       </c>
       <c r="F129" s="2">
-        <v>2495.0700000000002</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>76</v>
@@ -8726,30 +8730,30 @@
         <v>261</v>
       </c>
       <c r="I129" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>247</v>
       </c>
       <c r="K129" s="1">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="N129" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="O129" s="1"/>
       <c r="P129" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q129" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R129" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S129" s="1"/>
     </row>
@@ -8758,7 +8762,7 @@
         <v>64</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>225</v>
@@ -8766,11 +8770,11 @@
       <c r="D130" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E130" s="6">
-        <v>1761.26</v>
+      <c r="E130" s="2">
+        <v>1194.9000000000001</v>
       </c>
       <c r="F130" s="2">
-        <v>2744.39</v>
+        <v>1862.22</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>76</v>
@@ -8785,7 +8789,7 @@
         <v>247</v>
       </c>
       <c r="K130" s="1">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
@@ -8804,16 +8808,14 @@
       <c r="R130" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S130" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="S130" s="1"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>225</v>
@@ -8821,11 +8823,11 @@
       <c r="D131" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E131" s="6">
-        <v>1314.95</v>
+      <c r="E131" s="2">
+        <v>1601.2</v>
       </c>
       <c r="F131" s="2">
-        <v>2048.75</v>
+        <v>2495.0700000000002</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>76</v>
@@ -8840,7 +8842,7 @@
         <v>247</v>
       </c>
       <c r="K131" s="1">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="L131" s="1"/>
       <c r="M131" s="1">
@@ -8859,126 +8861,124 @@
       <c r="R131" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="S131" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="S131" s="1"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>300</v>
+        <v>109</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E132" s="6">
-        <v>229.01</v>
+        <v>145</v>
+      </c>
+      <c r="E132" s="2">
+        <v>1761.26</v>
       </c>
       <c r="F132" s="2">
-        <v>342.28</v>
+        <v>2744.39</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="I132" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K132" s="1">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="L132" s="1"/>
       <c r="M132" s="1">
-        <v>678</v>
+        <v>2000</v>
       </c>
       <c r="N132" s="1">
-        <v>5000</v>
-      </c>
-      <c r="O132" s="1">
-        <v>125</v>
-      </c>
+        <v>16000</v>
+      </c>
+      <c r="O132" s="1"/>
       <c r="P132" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="Q132" s="1">
-        <v>2</v>
-      </c>
-      <c r="R132" s="1">
-        <v>4000</v>
-      </c>
-      <c r="S132" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="R132" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S132" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>301</v>
+        <v>110</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E133" s="6">
-        <v>458.02</v>
+        <v>145</v>
+      </c>
+      <c r="E133" s="2">
+        <v>1314.95</v>
       </c>
       <c r="F133" s="2">
-        <v>684.56</v>
+        <v>2048.75</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="I133" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K133" s="1">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="L133" s="1"/>
       <c r="M133" s="1">
-        <v>1388</v>
+        <v>2000</v>
       </c>
       <c r="N133" s="1">
-        <v>10000</v>
-      </c>
-      <c r="O133" s="1">
-        <v>250</v>
-      </c>
+        <v>16000</v>
+      </c>
+      <c r="O133" s="1"/>
       <c r="P133" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="Q133" s="1">
         <v>4</v>
       </c>
-      <c r="R133" s="1">
-        <v>8000</v>
-      </c>
-      <c r="S133" s="1"/>
+      <c r="R133" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S133" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>226</v>
@@ -8986,11 +8986,11 @@
       <c r="D134" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E134" s="6">
-        <v>916.03</v>
+      <c r="E134" s="2">
+        <v>229.01</v>
       </c>
       <c r="F134" s="2">
-        <v>1369.12</v>
+        <v>342.28</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>74</v>
@@ -8999,32 +8999,32 @@
         <v>302</v>
       </c>
       <c r="I134" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K134" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="L134" s="1"/>
       <c r="M134" s="1">
-        <v>2807</v>
+        <v>678</v>
       </c>
       <c r="N134" s="1">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="O134" s="1">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="P134" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q134" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R134" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="S134" s="1"/>
     </row>
@@ -9033,7 +9033,7 @@
         <v>95</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>139</v>
+        <v>301</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>226</v>
@@ -9041,11 +9041,11 @@
       <c r="D135" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E135" s="6">
-        <v>1832.06</v>
+      <c r="E135" s="2">
+        <v>458.02</v>
       </c>
       <c r="F135" s="2">
-        <v>2738.23</v>
+        <v>684.56</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>74</v>
@@ -9054,83 +9054,81 @@
         <v>302</v>
       </c>
       <c r="I135" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>243</v>
       </c>
       <c r="K135" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="L135" s="1"/>
       <c r="M135" s="1">
-        <v>5630</v>
+        <v>1388</v>
       </c>
       <c r="N135" s="1">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="O135" s="1">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="P135" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="Q135" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R135" s="1">
-        <v>20000</v>
-      </c>
-      <c r="S135" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>8000</v>
+      </c>
+      <c r="S135" s="1"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E136" s="6">
-        <v>8909.1</v>
+        <v>137</v>
+      </c>
+      <c r="E136" s="2">
+        <v>916.03</v>
       </c>
       <c r="F136" s="2">
-        <v>11718.74</v>
+        <v>1369.12</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I136" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K136" s="1">
-        <v>1750</v>
+        <v>128</v>
       </c>
       <c r="L136" s="1"/>
       <c r="M136" s="1">
-        <v>2000</v>
-      </c>
-      <c r="N136" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O136" s="1" t="s">
-        <v>231</v>
+        <v>2807</v>
+      </c>
+      <c r="N136" s="1">
+        <v>20000</v>
+      </c>
+      <c r="O136" s="1">
+        <v>500</v>
       </c>
       <c r="P136" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q136" s="1">
         <v>8</v>
@@ -9142,47 +9140,47 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>226</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E137" s="6">
-        <v>5747.95</v>
+        <v>137</v>
+      </c>
+      <c r="E137" s="2">
+        <v>1832.06</v>
       </c>
       <c r="F137" s="2">
-        <v>7560.3</v>
+        <v>2738.23</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I137" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="K137" s="1">
-        <v>1000</v>
+        <v>256</v>
       </c>
       <c r="L137" s="1"/>
       <c r="M137" s="1">
-        <v>2000</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>231</v>
+        <v>5630</v>
+      </c>
+      <c r="N137" s="1">
+        <v>40000</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1000</v>
       </c>
       <c r="P137" s="1">
         <v>64</v>
@@ -9191,16 +9189,18 @@
         <v>8</v>
       </c>
       <c r="R137" s="1">
-        <v>16000</v>
-      </c>
-      <c r="S137" s="1"/>
+        <v>20000</v>
+      </c>
+      <c r="S137" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>226</v>
@@ -9208,11 +9208,11 @@
       <c r="D138" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E138" s="6">
-        <v>23001.13</v>
+      <c r="E138" s="2">
+        <v>8909.1</v>
       </c>
       <c r="F138" s="2">
-        <v>28619.17</v>
+        <v>11718.74</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>74</v>
@@ -9221,23 +9221,23 @@
         <v>296</v>
       </c>
       <c r="I138" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>230</v>
       </c>
       <c r="K138" s="1">
-        <v>3800</v>
+        <v>1750</v>
       </c>
       <c r="L138" s="1"/>
       <c r="M138" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O138" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P138" s="1">
         <v>64</v>
@@ -9246,18 +9246,16 @@
         <v>8</v>
       </c>
       <c r="R138" s="1">
-        <v>30000</v>
-      </c>
-      <c r="S138" s="1" t="s">
-        <v>44</v>
-      </c>
+        <v>16000</v>
+      </c>
+      <c r="S138" s="1"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>226</v>
@@ -9265,11 +9263,11 @@
       <c r="D139" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E139" s="6">
-        <v>11495.89</v>
+      <c r="E139" s="2">
+        <v>5747.95</v>
       </c>
       <c r="F139" s="2">
-        <v>15120.59</v>
+        <v>7560.3</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>74</v>
@@ -9278,23 +9276,23 @@
         <v>296</v>
       </c>
       <c r="I139" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>230</v>
       </c>
       <c r="K139" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L139" s="1"/>
       <c r="M139" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P139" s="1">
         <v>64</v>
@@ -9303,102 +9301,122 @@
         <v>8</v>
       </c>
       <c r="R139" s="1">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="S139" s="1"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E140" s="6">
-        <v>598.38</v>
+        <v>92</v>
+      </c>
+      <c r="E140" s="2">
+        <v>23001.13</v>
       </c>
       <c r="F140" s="2">
-        <v>711.65</v>
+        <v>28619.17</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H140" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="I140" s="1">
-        <v>6</v>
-      </c>
-      <c r="J140" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="K140" s="1">
-        <v>56</v>
+        <v>3800</v>
       </c>
       <c r="L140" s="1"/>
       <c r="M140" s="1">
-        <v>380</v>
-      </c>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
+        <v>4000</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O140" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="P140" s="1">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="Q140" s="1">
-        <v>1</v>
-      </c>
-      <c r="R140" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="R140" s="1">
+        <v>30000</v>
+      </c>
       <c r="S140" s="1" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E141" s="6">
-        <v>1196.75</v>
+        <v>92</v>
+      </c>
+      <c r="E141" s="2">
+        <v>11495.89</v>
       </c>
       <c r="F141" s="2">
-        <v>1423.29</v>
+        <v>15120.59</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H141" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="I141" s="1">
-        <v>12</v>
-      </c>
-      <c r="J141" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="K141" s="1">
-        <v>112</v>
+        <v>2000</v>
       </c>
       <c r="L141" s="1"/>
       <c r="M141" s="1">
-        <v>680</v>
-      </c>
-      <c r="N141" s="1"/>
-      <c r="O141" s="1"/>
+        <v>4000</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="O141" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="P141" s="1">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="Q141" s="1">
-        <v>2</v>
-      </c>
-      <c r="R141" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="R141" s="1">
+        <v>30000</v>
+      </c>
       <c r="S141" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -9406,7 +9424,7 @@
         <v>69</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>225</v>
@@ -9414,38 +9432,38 @@
       <c r="D142" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E142" s="6">
-        <v>2393.4899999999998</v>
+      <c r="E142" s="2">
+        <v>598.38</v>
       </c>
       <c r="F142" s="2">
-        <v>2846.58</v>
+        <v>711.65</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H142" s="1"/>
       <c r="I142" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J142" s="1"/>
       <c r="K142" s="1">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="L142" s="1"/>
       <c r="M142" s="1">
-        <v>1440</v>
+        <v>380</v>
       </c>
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="Q142" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R142" s="1"/>
       <c r="S142" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -9453,7 +9471,7 @@
         <v>69</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>225</v>
@@ -9461,46 +9479,46 @@
       <c r="D143" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E143" s="6">
-        <v>2632.96</v>
+      <c r="E143" s="2">
+        <v>1196.75</v>
       </c>
       <c r="F143" s="2">
-        <v>3130.99</v>
+        <v>1423.29</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H143" s="1"/>
       <c r="I143" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J143" s="1"/>
       <c r="K143" s="1">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
-        <v>1440</v>
+        <v>680</v>
       </c>
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q143" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R143" s="1"/>
       <c r="S143" s="1" t="s">
-        <v>244</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>225</v>
@@ -9508,46 +9526,46 @@
       <c r="D144" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E144" s="6">
-        <v>1651.07</v>
+      <c r="E144" s="2">
+        <v>2393.4899999999998</v>
       </c>
       <c r="F144" s="2">
-        <v>1963.8</v>
+        <v>2846.58</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H144" s="1"/>
       <c r="I144" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J144" s="1"/>
       <c r="K144" s="1">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1">
-        <v>336</v>
+        <v>1440</v>
       </c>
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="Q144" s="1">
         <v>4</v>
       </c>
       <c r="R144" s="1"/>
       <c r="S144" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>225</v>
@@ -9555,18 +9573,18 @@
       <c r="D145" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E145" s="6">
-        <v>3303.36</v>
+      <c r="E145" s="2">
+        <v>2632.96</v>
       </c>
       <c r="F145" s="2">
-        <v>3927.59</v>
+        <v>3130.99</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H145" s="1"/>
       <c r="I145" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J145" s="1"/>
       <c r="K145" s="1">
@@ -9574,19 +9592,19 @@
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">
-        <v>672</v>
+        <v>1440</v>
       </c>
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="Q145" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R145" s="1"/>
       <c r="S145" s="1" t="s">
-        <v>103</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.25">
@@ -9594,7 +9612,7 @@
         <v>140</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>225</v>
@@ -9602,38 +9620,38 @@
       <c r="D146" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E146" s="6">
-        <v>6606.72</v>
+      <c r="E146" s="2">
+        <v>1651.07</v>
       </c>
       <c r="F146" s="2">
-        <v>7857.02</v>
+        <v>1963.8</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H146" s="1"/>
       <c r="I146" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J146" s="1"/>
       <c r="K146" s="1">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1">
-        <v>1344</v>
+        <v>336</v>
       </c>
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q146" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R146" s="1"/>
       <c r="S146" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.25">
@@ -9641,7 +9659,7 @@
         <v>140</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>225</v>
@@ -9649,132 +9667,132 @@
       <c r="D147" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E147" s="6">
-        <v>7266.65</v>
+      <c r="E147" s="2">
+        <v>3303.36</v>
       </c>
       <c r="F147" s="2">
-        <v>8642.5400000000009</v>
+        <v>3927.59</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H147" s="1"/>
       <c r="I147" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J147" s="1"/>
       <c r="K147" s="1">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="L147" s="1"/>
       <c r="M147" s="1">
-        <v>1344</v>
+        <v>672</v>
       </c>
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q147" s="1">
         <v>8</v>
       </c>
       <c r="R147" s="1"/>
       <c r="S147" s="1" t="s">
-        <v>315</v>
+        <v>103</v>
       </c>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E148" s="2">
-        <v>1883.77</v>
+        <v>6606.72</v>
       </c>
       <c r="F148" s="2">
-        <v>2110.31</v>
+        <v>7857.02</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J148" s="1"/>
       <c r="K148" s="1">
-        <v>112</v>
+        <v>448</v>
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1">
-        <v>336</v>
+        <v>1344</v>
       </c>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q148" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R148" s="1"/>
       <c r="S148" s="1" t="s">
-        <v>310</v>
+        <v>104</v>
       </c>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>304</v>
+        <v>140</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E149" s="2">
-        <v>3767.53</v>
+        <v>7266.65</v>
       </c>
       <c r="F149" s="2">
-        <v>4220.62</v>
+        <v>8642.5400000000009</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>309</v>
+        <v>74</v>
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J149" s="1"/>
       <c r="K149" s="1">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="L149" s="1"/>
       <c r="M149" s="1">
-        <v>672</v>
+        <v>1344</v>
       </c>
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q149" s="1">
         <v>8</v>
       </c>
       <c r="R149" s="1"/>
       <c r="S149" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.25">
@@ -9782,7 +9800,7 @@
         <v>304</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>226</v>
@@ -9791,37 +9809,37 @@
         <v>146</v>
       </c>
       <c r="E150" s="2">
-        <v>8288.56</v>
+        <v>1883.77</v>
       </c>
       <c r="F150" s="2">
-        <v>9285.24</v>
+        <v>2110.31</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>309</v>
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J150" s="1"/>
       <c r="K150" s="1">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
-        <v>1344</v>
+        <v>336</v>
       </c>
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q150" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R150" s="1"/>
       <c r="S150" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.25">
@@ -9829,7 +9847,7 @@
         <v>304</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>226</v>
@@ -9838,131 +9856,131 @@
         <v>146</v>
       </c>
       <c r="E151" s="2">
-        <v>7535.06</v>
+        <v>3767.53</v>
       </c>
       <c r="F151" s="2">
-        <v>8441.24</v>
+        <v>4220.62</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>309</v>
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J151" s="1"/>
       <c r="K151" s="1">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="L151" s="1"/>
       <c r="M151" s="1">
-        <v>1344</v>
+        <v>672</v>
       </c>
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q151" s="1">
         <v>8</v>
       </c>
       <c r="R151" s="1"/>
       <c r="S151" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E152" s="6">
-        <v>1651.07</v>
+      <c r="E152" s="2">
+        <v>8288.56</v>
       </c>
       <c r="F152" s="2">
-        <v>1963.8</v>
+        <v>9285.24</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J152" s="1"/>
       <c r="K152" s="1">
-        <v>112</v>
+        <v>448</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1">
-        <v>336</v>
+        <v>1344</v>
       </c>
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q152" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R152" s="1"/>
       <c r="S152" s="1" t="s">
-        <v>270</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E153" s="6">
-        <v>3303.36</v>
+      <c r="E153" s="2">
+        <v>7535.06</v>
       </c>
       <c r="F153" s="2">
-        <v>3927.59</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>74</v>
+        <v>8441.24</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="H153" s="1"/>
       <c r="I153" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J153" s="1"/>
       <c r="K153" s="1">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1">
-        <v>672</v>
+        <v>1344</v>
       </c>
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q153" s="1">
         <v>8</v>
       </c>
       <c r="R153" s="1"/>
       <c r="S153" s="1" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.25">
@@ -9970,7 +9988,7 @@
         <v>265</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>225</v>
@@ -9978,38 +9996,38 @@
       <c r="D154" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E154" s="6">
-        <v>6606.72</v>
+      <c r="E154" s="2">
+        <v>1651.07</v>
       </c>
       <c r="F154" s="2">
-        <v>7857.02</v>
+        <v>1963.8</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H154" s="1"/>
       <c r="I154" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J154" s="1"/>
       <c r="K154" s="1">
-        <v>448</v>
+        <v>112</v>
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1">
-        <v>1344</v>
+        <v>336</v>
       </c>
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Q154" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R154" s="1"/>
       <c r="S154" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.25">
@@ -10017,7 +10035,7 @@
         <v>265</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>225</v>
@@ -10025,46 +10043,46 @@
       <c r="D155" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E155" s="6">
-        <v>7266.65</v>
+      <c r="E155" s="2">
+        <v>3303.36</v>
       </c>
       <c r="F155" s="2">
-        <v>8642.5400000000009</v>
-      </c>
-      <c r="G155" s="4" t="s">
+        <v>3927.59</v>
+      </c>
+      <c r="G155" s="1" t="s">
         <v>74</v>
       </c>
       <c r="H155" s="1"/>
       <c r="I155" s="1">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J155" s="1"/>
       <c r="K155" s="1">
-        <v>1448</v>
+        <v>224</v>
       </c>
       <c r="L155" s="1"/>
       <c r="M155" s="1">
-        <v>1344</v>
+        <v>672</v>
       </c>
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q155" s="1">
         <v>8</v>
       </c>
       <c r="R155" s="1"/>
       <c r="S155" s="1" t="s">
-        <v>317</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>225</v>
@@ -10072,46 +10090,46 @@
       <c r="D156" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E156" s="6">
-        <v>744.89</v>
+      <c r="E156" s="2">
+        <v>6606.72</v>
       </c>
       <c r="F156" s="2">
-        <v>898.79</v>
+        <v>7857.02</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H156" s="1"/>
       <c r="I156" s="1">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J156" s="1"/>
       <c r="K156" s="1">
-        <v>56</v>
+        <v>448</v>
       </c>
       <c r="L156" s="1"/>
       <c r="M156" s="1">
-        <v>380</v>
+        <v>1344</v>
       </c>
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q156" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R156" s="1"/>
       <c r="S156" s="1" t="s">
-        <v>67</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>105</v>
+        <v>269</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>225</v>
@@ -10119,38 +10137,38 @@
       <c r="D157" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E157" s="6">
-        <v>1489.78</v>
+      <c r="E157" s="2">
+        <v>7266.65</v>
       </c>
       <c r="F157" s="2">
-        <v>1797.58</v>
+        <v>8642.5400000000009</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H157" s="1"/>
       <c r="I157" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J157" s="1"/>
       <c r="K157" s="1">
-        <v>112</v>
+        <v>1448</v>
       </c>
       <c r="L157" s="1"/>
       <c r="M157" s="1">
-        <v>680</v>
+        <v>1344</v>
       </c>
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q157" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R157" s="1"/>
       <c r="S157" s="1" t="s">
-        <v>66</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.25">
@@ -10158,7 +10176,7 @@
         <v>65</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>225</v>
@@ -10166,37 +10184,131 @@
       <c r="D158" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E158" s="6">
-        <v>2979.55</v>
+      <c r="E158" s="2">
+        <v>744.89</v>
       </c>
       <c r="F158" s="2">
-        <v>3589.01</v>
-      </c>
-      <c r="G158" s="1" t="s">
+        <v>898.79</v>
+      </c>
+      <c r="G158" s="4" t="s">
         <v>76</v>
       </c>
       <c r="H158" s="1"/>
       <c r="I158" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J158" s="1"/>
       <c r="K158" s="1">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="L158" s="1"/>
       <c r="M158" s="1">
-        <v>1440</v>
+        <v>380</v>
       </c>
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="Q158" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R158" s="1"/>
       <c r="S158" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E159" s="2">
+        <v>1489.78</v>
+      </c>
+      <c r="F159" s="2">
+        <v>1797.58</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1">
+        <v>12</v>
+      </c>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1">
+        <v>112</v>
+      </c>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1">
+        <v>680</v>
+      </c>
+      <c r="N159" s="1"/>
+      <c r="O159" s="1"/>
+      <c r="P159" s="1">
+        <v>48</v>
+      </c>
+      <c r="Q159" s="1">
+        <v>2</v>
+      </c>
+      <c r="R159" s="1"/>
+      <c r="S159" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E160" s="2">
+        <v>2979.55</v>
+      </c>
+      <c r="F160" s="2">
+        <v>3589.01</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1">
+        <v>24</v>
+      </c>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1">
+        <v>224</v>
+      </c>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1">
+        <v>1440</v>
+      </c>
+      <c r="N160" s="1"/>
+      <c r="O160" s="1"/>
+      <c r="P160" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q160" s="1">
+        <v>4</v>
+      </c>
+      <c r="R160" s="1"/>
+      <c r="S160" s="1" t="s">
         <v>68</v>
       </c>
     </row>

--- a/azure-vm-sizes.xlsx
+++ b/azure-vm-sizes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1572739f6e00b/GitHub/azure-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1457" documentId="752F80ACB641A52679494D6065DC081809D56F18" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{DF343909-C7D8-4D2A-AF27-7F9A81EA6C52}"/>
+  <xr:revisionPtr revIDLastSave="1464" documentId="752F80ACB641A52679494D6065DC081809D56F18" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{79C29CE3-7009-4AFD-A69A-76EB11597588}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1761,11 +1761,22 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A4:S180" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A4:S180" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState ref="A5:S173">
-    <sortCondition ref="A5:A173"/>
-    <sortCondition ref="C5:C173"/>
-    <sortCondition ref="B5:B173"/>
+  <autoFilter ref="A4:S180" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="3,5"/>
+        <filter val="4"/>
+        <filter val="7"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A7:S114">
+    <sortCondition ref="F4:F180"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="18"/>
@@ -2091,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,8 +2121,8 @@
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -2195,7 +2206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2246,7 +2257,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2299,56 +2310,58 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>199</v>
+        <v>74</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E7" s="2">
-        <v>73.88</v>
+        <v>27.71</v>
       </c>
       <c r="F7" s="2">
-        <v>110.81</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>37.56</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L7" s="1">
-        <v>135</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>2000</v>
-      </c>
-      <c r="O7" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>8</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O7" s="1">
+        <v>15</v>
+      </c>
       <c r="P7" s="1">
         <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <v>2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>500</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2399,7 +2412,7 @@
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2450,7 +2463,7 @@
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2501,7 +2514,7 @@
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2552,7 +2565,7 @@
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2603,7 +2616,7 @@
       </c>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2658,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2713,7 +2726,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2766,7 +2779,7 @@
       </c>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2819,7 +2832,7 @@
       </c>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -2866,7 +2879,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -2960,7 +2973,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
@@ -3007,7 +3020,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -3054,7 +3067,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
@@ -3160,7 +3173,7 @@
       </c>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -3213,7 +3226,7 @@
       </c>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>139</v>
       </c>
@@ -3266,7 +3279,7 @@
       </c>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
@@ -3319,7 +3332,7 @@
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
@@ -3372,7 +3385,7 @@
       </c>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
@@ -3425,7 +3438,7 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3478,7 +3491,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -3531,7 +3544,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3586,58 +3599,56 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E32" s="2">
-        <v>27.71</v>
+        <v>73.88</v>
       </c>
       <c r="F32" s="2">
-        <v>37.56</v>
-      </c>
-      <c r="G32" s="4" t="s">
+        <v>110.81</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1"/>
+      <c r="J32" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="K32" s="1">
-        <v>4</v>
-      </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1">
-        <v>8</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O32" s="1">
-        <v>15</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="L32" s="1">
+        <v>135</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1">
+        <v>2000</v>
+      </c>
+      <c r="O32" s="1"/>
       <c r="P32" s="1">
         <v>4</v>
       </c>
       <c r="Q32" s="1">
-        <v>3</v>
-      </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>500</v>
+      </c>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -3690,7 +3701,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -3743,7 +3754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
@@ -3798,58 +3809,58 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>194</v>
+        <v>272</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2">
-        <v>89.88</v>
+        <v>63.41</v>
       </c>
       <c r="F36" s="2">
-        <v>158.83000000000001</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>113.89</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="I36" s="1">
         <v>2</v>
       </c>
-      <c r="J36" s="1">
-        <v>160</v>
+      <c r="J36" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="K36" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>14</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1">
+        <v>4000</v>
       </c>
       <c r="P36" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q36" s="1">
         <v>2</v>
       </c>
       <c r="R36" s="1">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
@@ -3902,7 +3913,7 @@
       </c>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
@@ -3955,7 +3966,7 @@
       </c>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
@@ -4008,7 +4019,7 @@
       </c>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
@@ -4061,7 +4072,7 @@
       </c>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
@@ -4114,7 +4125,7 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
@@ -4167,7 +4178,7 @@
       </c>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
@@ -4222,58 +4233,58 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>190</v>
+        <v>272</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E44" s="2">
-        <v>89.88</v>
+        <v>63.41</v>
       </c>
       <c r="F44" s="2">
-        <v>158.83000000000001</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="1"/>
+        <v>113.89</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="I44" s="1">
         <v>2</v>
       </c>
-      <c r="J44" s="1">
-        <v>160</v>
+      <c r="J44" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="K44" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <v>100</v>
-      </c>
-      <c r="N44" s="1">
-        <v>6000</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1">
+        <v>4000</v>
       </c>
       <c r="P44" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q44" s="1">
         <v>2</v>
       </c>
       <c r="R44" s="1">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
@@ -4326,7 +4337,7 @@
       </c>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
@@ -4379,7 +4390,7 @@
       </c>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
@@ -4432,7 +4443,7 @@
       </c>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
@@ -4485,7 +4496,7 @@
       </c>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
@@ -4538,7 +4549,7 @@
       </c>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
@@ -4591,7 +4602,7 @@
       </c>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
@@ -4648,24 +4659,24 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2">
-        <v>81.27</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="F52" s="2">
-        <v>150.21</v>
-      </c>
-      <c r="G52" s="1" t="s">
+        <v>125.59</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -4678,17 +4689,17 @@
         <v>175</v>
       </c>
       <c r="K52" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N52" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P52" s="1">
         <v>8</v>
@@ -4696,12 +4707,12 @@
       <c r="Q52" s="1">
         <v>2</v>
       </c>
-      <c r="R52" s="6">
+      <c r="R52" s="1">
         <v>1500</v>
       </c>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
@@ -4756,7 +4767,7 @@
       </c>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
@@ -4811,7 +4822,7 @@
       </c>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
@@ -4866,7 +4877,7 @@
       </c>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
@@ -4921,7 +4932,7 @@
       </c>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
@@ -4976,7 +4987,7 @@
       </c>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
@@ -5031,7 +5042,7 @@
       </c>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -5086,7 +5097,7 @@
       </c>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
@@ -5143,7 +5154,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -5200,24 +5211,24 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E62" s="2">
-        <v>81.27</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="F62" s="2">
-        <v>150.21</v>
-      </c>
-      <c r="G62" s="1" t="s">
+        <v>125.59</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H62" s="1" t="s">
@@ -5230,11 +5241,11 @@
         <v>175</v>
       </c>
       <c r="K62" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="N62" s="1">
         <v>6000</v>
@@ -5248,12 +5259,12 @@
       <c r="Q62" s="1">
         <v>2</v>
       </c>
-      <c r="R62" s="6">
+      <c r="R62" s="1">
         <v>1500</v>
       </c>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
@@ -5308,7 +5319,7 @@
       </c>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -5363,7 +5374,7 @@
       </c>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
@@ -5418,7 +5429,7 @@
       </c>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
@@ -5473,7 +5484,7 @@
       </c>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
@@ -5528,7 +5539,7 @@
       </c>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
@@ -5583,7 +5594,7 @@
       </c>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
@@ -5638,7 +5649,7 @@
       </c>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>127</v>
       </c>
@@ -5695,7 +5706,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
@@ -5750,7 +5761,7 @@
       </c>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
@@ -5805,7 +5816,7 @@
       </c>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
@@ -5860,7 +5871,7 @@
       </c>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
@@ -5915,7 +5926,7 @@
       </c>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
@@ -5970,7 +5981,7 @@
       </c>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
@@ -6025,7 +6036,7 @@
       </c>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
@@ -6080,7 +6091,7 @@
       </c>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>128</v>
       </c>
@@ -6135,7 +6146,7 @@
       </c>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>128</v>
       </c>
@@ -6190,7 +6201,7 @@
       </c>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>128</v>
       </c>
@@ -6245,7 +6256,7 @@
       </c>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
@@ -6300,7 +6311,7 @@
       </c>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
@@ -6355,7 +6366,7 @@
       </c>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>213</v>
       </c>
@@ -6410,7 +6421,7 @@
       </c>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>213</v>
       </c>
@@ -6465,7 +6476,7 @@
       </c>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -6520,7 +6531,7 @@
       </c>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>213</v>
       </c>
@@ -6575,7 +6586,7 @@
       </c>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>213</v>
       </c>
@@ -6630,7 +6641,7 @@
       </c>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>213</v>
       </c>
@@ -6687,7 +6698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>213</v>
       </c>
@@ -6742,7 +6753,7 @@
       </c>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
@@ -6797,7 +6808,7 @@
       </c>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
@@ -6852,7 +6863,7 @@
       </c>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>213</v>
       </c>
@@ -6907,7 +6918,7 @@
       </c>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>213</v>
       </c>
@@ -6962,7 +6973,7 @@
       </c>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
@@ -7017,7 +7028,7 @@
       </c>
       <c r="S94" s="1"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>213</v>
       </c>
@@ -7072,7 +7083,7 @@
       </c>
       <c r="S95" s="1"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
@@ -7129,7 +7140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
@@ -7186,22 +7197,22 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E98" s="2">
-        <v>69.569999999999993</v>
+        <v>81.27</v>
       </c>
       <c r="F98" s="2">
-        <v>125.59</v>
+        <v>150.21</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>75</v>
@@ -7216,17 +7227,17 @@
         <v>175</v>
       </c>
       <c r="K98" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N98" s="1" t="s">
         <v>27</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="P98" s="1">
         <v>8</v>
@@ -7234,12 +7245,12 @@
       <c r="Q98" s="1">
         <v>2</v>
       </c>
-      <c r="R98" s="1">
+      <c r="R98" s="6">
         <v>1500</v>
       </c>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
@@ -7294,7 +7305,7 @@
       </c>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>44</v>
       </c>
@@ -7349,7 +7360,7 @@
       </c>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>44</v>
       </c>
@@ -7404,7 +7415,7 @@
       </c>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
@@ -7461,24 +7472,24 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E103" s="2">
-        <v>69.569999999999993</v>
+        <v>81.27</v>
       </c>
       <c r="F103" s="2">
-        <v>125.59</v>
-      </c>
-      <c r="G103" s="4" t="s">
+        <v>150.21</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H103" s="1" t="s">
@@ -7491,11 +7502,11 @@
         <v>175</v>
       </c>
       <c r="K103" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N103" s="1">
         <v>6000</v>
@@ -7509,12 +7520,12 @@
       <c r="Q103" s="1">
         <v>2</v>
       </c>
-      <c r="R103" s="1">
+      <c r="R103" s="6">
         <v>1500</v>
       </c>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>44</v>
       </c>
@@ -7569,7 +7580,7 @@
       </c>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>44</v>
       </c>
@@ -7624,7 +7635,7 @@
       </c>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>44</v>
       </c>
@@ -7681,58 +7692,58 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>279</v>
+        <v>121</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E107" s="2">
-        <v>63.41</v>
+        <v>89.88</v>
       </c>
       <c r="F107" s="2">
-        <v>113.89</v>
-      </c>
-      <c r="G107" s="4" t="s">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="H107" s="1"/>
       <c r="I107" s="1">
         <v>2</v>
       </c>
-      <c r="J107" s="1" t="s">
-        <v>308</v>
+      <c r="J107" s="1">
+        <v>160</v>
       </c>
       <c r="K107" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
-        <v>16</v>
-      </c>
-      <c r="N107" s="1"/>
-      <c r="O107" s="1">
-        <v>4000</v>
+        <v>14</v>
+      </c>
+      <c r="N107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O107" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="P107" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q107" s="1">
         <v>2</v>
       </c>
       <c r="R107" s="1">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>272</v>
       </c>
@@ -7785,7 +7796,7 @@
       </c>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>272</v>
       </c>
@@ -7838,7 +7849,7 @@
       </c>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>272</v>
       </c>
@@ -7891,7 +7902,7 @@
       </c>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>272</v>
       </c>
@@ -7944,7 +7955,7 @@
       </c>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>272</v>
       </c>
@@ -7997,7 +8008,7 @@
       </c>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>272</v>
       </c>
@@ -8054,58 +8065,58 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>271</v>
+        <v>121</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E114" s="2">
-        <v>63.41</v>
+        <v>89.88</v>
       </c>
       <c r="F114" s="2">
-        <v>113.89</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>158.83000000000001</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" s="1"/>
       <c r="I114" s="1">
         <v>2</v>
       </c>
-      <c r="J114" s="1" t="s">
-        <v>308</v>
+      <c r="J114" s="1">
+        <v>160</v>
       </c>
       <c r="K114" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
-        <v>16</v>
-      </c>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1">
-        <v>4000</v>
+        <v>100</v>
+      </c>
+      <c r="N114" s="1">
+        <v>6000</v>
+      </c>
+      <c r="O114" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="P114" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q114" s="1">
         <v>2</v>
       </c>
       <c r="R114" s="1">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>272</v>
       </c>
@@ -8158,7 +8169,7 @@
       </c>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>272</v>
       </c>
@@ -8211,7 +8222,7 @@
       </c>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>272</v>
       </c>
@@ -8264,7 +8275,7 @@
       </c>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>272</v>
       </c>
@@ -8317,7 +8328,7 @@
       </c>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>272</v>
       </c>
@@ -8370,7 +8381,7 @@
       </c>
       <c r="S119" s="1"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>272</v>
       </c>
@@ -8425,7 +8436,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>51</v>
       </c>
@@ -8480,7 +8491,7 @@
       </c>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>51</v>
       </c>
@@ -8535,7 +8546,7 @@
       </c>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>51</v>
       </c>
@@ -8590,7 +8601,7 @@
       </c>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>51</v>
       </c>
@@ -8645,7 +8656,7 @@
       </c>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>51</v>
       </c>
@@ -8702,7 +8713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>51</v>
       </c>
@@ -8757,7 +8768,7 @@
       </c>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
@@ -8812,7 +8823,7 @@
       </c>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>51</v>
       </c>
@@ -8867,7 +8878,7 @@
       </c>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>51</v>
       </c>
@@ -8922,7 +8933,7 @@
       </c>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>51</v>
       </c>
@@ -8979,7 +8990,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>63</v>
       </c>
@@ -9032,7 +9043,7 @@
       </c>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>63</v>
       </c>
@@ -9085,7 +9096,7 @@
       </c>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>63</v>
       </c>
@@ -9138,7 +9149,7 @@
       </c>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>63</v>
       </c>
@@ -9191,7 +9202,7 @@
       </c>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>63</v>
       </c>
@@ -9246,7 +9257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>63</v>
       </c>
@@ -9301,7 +9312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>93</v>
       </c>
@@ -9356,7 +9367,7 @@
       </c>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>93</v>
       </c>
@@ -9411,7 +9422,7 @@
       </c>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
@@ -9466,7 +9477,7 @@
       </c>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>93</v>
       </c>
@@ -9523,7 +9534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>92</v>
       </c>
@@ -9578,7 +9589,7 @@
       </c>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>92</v>
       </c>
@@ -9633,7 +9644,7 @@
       </c>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>92</v>
       </c>
@@ -9688,7 +9699,7 @@
       </c>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>92</v>
       </c>
@@ -9743,7 +9754,7 @@
       </c>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>92</v>
       </c>
@@ -9798,7 +9809,7 @@
       </c>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>92</v>
       </c>
@@ -9853,7 +9864,7 @@
       </c>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>92</v>
       </c>
@@ -9908,7 +9919,7 @@
       </c>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>92</v>
       </c>
@@ -9963,7 +9974,7 @@
       </c>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>92</v>
       </c>
@@ -10018,7 +10029,7 @@
       </c>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>92</v>
       </c>
@@ -10075,7 +10086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>92</v>
       </c>
@@ -10124,7 +10135,7 @@
       </c>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>92</v>
       </c>
@@ -10173,7 +10184,7 @@
       </c>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>92</v>
       </c>
@@ -10222,7 +10233,7 @@
       </c>
       <c r="S153" s="1"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>92</v>
       </c>
@@ -10271,7 +10282,7 @@
       </c>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>68</v>
       </c>
@@ -10318,7 +10329,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>68</v>
       </c>
@@ -10365,7 +10376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>68</v>
       </c>
@@ -10412,7 +10423,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>68</v>
       </c>
@@ -10459,7 +10470,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>138</v>
       </c>
@@ -10506,7 +10517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>138</v>
       </c>
@@ -10553,7 +10564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>138</v>
       </c>
@@ -10600,7 +10611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>138</v>
       </c>
@@ -10647,7 +10658,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>299</v>
       </c>
@@ -10694,7 +10705,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>299</v>
       </c>
@@ -10741,7 +10752,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>299</v>
       </c>
@@ -10788,7 +10799,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>299</v>
       </c>
@@ -10835,7 +10846,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>263</v>
       </c>
@@ -10882,7 +10893,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>263</v>
       </c>
@@ -10929,7 +10940,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>263</v>
       </c>
@@ -10976,7 +10987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>263</v>
       </c>
@@ -11023,7 +11034,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>64</v>
       </c>
@@ -11070,7 +11081,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>64</v>
       </c>
@@ -11117,7 +11128,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>64</v>
       </c>
@@ -11164,7 +11175,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>333</v>
       </c>
@@ -11205,7 +11216,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>333</v>
       </c>
@@ -11246,7 +11257,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>333</v>
       </c>
@@ -11287,7 +11298,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>333</v>
       </c>
@@ -11328,7 +11339,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>333</v>
       </c>
@@ -11369,7 +11380,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>333</v>
       </c>
@@ -11410,7 +11421,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>333</v>
       </c>

--- a/azure-vm-sizes.xlsx
+++ b/azure-vm-sizes.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1572739f6e00b/GitHub/azure-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1464" documentId="752F80ACB641A52679494D6065DC081809D56F18" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{79C29CE3-7009-4AFD-A69A-76EB11597588}"/>
+  <xr:revisionPtr revIDLastSave="1475" documentId="752F80ACB641A52679494D6065DC081809D56F18" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{53E243CF-4287-44FB-9F77-A9B6D98C3FD6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VM Sizes" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179016"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1761,22 +1767,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A4:S180" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A4:S180" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="2"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="3,5"/>
-        <filter val="4"/>
-        <filter val="7"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A7:S114">
-    <sortCondition ref="F4:F180"/>
+  <autoFilter ref="A4:S180" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState ref="A5:S180">
+    <sortCondition ref="A4:A180"/>
   </sortState>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="18"/>
@@ -2102,8 +2095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2206,7 +2199,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -2257,7 +2250,7 @@
       </c>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2310,58 +2303,56 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>150</v>
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" s="2">
-        <v>27.71</v>
+        <v>73.88</v>
       </c>
       <c r="F7" s="2">
-        <v>37.56</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>110.81</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="K7" s="1">
-        <v>4</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1">
-        <v>8</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O7" s="1">
-        <v>15</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>135</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="O7" s="1"/>
       <c r="P7" s="1">
         <v>4</v>
       </c>
       <c r="Q7" s="1">
-        <v>3</v>
-      </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R7" s="1">
+        <v>500</v>
+      </c>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -2412,7 +2403,7 @@
       </c>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2463,7 +2454,7 @@
       </c>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -2514,7 +2505,7 @@
       </c>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2565,7 +2556,7 @@
       </c>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2616,7 +2607,7 @@
       </c>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -2671,7 +2662,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -2726,7 +2717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -2779,7 +2770,7 @@
       </c>
       <c r="S15" s="1"/>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -2832,7 +2823,7 @@
       </c>
       <c r="S16" s="1"/>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>116</v>
       </c>
@@ -2879,7 +2870,7 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>116</v>
       </c>
@@ -2973,7 +2964,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>116</v>
       </c>
@@ -3020,7 +3011,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>116</v>
       </c>
@@ -3067,7 +3058,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>139</v>
       </c>
@@ -3173,7 +3164,7 @@
       </c>
       <c r="S23" s="1"/>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
@@ -3226,7 +3217,7 @@
       </c>
       <c r="S24" s="1"/>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>139</v>
       </c>
@@ -3279,7 +3270,7 @@
       </c>
       <c r="S25" s="1"/>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
@@ -3332,7 +3323,7 @@
       </c>
       <c r="S26" s="1"/>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>139</v>
       </c>
@@ -3385,7 +3376,7 @@
       </c>
       <c r="S27" s="1"/>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
@@ -3438,7 +3429,7 @@
       </c>
       <c r="S28" s="1"/>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -3491,7 +3482,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>74</v>
       </c>
@@ -3544,7 +3535,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>74</v>
       </c>
@@ -3599,56 +3590,58 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>199</v>
+        <v>74</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E32" s="2">
-        <v>73.88</v>
+        <v>27.71</v>
       </c>
       <c r="F32" s="2">
-        <v>110.81</v>
-      </c>
-      <c r="G32" s="1" t="s">
+        <v>37.56</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="I32" s="1">
         <v>2</v>
       </c>
-      <c r="J32" s="1" t="s">
-        <v>207</v>
-      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="L32" s="1">
-        <v>135</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1">
-        <v>2000</v>
-      </c>
-      <c r="O32" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
+        <v>8</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O32" s="1">
+        <v>15</v>
+      </c>
       <c r="P32" s="1">
         <v>4</v>
       </c>
       <c r="Q32" s="1">
-        <v>2</v>
-      </c>
-      <c r="R32" s="1">
-        <v>500</v>
-      </c>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -3701,7 +3694,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>74</v>
       </c>
@@ -3754,15 +3747,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>141</v>
@@ -3774,7 +3767,7 @@
         <v>79.42</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
@@ -3788,13 +3781,13 @@
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1">
-        <v>7</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3000</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="P35" s="1">
         <v>4</v>
@@ -3809,66 +3802,66 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>279</v>
+        <v>121</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E36" s="2">
-        <v>63.41</v>
+        <v>89.88</v>
       </c>
       <c r="F36" s="2">
-        <v>113.89</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>298</v>
-      </c>
+        <v>158.83000000000001</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H36" s="1"/>
       <c r="I36" s="1">
         <v>2</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>308</v>
+      <c r="J36" s="1">
+        <v>160</v>
       </c>
       <c r="K36" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L36" s="1"/>
       <c r="M36" s="1">
-        <v>16</v>
-      </c>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1">
-        <v>4000</v>
+        <v>100</v>
+      </c>
+      <c r="N36" s="1">
+        <v>6000</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="P36" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q36" s="1">
         <v>2</v>
       </c>
       <c r="R36" s="1">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="S36" s="1"/>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>141</v>
@@ -3880,7 +3873,7 @@
         <v>317.66000000000003</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
@@ -3894,13 +3887,13 @@
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1">
-        <v>28</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="N37" s="1">
+        <v>12000</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P37" s="1">
         <v>16</v>
@@ -3913,15 +3906,15 @@
       </c>
       <c r="S37" s="1"/>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>141</v>
@@ -3933,7 +3926,7 @@
         <v>635.30999999999995</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
@@ -3947,13 +3940,13 @@
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1">
-        <v>56</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>29</v>
+        <v>400</v>
+      </c>
+      <c r="N38" s="1">
+        <v>24000</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="P38" s="1">
         <v>32</v>
@@ -3966,15 +3959,15 @@
       </c>
       <c r="S38" s="1"/>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>133</v>
@@ -3986,7 +3979,7 @@
         <v>184.69</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1">
@@ -4000,13 +3993,13 @@
       </c>
       <c r="L39" s="1"/>
       <c r="M39" s="1">
-        <v>28</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
+      </c>
+      <c r="N39" s="1">
+        <v>6000</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="P39" s="1">
         <v>8</v>
@@ -4019,15 +4012,15 @@
       </c>
       <c r="S39" s="1"/>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>133</v>
@@ -4039,7 +4032,7 @@
         <v>369.37</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1">
@@ -4053,13 +4046,13 @@
       </c>
       <c r="L40" s="1"/>
       <c r="M40" s="1">
-        <v>56</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="N40" s="1">
+        <v>12000</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="P40" s="1">
         <v>16</v>
@@ -4072,15 +4065,15 @@
       </c>
       <c r="S40" s="1"/>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>133</v>
@@ -4092,7 +4085,7 @@
         <v>664.86</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1">
@@ -4106,13 +4099,13 @@
       </c>
       <c r="L41" s="1"/>
       <c r="M41" s="1">
-        <v>112</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>29</v>
+        <v>400</v>
+      </c>
+      <c r="N41" s="1">
+        <v>24000</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="P41" s="1">
         <v>32</v>
@@ -4125,15 +4118,15 @@
       </c>
       <c r="S41" s="1"/>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>133</v>
@@ -4145,7 +4138,7 @@
         <v>1196.75</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1">
@@ -4159,13 +4152,13 @@
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1">
-        <v>224</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>30</v>
+        <v>800</v>
+      </c>
+      <c r="N42" s="1">
+        <v>48000</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="P42" s="1">
         <v>64</v>
@@ -4178,15 +4171,15 @@
       </c>
       <c r="S42" s="1"/>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>141</v>
@@ -4198,7 +4191,7 @@
         <v>79.42</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
@@ -4212,13 +4205,13 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1">
-        <v>50</v>
-      </c>
-      <c r="N43" s="1">
-        <v>3000</v>
+        <v>7</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="P43" s="1">
         <v>4</v>
@@ -4233,66 +4226,66 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>271</v>
+        <v>121</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E44" s="2">
-        <v>63.41</v>
+        <v>89.88</v>
       </c>
       <c r="F44" s="2">
-        <v>113.89</v>
-      </c>
-      <c r="G44" s="4" t="s">
+        <v>158.83000000000001</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>298</v>
-      </c>
+      <c r="H44" s="1"/>
       <c r="I44" s="1">
         <v>2</v>
       </c>
-      <c r="J44" s="1" t="s">
-        <v>308</v>
+      <c r="J44" s="1">
+        <v>160</v>
       </c>
       <c r="K44" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L44" s="1"/>
       <c r="M44" s="1">
-        <v>16</v>
-      </c>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1">
-        <v>4000</v>
+        <v>14</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="P44" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q44" s="1">
         <v>2</v>
       </c>
       <c r="R44" s="1">
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="S44" s="1"/>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>141</v>
@@ -4304,7 +4297,7 @@
         <v>317.66000000000003</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1">
@@ -4318,13 +4311,13 @@
       </c>
       <c r="L45" s="1"/>
       <c r="M45" s="1">
-        <v>200</v>
-      </c>
-      <c r="N45" s="1">
-        <v>12000</v>
+        <v>28</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P45" s="1">
         <v>16</v>
@@ -4337,15 +4330,15 @@
       </c>
       <c r="S45" s="1"/>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>141</v>
@@ -4357,7 +4350,7 @@
         <v>635.30999999999995</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1">
@@ -4371,13 +4364,13 @@
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1">
-        <v>400</v>
-      </c>
-      <c r="N46" s="1">
-        <v>24000</v>
+        <v>56</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="P46" s="1">
         <v>32</v>
@@ -4390,15 +4383,15 @@
       </c>
       <c r="S46" s="1"/>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>133</v>
@@ -4410,7 +4403,7 @@
         <v>184.69</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
@@ -4424,13 +4417,13 @@
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1">
-        <v>100</v>
-      </c>
-      <c r="N47" s="1">
-        <v>6000</v>
+        <v>28</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P47" s="1">
         <v>8</v>
@@ -4443,15 +4436,15 @@
       </c>
       <c r="S47" s="1"/>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>133</v>
@@ -4463,7 +4456,7 @@
         <v>369.37</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1">
@@ -4477,13 +4470,13 @@
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1">
-        <v>200</v>
-      </c>
-      <c r="N48" s="1">
-        <v>12000</v>
+        <v>56</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="P48" s="1">
         <v>16</v>
@@ -4496,15 +4489,15 @@
       </c>
       <c r="S48" s="1"/>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>133</v>
@@ -4516,7 +4509,7 @@
         <v>664.86</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
@@ -4530,13 +4523,13 @@
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1">
-        <v>400</v>
-      </c>
-      <c r="N49" s="1">
-        <v>24000</v>
+        <v>112</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="P49" s="1">
         <v>32</v>
@@ -4549,15 +4542,15 @@
       </c>
       <c r="S49" s="1"/>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>133</v>
@@ -4569,7 +4562,7 @@
         <v>1196.75</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1">
@@ -4583,13 +4576,13 @@
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>800</v>
-      </c>
-      <c r="N50" s="1">
-        <v>48000</v>
+        <v>224</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="P50" s="1">
         <v>64</v>
@@ -4602,15 +4595,15 @@
       </c>
       <c r="S50" s="1"/>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>141</v>
@@ -4621,7 +4614,7 @@
       <c r="F51" s="2">
         <v>75.11</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H51" s="1" t="s">
@@ -4638,13 +4631,13 @@
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
-        <v>7</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="N51" s="1">
+        <v>3000</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P51" s="1">
         <v>4</v>
@@ -4659,24 +4652,24 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E52" s="2">
-        <v>69.569999999999993</v>
+        <v>81.27</v>
       </c>
       <c r="F52" s="2">
-        <v>125.59</v>
-      </c>
-      <c r="G52" s="4" t="s">
+        <v>150.21</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H52" s="1" t="s">
@@ -4689,17 +4682,17 @@
         <v>175</v>
       </c>
       <c r="K52" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1">
-        <v>8</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
+      </c>
+      <c r="N52" s="1">
+        <v>6000</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="P52" s="1">
         <v>8</v>
@@ -4707,20 +4700,20 @@
       <c r="Q52" s="1">
         <v>2</v>
       </c>
-      <c r="R52" s="1">
+      <c r="R52" s="6">
         <v>1500</v>
       </c>
       <c r="S52" s="1"/>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>141</v>
@@ -4748,13 +4741,13 @@
       </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1">
-        <v>28</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="N53" s="1">
+        <v>12000</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="P53" s="1">
         <v>16</v>
@@ -4767,15 +4760,15 @@
       </c>
       <c r="S53" s="1"/>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>141</v>
@@ -4803,13 +4796,13 @@
       </c>
       <c r="L54" s="1"/>
       <c r="M54" s="1">
-        <v>56</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>29</v>
+        <v>400</v>
+      </c>
+      <c r="N54" s="1">
+        <v>24000</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="P54" s="1">
         <v>32</v>
@@ -4822,15 +4815,15 @@
       </c>
       <c r="S54" s="1"/>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>141</v>
@@ -4841,7 +4834,7 @@
       <c r="F55" s="2">
         <v>1143.81</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H55" s="1" t="s">
@@ -4858,13 +4851,13 @@
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1">
-        <v>112</v>
-      </c>
-      <c r="N55" s="1" t="s">
-        <v>30</v>
+        <v>800</v>
+      </c>
+      <c r="N55" s="1">
+        <v>48000</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P55" s="1">
         <v>64</v>
@@ -4877,15 +4870,15 @@
       </c>
       <c r="S55" s="1"/>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>133</v>
@@ -4913,13 +4906,13 @@
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
-        <v>28</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>27</v>
+        <v>100</v>
+      </c>
+      <c r="N56" s="1">
+        <v>6000</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="P56" s="1">
         <v>8</v>
@@ -4932,15 +4925,15 @@
       </c>
       <c r="S56" s="1"/>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>133</v>
@@ -4968,13 +4961,13 @@
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1">
-        <v>56</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>28</v>
+        <v>200</v>
+      </c>
+      <c r="N57" s="1">
+        <v>12000</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="P57" s="1">
         <v>16</v>
@@ -4987,15 +4980,15 @@
       </c>
       <c r="S57" s="1"/>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>133</v>
@@ -5023,13 +5016,13 @@
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1">
-        <v>112</v>
-      </c>
-      <c r="N58" s="1" t="s">
-        <v>29</v>
+        <v>400</v>
+      </c>
+      <c r="N58" s="1">
+        <v>24000</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="P58" s="1">
         <v>32</v>
@@ -5042,15 +5035,15 @@
       </c>
       <c r="S58" s="1"/>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>133</v>
@@ -5061,7 +5054,7 @@
       <c r="F59" s="2">
         <v>1196.75</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H59" s="1" t="s">
@@ -5078,13 +5071,13 @@
       </c>
       <c r="L59" s="1"/>
       <c r="M59" s="1">
-        <v>224</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>30</v>
+        <v>800</v>
+      </c>
+      <c r="N59" s="1">
+        <v>48000</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="P59" s="1">
         <v>64</v>
@@ -5097,15 +5090,15 @@
       </c>
       <c r="S59" s="1"/>
     </row>
-    <row r="60" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>133</v>
@@ -5133,13 +5126,13 @@
       </c>
       <c r="L60" s="1"/>
       <c r="M60" s="1">
-        <v>280</v>
-      </c>
-      <c r="N60" s="1" t="s">
-        <v>31</v>
+        <v>1000</v>
+      </c>
+      <c r="N60" s="1">
+        <v>60000</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="P60" s="1">
         <v>64</v>
@@ -5154,15 +5147,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>141</v>
@@ -5173,7 +5166,7 @@
       <c r="F61" s="2">
         <v>75.11</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H61" s="1" t="s">
@@ -5190,13 +5183,13 @@
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1">
-        <v>50</v>
-      </c>
-      <c r="N61" s="1">
-        <v>3000</v>
+        <v>7</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P61" s="1">
         <v>4</v>
@@ -5211,22 +5204,22 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E62" s="2">
-        <v>69.569999999999993</v>
+        <v>81.27</v>
       </c>
       <c r="F62" s="2">
-        <v>125.59</v>
+        <v>150.21</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>75</v>
@@ -5241,17 +5234,17 @@
         <v>175</v>
       </c>
       <c r="K62" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
-        <v>32</v>
-      </c>
-      <c r="N62" s="1">
-        <v>6000</v>
+        <v>14</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="P62" s="1">
         <v>8</v>
@@ -5259,20 +5252,20 @@
       <c r="Q62" s="1">
         <v>2</v>
       </c>
-      <c r="R62" s="1">
+      <c r="R62" s="6">
         <v>1500</v>
       </c>
       <c r="S62" s="1"/>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>141</v>
@@ -5300,13 +5293,13 @@
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
-        <v>200</v>
-      </c>
-      <c r="N63" s="1">
-        <v>12000</v>
+        <v>28</v>
+      </c>
+      <c r="N63" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P63" s="1">
         <v>16</v>
@@ -5319,15 +5312,15 @@
       </c>
       <c r="S63" s="1"/>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>141</v>
@@ -5355,13 +5348,13 @@
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1">
-        <v>400</v>
-      </c>
-      <c r="N64" s="1">
-        <v>24000</v>
+        <v>56</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="P64" s="1">
         <v>32</v>
@@ -5374,15 +5367,15 @@
       </c>
       <c r="S64" s="1"/>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>141</v>
@@ -5393,7 +5386,7 @@
       <c r="F65" s="2">
         <v>1143.81</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H65" s="1" t="s">
@@ -5410,13 +5403,13 @@
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1">
-        <v>800</v>
-      </c>
-      <c r="N65" s="1">
-        <v>48000</v>
+        <v>112</v>
+      </c>
+      <c r="N65" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="P65" s="1">
         <v>64</v>
@@ -5429,15 +5422,15 @@
       </c>
       <c r="S65" s="1"/>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>133</v>
@@ -5465,13 +5458,13 @@
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1">
-        <v>100</v>
-      </c>
-      <c r="N66" s="1">
-        <v>6000</v>
+        <v>28</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="P66" s="1">
         <v>8</v>
@@ -5484,15 +5477,15 @@
       </c>
       <c r="S66" s="1"/>
     </row>
-    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>133</v>
@@ -5520,13 +5513,13 @@
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1">
-        <v>200</v>
-      </c>
-      <c r="N67" s="1">
-        <v>12000</v>
+        <v>56</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="P67" s="1">
         <v>16</v>
@@ -5539,15 +5532,15 @@
       </c>
       <c r="S67" s="1"/>
     </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>133</v>
@@ -5575,13 +5568,13 @@
       </c>
       <c r="L68" s="1"/>
       <c r="M68" s="1">
-        <v>400</v>
-      </c>
-      <c r="N68" s="1">
-        <v>24000</v>
+        <v>112</v>
+      </c>
+      <c r="N68" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="P68" s="1">
         <v>32</v>
@@ -5594,15 +5587,15 @@
       </c>
       <c r="S68" s="1"/>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>133</v>
@@ -5613,7 +5606,7 @@
       <c r="F69" s="2">
         <v>1196.75</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H69" s="1" t="s">
@@ -5630,13 +5623,13 @@
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
-        <v>800</v>
-      </c>
-      <c r="N69" s="1">
-        <v>48000</v>
+        <v>224</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="P69" s="1">
         <v>64</v>
@@ -5649,15 +5642,15 @@
       </c>
       <c r="S69" s="1"/>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>133</v>
@@ -5685,13 +5678,13 @@
       </c>
       <c r="L70" s="1"/>
       <c r="M70" s="1">
-        <v>1000</v>
-      </c>
-      <c r="N70" s="1">
-        <v>60000</v>
+        <v>280</v>
+      </c>
+      <c r="N70" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="P70" s="1">
         <v>64</v>
@@ -5706,15 +5699,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>286</v>
+        <v>159</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>141</v>
@@ -5742,13 +5735,13 @@
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="N71" s="1">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="P71" s="1">
         <v>4</v>
@@ -5761,12 +5754,12 @@
       </c>
       <c r="S71" s="1"/>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>224</v>
@@ -5775,10 +5768,10 @@
         <v>141</v>
       </c>
       <c r="E72" s="2">
-        <v>131.75</v>
+        <v>65.88</v>
       </c>
       <c r="F72" s="2">
-        <v>245.02</v>
+        <v>122.51</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>75</v>
@@ -5787,96 +5780,96 @@
         <v>314</v>
       </c>
       <c r="I72" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K72" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L72" s="1"/>
       <c r="M72" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N72" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P72" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q72" s="1">
         <v>2</v>
       </c>
       <c r="R72" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="S72" s="1"/>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>288</v>
+        <v>160</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E73" s="2">
-        <v>263.49</v>
+        <v>131.75</v>
       </c>
       <c r="F73" s="2">
-        <v>490.03</v>
-      </c>
-      <c r="G73" s="4" t="s">
+        <v>245.02</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I73" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K73" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N73" s="1">
-        <v>16000</v>
+        <v>6000</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>179</v>
+        <v>21</v>
       </c>
       <c r="P73" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q73" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R73" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="S73" s="1"/>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>224</v>
@@ -5885,10 +5878,10 @@
         <v>141</v>
       </c>
       <c r="E74" s="2">
-        <v>526.97</v>
+        <v>131.75</v>
       </c>
       <c r="F74" s="2">
-        <v>980.05</v>
+        <v>245.02</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>75</v>
@@ -5897,96 +5890,96 @@
         <v>314</v>
       </c>
       <c r="I74" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K74" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="N74" s="1">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P74" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q74" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R74" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="S74" s="1"/>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E75" s="2">
-        <v>1053.93</v>
+        <v>263.49</v>
       </c>
       <c r="F75" s="2">
-        <v>1960.1</v>
-      </c>
-      <c r="G75" s="1" t="s">
+        <v>490.03</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I75" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K75" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="L75" s="1"/>
       <c r="M75" s="1">
-        <v>256</v>
+        <v>200</v>
       </c>
       <c r="N75" s="1">
-        <v>64000</v>
+        <v>12000</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="P75" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q75" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R75" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="S75" s="1"/>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>224</v>
@@ -5995,53 +5988,53 @@
         <v>141</v>
       </c>
       <c r="E76" s="2">
-        <v>2107.85</v>
+        <v>263.49</v>
       </c>
       <c r="F76" s="2">
-        <v>3920.2</v>
-      </c>
-      <c r="G76" s="1" t="s">
+        <v>490.03</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I76" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J76" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K76" s="1">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="N76" s="1">
-        <v>128000</v>
+        <v>16000</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P76" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q76" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R76" s="1">
-        <v>30000</v>
+        <v>4000</v>
       </c>
       <c r="S76" s="1"/>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>223</v>
@@ -6050,10 +6043,10 @@
         <v>141</v>
       </c>
       <c r="E77" s="2">
-        <v>65.88</v>
+        <v>526.97</v>
       </c>
       <c r="F77" s="2">
-        <v>122.51</v>
+        <v>980.05</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>75</v>
@@ -6062,53 +6055,53 @@
         <v>314</v>
       </c>
       <c r="I77" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K77" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="N77" s="1">
-        <v>3000</v>
+        <v>24000</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="P77" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="Q77" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R77" s="1">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="S77" s="1"/>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>160</v>
+        <v>289</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E78" s="2">
-        <v>131.75</v>
+        <v>526.97</v>
       </c>
       <c r="F78" s="2">
-        <v>245.02</v>
+        <v>980.05</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>75</v>
@@ -6117,41 +6110,41 @@
         <v>314</v>
       </c>
       <c r="I78" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K78" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N78" s="1">
-        <v>6000</v>
+        <v>32000</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="P78" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q78" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R78" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="S78" s="1"/>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>223</v>
@@ -6160,65 +6153,65 @@
         <v>141</v>
       </c>
       <c r="E79" s="2">
-        <v>263.49</v>
+        <v>1053.93</v>
       </c>
       <c r="F79" s="2">
-        <v>490.03</v>
-      </c>
-      <c r="G79" s="4" t="s">
+        <v>1960.1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I79" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K79" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1">
-        <v>200</v>
+        <v>800</v>
       </c>
       <c r="N79" s="1">
-        <v>12000</v>
+        <v>48000</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P79" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q79" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R79" s="1">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="S79" s="1"/>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E80" s="2">
-        <v>526.97</v>
+        <v>1053.93</v>
       </c>
       <c r="F80" s="2">
-        <v>980.05</v>
+        <v>1960.1</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>75</v>
@@ -6227,23 +6220,23 @@
         <v>314</v>
       </c>
       <c r="I80" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="J80" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K80" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L80" s="1"/>
       <c r="M80" s="1">
-        <v>400</v>
+        <v>256</v>
       </c>
       <c r="N80" s="1">
-        <v>24000</v>
+        <v>64000</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="P80" s="1">
         <v>32</v>
@@ -6252,16 +6245,16 @@
         <v>8</v>
       </c>
       <c r="R80" s="1">
-        <v>8000</v>
+        <v>16000</v>
       </c>
       <c r="S80" s="1"/>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>223</v>
@@ -6270,35 +6263,35 @@
         <v>141</v>
       </c>
       <c r="E81" s="2">
-        <v>1053.93</v>
+        <v>2107.85</v>
       </c>
       <c r="F81" s="2">
-        <v>1960.1</v>
-      </c>
-      <c r="G81" s="1" t="s">
+        <v>3920.2</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>314</v>
       </c>
       <c r="I81" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K81" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="L81" s="1"/>
       <c r="M81" s="1">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="N81" s="1">
-        <v>48000</v>
+        <v>96000</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="P81" s="1">
         <v>32</v>
@@ -6307,19 +6300,19 @@
         <v>8</v>
       </c>
       <c r="R81" s="1">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="S81" s="1"/>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>131</v>
+        <v>291</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>141</v>
@@ -6330,7 +6323,7 @@
       <c r="F82" s="2">
         <v>3920.2</v>
       </c>
-      <c r="G82" s="4" t="s">
+      <c r="G82" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H82" s="1" t="s">
@@ -6347,13 +6340,13 @@
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1">
-        <v>1600</v>
+        <v>512</v>
       </c>
       <c r="N82" s="1">
-        <v>96000</v>
+        <v>128000</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P82" s="1">
         <v>32</v>
@@ -6366,15 +6359,15 @@
       </c>
       <c r="S82" s="1"/>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>133</v>
@@ -6385,7 +6378,7 @@
       <c r="F83" s="2">
         <v>147.75</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G83" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H83" s="1" t="s">
@@ -6402,13 +6395,13 @@
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1">
-        <v>50</v>
-      </c>
-      <c r="N83" s="1">
-        <v>3000</v>
+        <v>32</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P83" s="1">
         <v>4</v>
@@ -6421,12 +6414,12 @@
       </c>
       <c r="S83" s="1"/>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>224</v>
@@ -6435,65 +6428,65 @@
         <v>133</v>
       </c>
       <c r="E84" s="2">
-        <v>182.23</v>
+        <v>91.12</v>
       </c>
       <c r="F84" s="2">
-        <v>295.5</v>
-      </c>
-      <c r="G84" s="4" t="s">
+        <v>147.75</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I84" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K84" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="L84" s="1"/>
       <c r="M84" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N84" s="1">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="P84" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q84" s="1">
         <v>2</v>
       </c>
       <c r="R84" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="S84" s="1"/>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E85" s="2">
-        <v>365.06</v>
+        <v>182.23</v>
       </c>
       <c r="F85" s="2">
-        <v>591.61</v>
+        <v>295.5</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>75</v>
@@ -6502,41 +6495,41 @@
         <v>164</v>
       </c>
       <c r="I85" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K85" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1">
-        <v>200</v>
-      </c>
-      <c r="N85" s="1">
-        <v>12000</v>
+        <v>64</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P85" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q85" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R85" s="1">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="S85" s="1"/>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>224</v>
@@ -6545,65 +6538,65 @@
         <v>133</v>
       </c>
       <c r="E86" s="2">
-        <v>730.12</v>
+        <v>182.23</v>
       </c>
       <c r="F86" s="2">
-        <v>1183.21</v>
-      </c>
-      <c r="G86" s="1" t="s">
+        <v>295.5</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I86" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K86" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="L86" s="1"/>
       <c r="M86" s="1">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N86" s="1">
-        <v>24000</v>
+        <v>6000</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P86" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q86" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R86" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="S86" s="1"/>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E87" s="2">
-        <v>1459.61</v>
+        <v>365.06</v>
       </c>
       <c r="F87" s="2">
-        <v>2365.79</v>
+        <v>591.61</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>75</v>
@@ -6612,41 +6605,41 @@
         <v>164</v>
       </c>
       <c r="I87" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K87" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="L87" s="1"/>
       <c r="M87" s="1">
-        <v>800</v>
-      </c>
-      <c r="N87" s="1">
-        <v>48000</v>
+        <v>128</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="P87" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q87" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R87" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="S87" s="1"/>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>313</v>
+        <v>216</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>224</v>
@@ -6655,10 +6648,10 @@
         <v>133</v>
       </c>
       <c r="E88" s="2">
-        <v>2751.16</v>
+        <v>365.06</v>
       </c>
       <c r="F88" s="2">
-        <v>4459.4799999999996</v>
+        <v>591.61</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>75</v>
@@ -6667,80 +6660,78 @@
         <v>164</v>
       </c>
       <c r="I88" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K88" s="1">
-        <v>432</v>
+        <v>64</v>
       </c>
       <c r="L88" s="1"/>
       <c r="M88" s="1">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="N88" s="1">
-        <v>96000</v>
+        <v>12000</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="P88" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q88" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R88" s="1">
-        <v>30000</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>4000</v>
+      </c>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E89" s="2">
-        <v>2751.16</v>
+        <v>730.12</v>
       </c>
       <c r="F89" s="2">
-        <v>4459.4799999999996</v>
-      </c>
-      <c r="G89" s="4" t="s">
+        <v>1183.21</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I89" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="J89" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K89" s="1">
-        <v>432</v>
+        <v>128</v>
       </c>
       <c r="L89" s="1"/>
       <c r="M89" s="1">
-        <v>1600</v>
-      </c>
-      <c r="N89" s="1">
-        <v>96000</v>
+        <v>256</v>
+      </c>
+      <c r="N89" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="P89" s="1">
         <v>32</v>
@@ -6749,71 +6740,71 @@
         <v>8</v>
       </c>
       <c r="R89" s="1">
-        <v>30000</v>
+        <v>8000</v>
       </c>
       <c r="S89" s="1"/>
     </row>
-    <row r="90" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>84</v>
+        <v>217</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E90" s="2">
-        <v>91.12</v>
+        <v>730.12</v>
       </c>
       <c r="F90" s="2">
-        <v>147.75</v>
-      </c>
-      <c r="G90" s="4" t="s">
+        <v>1183.21</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I90" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K90" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1">
+        <v>400</v>
+      </c>
+      <c r="N90" s="1">
+        <v>24000</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P90" s="1">
         <v>32</v>
       </c>
-      <c r="N90" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P90" s="1">
-        <v>4</v>
-      </c>
       <c r="Q90" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R90" s="1">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="S90" s="1"/>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>220</v>
+        <v>82</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>223</v>
@@ -6822,10 +6813,10 @@
         <v>133</v>
       </c>
       <c r="E91" s="2">
-        <v>182.23</v>
+        <v>1459.61</v>
       </c>
       <c r="F91" s="2">
-        <v>295.5</v>
+        <v>2365.79</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>75</v>
@@ -6834,53 +6825,53 @@
         <v>164</v>
       </c>
       <c r="I91" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K91" s="1">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="L91" s="1"/>
       <c r="M91" s="1">
-        <v>64</v>
+        <v>512</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="P91" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q91" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R91" s="1">
-        <v>2000</v>
+        <v>16000</v>
       </c>
       <c r="S91" s="1"/>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E92" s="2">
-        <v>365.06</v>
+        <v>1459.61</v>
       </c>
       <c r="F92" s="2">
-        <v>591.61</v>
+        <v>2365.79</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>75</v>
@@ -6889,41 +6880,41 @@
         <v>164</v>
       </c>
       <c r="I92" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J92" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K92" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1">
-        <v>128</v>
-      </c>
-      <c r="N92" s="1" t="s">
-        <v>225</v>
+        <v>800</v>
+      </c>
+      <c r="N92" s="1">
+        <v>48000</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="P92" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q92" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R92" s="1">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="S92" s="1"/>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>223</v>
@@ -6932,35 +6923,35 @@
         <v>133</v>
       </c>
       <c r="E93" s="2">
-        <v>730.12</v>
+        <v>2751.16</v>
       </c>
       <c r="F93" s="2">
-        <v>1183.21</v>
-      </c>
-      <c r="G93" s="1" t="s">
+        <v>4459.4799999999996</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I93" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J93" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K93" s="1">
-        <v>128</v>
+        <v>432</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1">
-        <v>256</v>
+        <v>864</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="P93" s="1">
         <v>32</v>
@@ -6969,16 +6960,16 @@
         <v>8</v>
       </c>
       <c r="R93" s="1">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="S93" s="1"/>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>82</v>
+        <v>312</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>223</v>
@@ -6987,35 +6978,35 @@
         <v>133</v>
       </c>
       <c r="E94" s="2">
-        <v>1459.61</v>
+        <v>2751.16</v>
       </c>
       <c r="F94" s="2">
-        <v>2365.79</v>
-      </c>
-      <c r="G94" s="1" t="s">
+        <v>4459.4799999999996</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>164</v>
       </c>
       <c r="I94" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>162</v>
       </c>
       <c r="K94" s="1">
-        <v>256</v>
+        <v>432</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1">
-        <v>512</v>
+        <v>864</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="O94" s="1" t="s">
-        <v>41</v>
+        <v>227</v>
       </c>
       <c r="P94" s="1">
         <v>32</v>
@@ -7024,19 +7015,21 @@
         <v>8</v>
       </c>
       <c r="R94" s="1">
-        <v>16000</v>
-      </c>
-      <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="S94" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>83</v>
+        <v>313</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>133</v>
@@ -7047,7 +7040,7 @@
       <c r="F95" s="2">
         <v>4459.4799999999996</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="G95" s="1" t="s">
         <v>75</v>
       </c>
       <c r="H95" s="1" t="s">
@@ -7064,13 +7057,13 @@
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1">
-        <v>864</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>226</v>
+        <v>1600</v>
+      </c>
+      <c r="N95" s="1">
+        <v>96000</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="P95" s="1">
         <v>32</v>
@@ -7081,17 +7074,19 @@
       <c r="R95" s="1">
         <v>30000</v>
       </c>
-      <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S95" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>133</v>
@@ -7119,13 +7114,13 @@
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1">
-        <v>864</v>
-      </c>
-      <c r="N96" s="1" t="s">
-        <v>226</v>
+        <v>1600</v>
+      </c>
+      <c r="N96" s="1">
+        <v>96000</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>227</v>
+        <v>176</v>
       </c>
       <c r="P96" s="1">
         <v>32</v>
@@ -7136,19 +7131,17 @@
       <c r="R96" s="1">
         <v>30000</v>
       </c>
-      <c r="S96" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="S96" s="1"/>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>132</v>
@@ -7176,13 +7169,13 @@
       </c>
       <c r="L97" s="1"/>
       <c r="M97" s="1">
-        <v>4</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="N97" s="1">
+        <v>3000</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="P97" s="1">
         <v>4</v>
@@ -7197,22 +7190,22 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>224</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2">
-        <v>81.27</v>
+        <v>35.090000000000003</v>
       </c>
       <c r="F98" s="2">
-        <v>150.21</v>
+        <v>62.8</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>75</v>
@@ -7221,53 +7214,53 @@
         <v>212</v>
       </c>
       <c r="I98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K98" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L98" s="1"/>
       <c r="M98" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P98" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q98" s="1">
         <v>2</v>
       </c>
-      <c r="R98" s="6">
-        <v>1500</v>
+      <c r="R98" s="1">
+        <v>750</v>
       </c>
       <c r="S98" s="1"/>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E99" s="2">
-        <v>139.13</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="F99" s="2">
-        <v>251.17</v>
+        <v>125.59</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>75</v>
@@ -7276,41 +7269,41 @@
         <v>212</v>
       </c>
       <c r="I99" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K99" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L99" s="1"/>
       <c r="M99" s="1">
-        <v>16</v>
-      </c>
-      <c r="N99" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="N99" s="1">
+        <v>6000</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="P99" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q99" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R99" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="S99" s="1"/>
     </row>
-    <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>224</v>
@@ -7319,10 +7312,10 @@
         <v>132</v>
       </c>
       <c r="E100" s="2">
-        <v>278.88</v>
+        <v>69.569999999999993</v>
       </c>
       <c r="F100" s="2">
-        <v>502.34</v>
+        <v>125.59</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>75</v>
@@ -7331,53 +7324,53 @@
         <v>212</v>
       </c>
       <c r="I100" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K100" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="L100" s="1"/>
       <c r="M100" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O100" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P100" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q100" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R100" s="1">
-        <v>6000</v>
+        <v>1500</v>
       </c>
       <c r="S100" s="1"/>
     </row>
-    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E101" s="2">
-        <v>557.13</v>
+        <v>139.13</v>
       </c>
       <c r="F101" s="2">
-        <v>1004.68</v>
+        <v>251.17</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>75</v>
@@ -7386,53 +7379,53 @@
         <v>212</v>
       </c>
       <c r="I101" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K101" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1">
         <v>64</v>
       </c>
-      <c r="N101" s="1" t="s">
-        <v>30</v>
+      <c r="N101" s="1">
+        <v>12000</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="P101" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="Q101" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R101" s="1">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="S101" s="1"/>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E102" s="2">
-        <v>35.090000000000003</v>
+        <v>139.13</v>
       </c>
       <c r="F102" s="2">
-        <v>62.8</v>
+        <v>251.17</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>75</v>
@@ -7441,108 +7434,108 @@
         <v>212</v>
       </c>
       <c r="I102" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J102" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K102" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="1">
         <v>16</v>
       </c>
-      <c r="N102" s="1">
+      <c r="N102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O102" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P102" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>4</v>
+      </c>
+      <c r="R102" s="1">
         <v>3000</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P102" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q102" s="1">
-        <v>2</v>
-      </c>
-      <c r="R102" s="1">
-        <v>750</v>
       </c>
       <c r="S102" s="1"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>223</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2">
-        <v>81.27</v>
+        <v>278.88</v>
       </c>
       <c r="F103" s="2">
-        <v>150.21</v>
-      </c>
-      <c r="G103" s="1" t="s">
+        <v>502.34</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>75</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>212</v>
       </c>
       <c r="I103" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K103" s="1">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="L103" s="1"/>
       <c r="M103" s="1">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="N103" s="1">
+        <v>24000</v>
+      </c>
+      <c r="O103" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P103" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>8</v>
+      </c>
+      <c r="R103" s="1">
         <v>6000</v>
       </c>
-      <c r="O103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P103" s="1">
-        <v>8</v>
-      </c>
-      <c r="Q103" s="1">
-        <v>2</v>
-      </c>
-      <c r="R103" s="6">
-        <v>1500</v>
-      </c>
       <c r="S103" s="1"/>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E104" s="2">
-        <v>139.13</v>
+        <v>278.88</v>
       </c>
       <c r="F104" s="2">
-        <v>251.17</v>
+        <v>502.34</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>75</v>
@@ -7551,41 +7544,41 @@
         <v>212</v>
       </c>
       <c r="I104" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K104" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L104" s="1"/>
       <c r="M104" s="1">
-        <v>64</v>
-      </c>
-      <c r="N104" s="1">
-        <v>12000</v>
+        <v>32</v>
+      </c>
+      <c r="N104" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="P104" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q104" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R104" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="S104" s="1"/>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>223</v>
@@ -7594,10 +7587,10 @@
         <v>132</v>
       </c>
       <c r="E105" s="2">
-        <v>278.88</v>
+        <v>557.13</v>
       </c>
       <c r="F105" s="2">
-        <v>502.34</v>
+        <v>1004.68</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>75</v>
@@ -7606,44 +7599,44 @@
         <v>212</v>
       </c>
       <c r="I105" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>175</v>
       </c>
       <c r="K105" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="L105" s="1"/>
       <c r="M105" s="1">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="N105" s="1">
-        <v>24000</v>
+        <v>48000</v>
       </c>
       <c r="O105" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P105" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="Q105" s="1">
         <v>8</v>
       </c>
       <c r="R105" s="1">
-        <v>6000</v>
+        <v>12000</v>
       </c>
       <c r="S105" s="1"/>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>132</v>
@@ -7671,13 +7664,13 @@
       </c>
       <c r="L106" s="1"/>
       <c r="M106" s="1">
-        <v>256</v>
-      </c>
-      <c r="N106" s="1">
-        <v>48000</v>
+        <v>64</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="O106" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="P106" s="1">
         <v>64</v>
@@ -7692,63 +7685,63 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>194</v>
+        <v>272</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2">
-        <v>89.88</v>
+        <v>63.41</v>
       </c>
       <c r="F107" s="2">
-        <v>158.83000000000001</v>
-      </c>
-      <c r="G107" s="1" t="s">
+        <v>113.89</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H107" s="1"/>
+      <c r="H107" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="I107" s="1">
         <v>2</v>
       </c>
-      <c r="J107" s="1">
-        <v>160</v>
+      <c r="J107" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="K107" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L107" s="1"/>
       <c r="M107" s="1">
-        <v>14</v>
-      </c>
-      <c r="N107" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1">
+        <v>4000</v>
       </c>
       <c r="P107" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q107" s="1">
         <v>2</v>
       </c>
       <c r="R107" s="1">
-        <v>1000</v>
+        <v>875</v>
       </c>
       <c r="S107" s="1"/>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>224</v>
@@ -7757,10 +7750,10 @@
         <v>132</v>
       </c>
       <c r="E108" s="2">
-        <v>125.59</v>
+        <v>63.41</v>
       </c>
       <c r="F108" s="2">
-        <v>227.78</v>
+        <v>113.89</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>73</v>
@@ -7769,51 +7762,51 @@
         <v>298</v>
       </c>
       <c r="I108" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J108" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K108" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="L108" s="1"/>
       <c r="M108" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N108" s="1"/>
       <c r="O108" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="P108" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q108" s="1">
         <v>2</v>
       </c>
       <c r="R108" s="1">
-        <v>1750</v>
+        <v>875</v>
       </c>
       <c r="S108" s="1"/>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E109" s="2">
-        <v>251.79</v>
+        <v>125.59</v>
       </c>
       <c r="F109" s="2">
-        <v>455.56</v>
+        <v>227.78</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>73</v>
@@ -7822,39 +7815,39 @@
         <v>298</v>
       </c>
       <c r="I109" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K109" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="L109" s="1"/>
       <c r="M109" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N109" s="1"/>
       <c r="O109" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="P109" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Q109" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R109" s="1">
-        <v>3500</v>
+        <v>1750</v>
       </c>
       <c r="S109" s="1"/>
     </row>
-    <row r="110" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>224</v>
@@ -7863,10 +7856,10 @@
         <v>132</v>
       </c>
       <c r="E110" s="2">
-        <v>503.57</v>
+        <v>125.59</v>
       </c>
       <c r="F110" s="2">
-        <v>911.72</v>
+        <v>227.78</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>73</v>
@@ -7875,51 +7868,51 @@
         <v>298</v>
       </c>
       <c r="I110" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K110" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="L110" s="1"/>
       <c r="M110" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="N110" s="1"/>
       <c r="O110" s="1">
-        <v>32000</v>
+        <v>8000</v>
       </c>
       <c r="P110" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="Q110" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R110" s="1">
-        <v>7000</v>
+        <v>1750</v>
       </c>
       <c r="S110" s="1"/>
     </row>
-    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E111" s="2">
-        <v>1007.14</v>
+        <v>251.79</v>
       </c>
       <c r="F111" s="2">
-        <v>1822.82</v>
+        <v>455.56</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>73</v>
@@ -7928,39 +7921,39 @@
         <v>298</v>
       </c>
       <c r="I111" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K111" s="1">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="L111" s="1"/>
       <c r="M111" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="N111" s="1"/>
       <c r="O111" s="1">
-        <v>64000</v>
+        <v>16000</v>
       </c>
       <c r="P111" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q111" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R111" s="1">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="S111" s="1"/>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>224</v>
@@ -7969,10 +7962,10 @@
         <v>132</v>
       </c>
       <c r="E112" s="2">
-        <v>2014.28</v>
+        <v>251.79</v>
       </c>
       <c r="F112" s="2">
-        <v>3645.64</v>
+        <v>455.56</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>73</v>
@@ -7981,51 +7974,51 @@
         <v>298</v>
       </c>
       <c r="I112" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K112" s="1">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="L112" s="1"/>
       <c r="M112" s="1">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="N112" s="1"/>
       <c r="O112" s="1">
-        <v>128000</v>
+        <v>16000</v>
       </c>
       <c r="P112" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q112" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R112" s="1">
-        <v>28000</v>
+        <v>3500</v>
       </c>
       <c r="S112" s="1"/>
     </row>
-    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E113" s="2">
-        <v>2266.06</v>
+        <v>503.57</v>
       </c>
       <c r="F113" s="2">
-        <v>4101.1899999999996</v>
+        <v>911.72</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>73</v>
@@ -8034,94 +8027,92 @@
         <v>298</v>
       </c>
       <c r="I113" s="1">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="J113" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K113" s="1">
-        <v>144</v>
+        <v>32</v>
       </c>
       <c r="L113" s="1"/>
       <c r="M113" s="1">
-        <v>576</v>
+        <v>128</v>
       </c>
       <c r="N113" s="1"/>
       <c r="O113" s="1">
-        <v>144000</v>
+        <v>32000</v>
       </c>
       <c r="P113" s="1">
         <v>32</v>
       </c>
       <c r="Q113" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R113" s="1">
-        <v>30000</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>7000</v>
+      </c>
+      <c r="S113" s="1"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>190</v>
+        <v>272</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2">
-        <v>89.88</v>
+        <v>503.57</v>
       </c>
       <c r="F114" s="2">
-        <v>158.83000000000001</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H114" s="1"/>
+        <v>911.72</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="I114" s="1">
-        <v>2</v>
-      </c>
-      <c r="J114" s="1">
-        <v>160</v>
+        <v>16</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="K114" s="1">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="L114" s="1"/>
       <c r="M114" s="1">
-        <v>100</v>
-      </c>
-      <c r="N114" s="1">
-        <v>6000</v>
-      </c>
-      <c r="O114" s="1" t="s">
-        <v>21</v>
+        <v>128</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1">
+        <v>32000</v>
       </c>
       <c r="P114" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q114" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R114" s="1">
-        <v>1000</v>
+        <v>7000</v>
       </c>
       <c r="S114" s="1"/>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>223</v>
@@ -8130,10 +8121,10 @@
         <v>132</v>
       </c>
       <c r="E115" s="2">
-        <v>125.59</v>
+        <v>1007.14</v>
       </c>
       <c r="F115" s="2">
-        <v>227.78</v>
+        <v>1822.82</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>73</v>
@@ -8142,51 +8133,51 @@
         <v>298</v>
       </c>
       <c r="I115" s="1">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K115" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="L115" s="1"/>
       <c r="M115" s="1">
-        <v>32</v>
+        <v>256</v>
       </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1">
-        <v>8000</v>
+        <v>64000</v>
       </c>
       <c r="P115" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="Q115" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R115" s="1">
-        <v>1750</v>
+        <v>14000</v>
       </c>
       <c r="S115" s="1"/>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E116" s="2">
-        <v>251.79</v>
+        <v>1007.14</v>
       </c>
       <c r="F116" s="2">
-        <v>455.56</v>
+        <v>1822.82</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>73</v>
@@ -8195,39 +8186,39 @@
         <v>298</v>
       </c>
       <c r="I116" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K116" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L116" s="1"/>
       <c r="M116" s="1">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1">
-        <v>16000</v>
+        <v>64000</v>
       </c>
       <c r="P116" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q116" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R116" s="1">
-        <v>3500</v>
+        <v>14000</v>
       </c>
       <c r="S116" s="1"/>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>223</v>
@@ -8236,10 +8227,10 @@
         <v>132</v>
       </c>
       <c r="E117" s="2">
-        <v>503.57</v>
+        <v>2014.28</v>
       </c>
       <c r="F117" s="2">
-        <v>911.72</v>
+        <v>3645.64</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>73</v>
@@ -8248,51 +8239,51 @@
         <v>298</v>
       </c>
       <c r="I117" s="1">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K117" s="1">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="L117" s="1"/>
       <c r="M117" s="1">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="N117" s="1"/>
       <c r="O117" s="1">
-        <v>32000</v>
+        <v>128000</v>
       </c>
       <c r="P117" s="1">
         <v>32</v>
       </c>
       <c r="Q117" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R117" s="1">
-        <v>7000</v>
+        <v>28000</v>
       </c>
       <c r="S117" s="1"/>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E118" s="2">
-        <v>1007.14</v>
+        <v>2014.28</v>
       </c>
       <c r="F118" s="2">
-        <v>1822.82</v>
+        <v>3645.64</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>73</v>
@@ -8301,21 +8292,21 @@
         <v>298</v>
       </c>
       <c r="I118" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K118" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="L118" s="1"/>
       <c r="M118" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="N118" s="1"/>
       <c r="O118" s="1">
-        <v>64000</v>
+        <v>128000</v>
       </c>
       <c r="P118" s="1">
         <v>32</v>
@@ -8324,16 +8315,16 @@
         <v>8</v>
       </c>
       <c r="R118" s="1">
-        <v>14000</v>
+        <v>28000</v>
       </c>
       <c r="S118" s="1"/>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>223</v>
@@ -8342,10 +8333,10 @@
         <v>132</v>
       </c>
       <c r="E119" s="2">
-        <v>2014.28</v>
+        <v>2266.06</v>
       </c>
       <c r="F119" s="2">
-        <v>3645.64</v>
+        <v>4101.1899999999996</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>73</v>
@@ -8354,21 +8345,21 @@
         <v>298</v>
       </c>
       <c r="I119" s="1">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>308</v>
       </c>
       <c r="K119" s="1">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="L119" s="1"/>
       <c r="M119" s="1">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="N119" s="1"/>
       <c r="O119" s="1">
-        <v>128000</v>
+        <v>144000</v>
       </c>
       <c r="P119" s="1">
         <v>32</v>
@@ -8377,19 +8368,21 @@
         <v>8</v>
       </c>
       <c r="R119" s="1">
-        <v>28000</v>
-      </c>
-      <c r="S119" s="1"/>
-    </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="S119" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>132</v>
@@ -8436,15 +8429,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>142</v>
@@ -8455,7 +8448,7 @@
       <c r="F121" s="2">
         <v>474.02</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="G121" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H121" s="1" t="s">
@@ -8472,13 +8465,13 @@
       </c>
       <c r="L121" s="1"/>
       <c r="M121" s="1">
-        <v>56</v>
-      </c>
-      <c r="N121" s="1" t="s">
-        <v>53</v>
+        <v>384</v>
+      </c>
+      <c r="N121" s="1">
+        <v>6000</v>
       </c>
       <c r="O121" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="P121" s="1">
         <v>8</v>
@@ -8491,15 +8484,15 @@
       </c>
       <c r="S121" s="1"/>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>142</v>
@@ -8510,7 +8503,7 @@
       <c r="F122" s="2">
         <v>948.04</v>
       </c>
-      <c r="G122" s="4" t="s">
+      <c r="G122" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H122" s="1" t="s">
@@ -8527,13 +8520,13 @@
       </c>
       <c r="L122" s="1"/>
       <c r="M122" s="1">
-        <v>112</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>54</v>
+        <v>768</v>
+      </c>
+      <c r="N122" s="1">
+        <v>12000</v>
       </c>
       <c r="O122" s="1" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="P122" s="1">
         <v>16</v>
@@ -8546,15 +8539,15 @@
       </c>
       <c r="S122" s="1"/>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>142</v>
@@ -8565,7 +8558,7 @@
       <c r="F123" s="2">
         <v>1896.08</v>
       </c>
-      <c r="G123" s="4" t="s">
+      <c r="G123" s="1" t="s">
         <v>73</v>
       </c>
       <c r="H123" s="1" t="s">
@@ -8582,13 +8575,13 @@
       </c>
       <c r="L123" s="1"/>
       <c r="M123" s="1">
-        <v>224</v>
-      </c>
-      <c r="N123" s="1" t="s">
-        <v>55</v>
+        <v>1536</v>
+      </c>
+      <c r="N123" s="1">
+        <v>24000</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="P123" s="1">
         <v>32</v>
@@ -8601,15 +8594,15 @@
       </c>
       <c r="S123" s="1"/>
     </row>
-    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>142</v>
@@ -8637,13 +8630,13 @@
       </c>
       <c r="L124" s="1"/>
       <c r="M124" s="1">
-        <v>448</v>
-      </c>
-      <c r="N124" s="1" t="s">
-        <v>56</v>
+        <v>3072</v>
+      </c>
+      <c r="N124" s="1">
+        <v>48000</v>
       </c>
       <c r="O124" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="P124" s="1">
         <v>64</v>
@@ -8656,15 +8649,15 @@
       </c>
       <c r="S124" s="1"/>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>142</v>
@@ -8692,13 +8685,13 @@
       </c>
       <c r="L125" s="1"/>
       <c r="M125" s="1">
-        <v>896</v>
-      </c>
-      <c r="N125" s="1" t="s">
-        <v>57</v>
+        <v>6144</v>
+      </c>
+      <c r="N125" s="1">
+        <v>96000</v>
       </c>
       <c r="O125" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P125" s="1">
         <v>64</v>
@@ -8713,15 +8706,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>142</v>
@@ -8732,7 +8725,7 @@
       <c r="F126" s="2">
         <v>474.02</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="G126" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H126" s="1" t="s">
@@ -8749,13 +8742,13 @@
       </c>
       <c r="L126" s="1"/>
       <c r="M126" s="1">
-        <v>384</v>
-      </c>
-      <c r="N126" s="1">
-        <v>6000</v>
+        <v>56</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="P126" s="1">
         <v>8</v>
@@ -8768,15 +8761,15 @@
       </c>
       <c r="S126" s="1"/>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>142</v>
@@ -8787,7 +8780,7 @@
       <c r="F127" s="2">
         <v>948.04</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="G127" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H127" s="1" t="s">
@@ -8804,13 +8797,13 @@
       </c>
       <c r="L127" s="1"/>
       <c r="M127" s="1">
-        <v>768</v>
-      </c>
-      <c r="N127" s="1">
-        <v>12000</v>
+        <v>112</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="O127" s="1" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="P127" s="1">
         <v>16</v>
@@ -8823,15 +8816,15 @@
       </c>
       <c r="S127" s="1"/>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>142</v>
@@ -8842,7 +8835,7 @@
       <c r="F128" s="2">
         <v>1896.08</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="G128" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H128" s="1" t="s">
@@ -8859,13 +8852,13 @@
       </c>
       <c r="L128" s="1"/>
       <c r="M128" s="1">
-        <v>1536</v>
-      </c>
-      <c r="N128" s="1">
-        <v>24000</v>
+        <v>224</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="O128" s="1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="P128" s="1">
         <v>32</v>
@@ -8878,15 +8871,15 @@
       </c>
       <c r="S128" s="1"/>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>142</v>
@@ -8914,13 +8907,13 @@
       </c>
       <c r="L129" s="1"/>
       <c r="M129" s="1">
-        <v>3072</v>
-      </c>
-      <c r="N129" s="1">
-        <v>48000</v>
+        <v>448</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="O129" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="P129" s="1">
         <v>64</v>
@@ -8933,15 +8926,15 @@
       </c>
       <c r="S129" s="1"/>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>142</v>
@@ -8969,13 +8962,13 @@
       </c>
       <c r="L130" s="1"/>
       <c r="M130" s="1">
-        <v>6144</v>
-      </c>
-      <c r="N130" s="1">
-        <v>96000</v>
+        <v>896</v>
+      </c>
+      <c r="N130" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="O130" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P130" s="1">
         <v>64</v>
@@ -8990,7 +8983,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>63</v>
       </c>
@@ -9043,7 +9036,7 @@
       </c>
       <c r="S131" s="1"/>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>63</v>
       </c>
@@ -9096,7 +9089,7 @@
       </c>
       <c r="S132" s="1"/>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>63</v>
       </c>
@@ -9149,7 +9142,7 @@
       </c>
       <c r="S133" s="1"/>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>63</v>
       </c>
@@ -9202,7 +9195,7 @@
       </c>
       <c r="S134" s="1"/>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>63</v>
       </c>
@@ -9257,7 +9250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>63</v>
       </c>
@@ -9312,7 +9305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>93</v>
       </c>
@@ -9367,7 +9360,7 @@
       </c>
       <c r="S137" s="1"/>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>93</v>
       </c>
@@ -9422,7 +9415,7 @@
       </c>
       <c r="S138" s="1"/>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>93</v>
       </c>
@@ -9477,7 +9470,7 @@
       </c>
       <c r="S139" s="1"/>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>93</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>92</v>
       </c>
@@ -9589,7 +9582,7 @@
       </c>
       <c r="S141" s="1"/>
     </row>
-    <row r="142" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>92</v>
       </c>
@@ -9644,12 +9637,12 @@
       </c>
       <c r="S142" s="1"/>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>224</v>
@@ -9658,10 +9651,10 @@
         <v>91</v>
       </c>
       <c r="E143" s="2">
-        <v>1999.75</v>
+        <v>2122.38</v>
       </c>
       <c r="F143" s="2">
-        <v>2905.93</v>
+        <v>3028.56</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>73</v>
@@ -9676,7 +9669,7 @@
         <v>228</v>
       </c>
       <c r="K143" s="1">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="L143" s="1"/>
       <c r="M143" s="1">
@@ -9699,12 +9692,12 @@
       </c>
       <c r="S143" s="1"/>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>224</v>
@@ -9713,10 +9706,10 @@
         <v>91</v>
       </c>
       <c r="E144" s="2">
-        <v>2122.38</v>
+        <v>5296.95</v>
       </c>
       <c r="F144" s="2">
-        <v>3028.56</v>
+        <v>6701.52</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>73</v>
@@ -9731,7 +9724,7 @@
         <v>228</v>
       </c>
       <c r="K144" s="1">
-        <v>256</v>
+        <v>875</v>
       </c>
       <c r="L144" s="1"/>
       <c r="M144" s="1">
@@ -9754,12 +9747,12 @@
       </c>
       <c r="S144" s="1"/>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>224</v>
@@ -9768,10 +9761,10 @@
         <v>91</v>
       </c>
       <c r="E145" s="2">
-        <v>5296.95</v>
+        <v>1999.75</v>
       </c>
       <c r="F145" s="2">
-        <v>6701.52</v>
+        <v>2905.93</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>73</v>
@@ -9786,7 +9779,7 @@
         <v>228</v>
       </c>
       <c r="K145" s="1">
-        <v>875</v>
+        <v>192</v>
       </c>
       <c r="L145" s="1"/>
       <c r="M145" s="1">
@@ -9809,12 +9802,12 @@
       </c>
       <c r="S145" s="1"/>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>332</v>
+      <c r="B146" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>224</v>
@@ -9822,15 +9815,9 @@
       <c r="D146" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E146" s="2">
-        <v>5747.95</v>
-      </c>
-      <c r="F146" s="2">
-        <v>7560.3</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="1"/>
       <c r="H146" s="1" t="s">
         <v>294</v>
       </c>
@@ -9845,7 +9832,7 @@
       </c>
       <c r="L146" s="1"/>
       <c r="M146" s="1">
-        <v>2048</v>
+        <v>7168</v>
       </c>
       <c r="N146" s="1" t="s">
         <v>56</v>
@@ -9864,7 +9851,7 @@
       </c>
       <c r="S146" s="1"/>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>92</v>
       </c>
@@ -9919,12 +9906,12 @@
       </c>
       <c r="S147" s="1"/>
     </row>
-    <row r="148" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>320</v>
+      <c r="B148" s="1" t="s">
+        <v>325</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>224</v>
@@ -9932,15 +9919,9 @@
       <c r="D148" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E148" s="2">
-        <v>8909.1</v>
-      </c>
-      <c r="F148" s="2">
-        <v>11718.74</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="1"/>
       <c r="H148" s="1" t="s">
         <v>294</v>
       </c>
@@ -9955,7 +9936,7 @@
       </c>
       <c r="L148" s="1"/>
       <c r="M148" s="1">
-        <v>2048</v>
+        <v>7168</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>56</v>
@@ -9974,12 +9955,12 @@
       </c>
       <c r="S148" s="1"/>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>224</v>
@@ -9988,10 +9969,10 @@
         <v>91</v>
       </c>
       <c r="E149" s="2">
-        <v>11495.89</v>
+        <v>8909.1</v>
       </c>
       <c r="F149" s="2">
-        <v>15120.59</v>
+        <v>11718.74</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>73</v>
@@ -10000,23 +9981,23 @@
         <v>294</v>
       </c>
       <c r="I149" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K149" s="1">
-        <v>2048</v>
+        <v>1792</v>
       </c>
       <c r="L149" s="1"/>
       <c r="M149" s="1">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="N149" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O149" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P149" s="1">
         <v>64</v>
@@ -10025,16 +10006,16 @@
         <v>8</v>
       </c>
       <c r="R149" s="1">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="S149" s="1"/>
     </row>
-    <row r="150" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>224</v>
@@ -10043,35 +10024,35 @@
         <v>91</v>
       </c>
       <c r="E150" s="2">
-        <v>23001.13</v>
+        <v>5747.95</v>
       </c>
       <c r="F150" s="2">
-        <v>28619.17</v>
-      </c>
-      <c r="G150" s="1" t="s">
+        <v>7560.3</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>294</v>
       </c>
       <c r="I150" s="1">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K150" s="1">
-        <v>3892</v>
+        <v>1024</v>
       </c>
       <c r="L150" s="1"/>
       <c r="M150" s="1">
-        <v>4096</v>
+        <v>2048</v>
       </c>
       <c r="N150" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O150" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P150" s="1">
         <v>64</v>
@@ -10080,18 +10061,16 @@
         <v>8</v>
       </c>
       <c r="R150" s="1">
-        <v>30000</v>
-      </c>
-      <c r="S150" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="S150" s="1"/>
+    </row>
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>224</v>
@@ -10100,29 +10079,29 @@
         <v>91</v>
       </c>
       <c r="E151" s="2"/>
-      <c r="F151" s="8"/>
+      <c r="F151" s="2"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1" t="s">
         <v>294</v>
       </c>
       <c r="I151" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K151" s="1">
-        <v>1024</v>
+        <v>2048</v>
       </c>
       <c r="L151" s="1"/>
       <c r="M151" s="1">
-        <v>7168</v>
+        <v>14336</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="O151" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P151" s="1">
         <v>64</v>
@@ -10131,16 +10110,16 @@
         <v>8</v>
       </c>
       <c r="R151" s="1">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="S151" s="1"/>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>224</v>
@@ -10155,23 +10134,23 @@
         <v>294</v>
       </c>
       <c r="I152" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>228</v>
       </c>
       <c r="K152" s="1">
-        <v>1792</v>
+        <v>3892</v>
       </c>
       <c r="L152" s="1"/>
       <c r="M152" s="1">
-        <v>7168</v>
+        <v>14336</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="O152" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P152" s="1">
         <v>64</v>
@@ -10180,16 +10159,16 @@
         <v>8</v>
       </c>
       <c r="R152" s="1">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="S152" s="1"/>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>326</v>
+      <c r="B153" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>224</v>
@@ -10197,9 +10176,15 @@
       <c r="D153" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="1"/>
+      <c r="E153" s="2">
+        <v>23001.13</v>
+      </c>
+      <c r="F153" s="2">
+        <v>28619.17</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H153" s="1" t="s">
         <v>294</v>
       </c>
@@ -10210,14 +10195,14 @@
         <v>228</v>
       </c>
       <c r="K153" s="1">
-        <v>2048</v>
+        <v>3892</v>
       </c>
       <c r="L153" s="1"/>
       <c r="M153" s="1">
-        <v>14336</v>
+        <v>4096</v>
       </c>
       <c r="N153" s="1" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="O153" s="1" t="s">
         <v>230</v>
@@ -10229,16 +10214,18 @@
         <v>8</v>
       </c>
       <c r="R153" s="1">
-        <v>32000</v>
-      </c>
-      <c r="S153" s="1"/>
-    </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="S153" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>327</v>
+      <c r="B154" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>224</v>
@@ -10246,9 +10233,15 @@
       <c r="D154" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="1"/>
+      <c r="E154" s="2">
+        <v>11495.89</v>
+      </c>
+      <c r="F154" s="2">
+        <v>15120.59</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="H154" s="1" t="s">
         <v>294</v>
       </c>
@@ -10259,14 +10252,14 @@
         <v>228</v>
       </c>
       <c r="K154" s="1">
-        <v>3892</v>
+        <v>2048</v>
       </c>
       <c r="L154" s="1"/>
       <c r="M154" s="1">
-        <v>14336</v>
+        <v>4096</v>
       </c>
       <c r="N154" s="1" t="s">
-        <v>331</v>
+        <v>57</v>
       </c>
       <c r="O154" s="1" t="s">
         <v>230</v>
@@ -10278,11 +10271,11 @@
         <v>8</v>
       </c>
       <c r="R154" s="1">
-        <v>32000</v>
+        <v>30000</v>
       </c>
       <c r="S154" s="1"/>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>68</v>
       </c>
@@ -10329,7 +10322,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>68</v>
       </c>
@@ -10376,7 +10369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>68</v>
       </c>
@@ -10423,7 +10416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>68</v>
       </c>
@@ -10470,7 +10463,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>138</v>
       </c>
@@ -10517,7 +10510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>138</v>
       </c>
@@ -10564,7 +10557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>138</v>
       </c>
@@ -10611,7 +10604,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>138</v>
       </c>
@@ -10658,7 +10651,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>299</v>
       </c>
@@ -10705,7 +10698,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>299</v>
       </c>
@@ -10752,7 +10745,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>299</v>
       </c>
@@ -10799,7 +10792,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>299</v>
       </c>
@@ -10846,7 +10839,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>263</v>
       </c>
@@ -10893,7 +10886,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>263</v>
       </c>
@@ -10940,7 +10933,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>263</v>
       </c>
@@ -10987,7 +10980,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>263</v>
       </c>
@@ -11034,7 +11027,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>64</v>
       </c>
@@ -11081,7 +11074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>64</v>
       </c>
@@ -11128,7 +11121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>64</v>
       </c>
@@ -11175,19 +11168,19 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C174" s="1"/>
       <c r="D174" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E174" s="10">
-        <v>3925.57</v>
+        <v>7850.28</v>
       </c>
       <c r="F174" s="9"/>
       <c r="G174" s="1" t="s">
@@ -11197,15 +11190,15 @@
         <v>341</v>
       </c>
       <c r="I174" s="1">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="J174" s="1"/>
       <c r="K174" s="1">
-        <v>768</v>
+        <v>2048</v>
       </c>
       <c r="L174" s="1"/>
       <c r="M174" s="1">
-        <v>3072</v>
+        <v>8192</v>
       </c>
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
@@ -11216,19 +11209,19 @@
         <v>343</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E175" s="10">
-        <v>7850.28</v>
+        <v>15197.11</v>
       </c>
       <c r="F175" s="9"/>
       <c r="G175" s="1" t="s">
@@ -11242,11 +11235,11 @@
       </c>
       <c r="J175" s="1"/>
       <c r="K175" s="1">
-        <v>2048</v>
+        <v>4096</v>
       </c>
       <c r="L175" s="1"/>
       <c r="M175" s="1">
-        <v>8192</v>
+        <v>16384</v>
       </c>
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
@@ -11257,19 +11250,19 @@
         <v>343</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E176" s="10">
-        <v>15197.11</v>
+        <v>22795.25</v>
       </c>
       <c r="F176" s="9"/>
       <c r="G176" s="1" t="s">
@@ -11283,7 +11276,7 @@
       </c>
       <c r="J176" s="1"/>
       <c r="K176" s="1">
-        <v>4096</v>
+        <v>6144</v>
       </c>
       <c r="L176" s="1"/>
       <c r="M176" s="1">
@@ -11298,19 +11291,19 @@
         <v>343</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E177" s="10">
-        <v>22795.25</v>
+        <v>14987.98</v>
       </c>
       <c r="F177" s="9"/>
       <c r="G177" s="1" t="s">
@@ -11320,11 +11313,11 @@
         <v>341</v>
       </c>
       <c r="I177" s="1">
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="J177" s="1"/>
       <c r="K177" s="1">
-        <v>6144</v>
+        <v>4096</v>
       </c>
       <c r="L177" s="1"/>
       <c r="M177" s="1">
@@ -11336,22 +11329,22 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C178" s="1"/>
       <c r="D178" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E178" s="10">
-        <v>14987.98</v>
+        <v>19290.490000000002</v>
       </c>
       <c r="F178" s="9"/>
       <c r="G178" s="1" t="s">
@@ -11365,11 +11358,11 @@
       </c>
       <c r="J178" s="1"/>
       <c r="K178" s="1">
-        <v>4096</v>
+        <v>6144</v>
       </c>
       <c r="L178" s="1"/>
       <c r="M178" s="1">
-        <v>16384</v>
+        <v>18432</v>
       </c>
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
@@ -11380,19 +11373,19 @@
         <v>344</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E179" s="10">
-        <v>19290.490000000002</v>
+        <v>25720.65</v>
       </c>
       <c r="F179" s="9"/>
       <c r="G179" s="1" t="s">
@@ -11406,11 +11399,11 @@
       </c>
       <c r="J179" s="1"/>
       <c r="K179" s="1">
-        <v>6144</v>
+        <v>8192</v>
       </c>
       <c r="L179" s="1"/>
       <c r="M179" s="1">
-        <v>18432</v>
+        <v>22528</v>
       </c>
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
@@ -11421,19 +11414,19 @@
         <v>344</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>333</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C180" s="1"/>
       <c r="D180" s="1" t="s">
         <v>342</v>
       </c>
       <c r="E180" s="10">
-        <v>25720.65</v>
+        <v>3925.57</v>
       </c>
       <c r="F180" s="9"/>
       <c r="G180" s="1" t="s">
@@ -11443,15 +11436,15 @@
         <v>341</v>
       </c>
       <c r="I180" s="1">
-        <v>384</v>
+        <v>96</v>
       </c>
       <c r="J180" s="1"/>
       <c r="K180" s="1">
-        <v>8192</v>
+        <v>768</v>
       </c>
       <c r="L180" s="1"/>
       <c r="M180" s="1">
-        <v>22528</v>
+        <v>3072</v>
       </c>
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
@@ -11459,7 +11452,7 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/azure-vm-sizes.xlsx
+++ b/azure-vm-sizes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3cc1572739f6e00b/GitHub/azure-toolkit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1989" documentId="6_{238F5F5A-B33F-42A2-8155-12E5C0420885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{88D1DAF8-A873-4848-A054-D9D8808EF823}"/>
+  <xr:revisionPtr revIDLastSave="2351" documentId="6_{238F5F5A-B33F-42A2-8155-12E5C0420885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{46FA10D6-DCC0-40DE-90F2-36A2EF09D518}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,7 +591,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2524" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="418">
   <si>
     <t>Type</t>
   </si>
@@ -1859,18 +1859,6 @@
     <t>Preview</t>
   </si>
   <si>
-    <t>Da_v3</t>
-  </si>
-  <si>
-    <t>Das_v3</t>
-  </si>
-  <si>
-    <t>Ea_v3</t>
-  </si>
-  <si>
-    <t>Eas_v3</t>
-  </si>
-  <si>
     <t>AMD EPYC 7452</t>
   </si>
   <si>
@@ -1904,55 +1892,7 @@
     <t>Radeon MI25 (16GB RAM)</t>
   </si>
   <si>
-    <t>D8a_v3</t>
-  </si>
-  <si>
-    <t>D8as_v3</t>
-  </si>
-  <si>
     <t>E16as_v3</t>
-  </si>
-  <si>
-    <t>E16a_v3</t>
-  </si>
-  <si>
-    <t>D2as_v3</t>
-  </si>
-  <si>
-    <t>D4as_v3</t>
-  </si>
-  <si>
-    <t>D16as_v3</t>
-  </si>
-  <si>
-    <t>D32as_v3</t>
-  </si>
-  <si>
-    <t>D64as_v3</t>
-  </si>
-  <si>
-    <t>AMD EPYC 7452V</t>
-  </si>
-  <si>
-    <t>D48as_v3</t>
-  </si>
-  <si>
-    <t>D2a_v3</t>
-  </si>
-  <si>
-    <t>D4a_v3</t>
-  </si>
-  <si>
-    <t>D16a_v3</t>
-  </si>
-  <si>
-    <t>D32a_v3</t>
-  </si>
-  <si>
-    <t>D48a_v3</t>
-  </si>
-  <si>
-    <t>D64a_v3</t>
   </si>
   <si>
     <t>Ultra Disk Supported</t>
@@ -1964,6 +1904,117 @@
   <si>
     <t>Cost per
 Core</t>
+  </si>
+  <si>
+    <t>Da_v4</t>
+  </si>
+  <si>
+    <t>Das_v4</t>
+  </si>
+  <si>
+    <t>D2a_v4</t>
+  </si>
+  <si>
+    <t>D2as_v4</t>
+  </si>
+  <si>
+    <t>D4a_v4</t>
+  </si>
+  <si>
+    <t>D4as_v4</t>
+  </si>
+  <si>
+    <t>D8a_v4</t>
+  </si>
+  <si>
+    <t>D8as_v4</t>
+  </si>
+  <si>
+    <t>D16a_v4</t>
+  </si>
+  <si>
+    <t>D16as_v4</t>
+  </si>
+  <si>
+    <t>D32a_v4</t>
+  </si>
+  <si>
+    <t>D32as_v4</t>
+  </si>
+  <si>
+    <t>D48a_v4</t>
+  </si>
+  <si>
+    <t>D48as_v4</t>
+  </si>
+  <si>
+    <t>D64a_v4</t>
+  </si>
+  <si>
+    <t>D64as_v4</t>
+  </si>
+  <si>
+    <t>D96as_v4</t>
+  </si>
+  <si>
+    <t>D96a_v4</t>
+  </si>
+  <si>
+    <t>Ea_v4</t>
+  </si>
+  <si>
+    <t>Eas_v4</t>
+  </si>
+  <si>
+    <t>E16a_v4</t>
+  </si>
+  <si>
+    <t>E2as_v4</t>
+  </si>
+  <si>
+    <t>E4as_v4</t>
+  </si>
+  <si>
+    <t>E8as_v4</t>
+  </si>
+  <si>
+    <t>E20as_v4</t>
+  </si>
+  <si>
+    <t>E32as_v4</t>
+  </si>
+  <si>
+    <t>E48as_v4</t>
+  </si>
+  <si>
+    <t>E64as_v4</t>
+  </si>
+  <si>
+    <t>E96as_v4</t>
+  </si>
+  <si>
+    <t>E2a_v4</t>
+  </si>
+  <si>
+    <t>E4a_v4</t>
+  </si>
+  <si>
+    <t>E8a_v4</t>
+  </si>
+  <si>
+    <t>E20a_v4</t>
+  </si>
+  <si>
+    <t>E32a_v4</t>
+  </si>
+  <si>
+    <t>E48a_v4</t>
+  </si>
+  <si>
+    <t>E64a_v4</t>
+  </si>
+  <si>
+    <t>E96a_v4</t>
   </si>
 </sst>
 </file>
@@ -2071,7 +2122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2090,13 +2141,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -2138,6 +2198,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2145,25 +2208,6 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="28">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2622,6 +2666,25 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2695,45 +2758,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:Z258" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A3:Z258" xr:uid="{00000000-0009-0000-0100-000002000000}">
-    <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="Current"/>
-        <filter val="Previous"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A3:Z266" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A3:Z266" xr:uid="{00000000-0009-0000-0100-000002000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="E_ v3"/>
+        <filter val="Eas_v4"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="E16_v3"/>
+        <filter val="E16as_v3"/>
+        <filter val="E16s_v3"/>
+        <filter val="E2_v3"/>
+        <filter val="E20_v3"/>
+        <filter val="E20as_v4"/>
+        <filter val="E20s_v3"/>
+        <filter val="E2as_v4"/>
+        <filter val="E2s_v3"/>
+        <filter val="E32_v3"/>
+        <filter val="E32as_v4"/>
+        <filter val="E32s_v3"/>
+        <filter val="E4_v3"/>
+        <filter val="E48_v3"/>
+        <filter val="E48as_v4"/>
+        <filter val="E48s_v3"/>
+        <filter val="E4as_v4"/>
+        <filter val="E4s_v3"/>
+        <filter val="E64_v3"/>
+        <filter val="E64as_v4"/>
+        <filter val="E64i_v3"/>
+        <filter val="E64is_v3"/>
+        <filter val="E64s_v3"/>
+        <filter val="E8_v3"/>
+        <filter val="E8as_v4"/>
+        <filter val="E8s_v3"/>
+        <filter val="E96as_v4"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:Z258">
-    <sortCondition ref="B3:B258"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A57:Z266">
+    <sortCondition ref="M3:M266"/>
   </sortState>
   <tableColumns count="26">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Type" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Size" dataDxfId="24"/>
     <tableColumn id="19" xr3:uid="{5DD33DC2-A401-48C2-B506-F559FA55F3C0}" name="Premium_x000a_Disk_x000a_Supported" dataDxfId="23"/>
-    <tableColumn id="26" xr3:uid="{F195AA97-0873-4DCD-BAB5-1144055E552E}" name="Ultra Disk Supported" dataDxfId="0"/>
-    <tableColumn id="20" xr3:uid="{187F1EB8-C82D-4D83-A79B-13213E194783}" name="Generation" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{3037319D-829A-42BC-8D15-B399A6BB5BD4}" name="Category" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Price Linux" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{DB0B5E90-A85C-4BBA-9131-4F285AEB5E00}" name="Cost per_x000a_Core" dataDxfId="19"/>
-    <tableColumn id="25" xr3:uid="{7F0BA52F-E84D-48C4-8545-2DEFE1D87270}" name="Cost per_x000a_Memory" dataDxfId="18"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Region" dataDxfId="17"/>
-    <tableColumn id="18" xr3:uid="{83FDDE87-814A-408B-BFA0-80C2EF9523EE}" name="CPU" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{4233B0C1-7D74-4FEC-9AC0-DD9D57E2EBFC}" name="vCPU:Core" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Core" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{00ADF934-41FB-49C8-83C8-80D12E6C2679}" name="Max_x000a_ACU" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Memory_x000a_[GB]" dataDxfId="12"/>
-    <tableColumn id="21" xr3:uid="{563539C5-88BB-4812-AD69-427B399672FA}" name="Temp_x000a_Disk_x000a_Type" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Temp_x000a_Disk_x000a_Size_x000a_[GB]" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{F04EE936-A10F-45F3-9E4E-B6B39E1BF4CB}" name="Disk_x000a_Cache_x000a_Size_x000a_[GB]" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{CF572927-7FE1-46EF-BD12-4F4D38DEF1E1}" name="Max_x000a_IOPS_x000a_(cached)" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{24629223-8566-46A6-A505-AB5A8853EE6E}" name="Max_x000a_MB/s_x000a_(cached)" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Max_x000a_IOPS_x000a_(uncached)" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Max_x000a_MB/s_x000a_(uncached)" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Max_x000a_Data_x000a_Disks" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Max_x000a_NICs" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Network_x000a_bandwidth_x000a_[Mbps]" dataDxfId="2"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Note" dataDxfId="1"/>
+    <tableColumn id="26" xr3:uid="{F195AA97-0873-4DCD-BAB5-1144055E552E}" name="Ultra Disk Supported" dataDxfId="22"/>
+    <tableColumn id="20" xr3:uid="{187F1EB8-C82D-4D83-A79B-13213E194783}" name="Generation" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{3037319D-829A-42BC-8D15-B399A6BB5BD4}" name="Category" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Price Linux" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{DB0B5E90-A85C-4BBA-9131-4F285AEB5E00}" name="Cost per_x000a_Core" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{7F0BA52F-E84D-48C4-8545-2DEFE1D87270}" name="Cost per_x000a_Memory" dataDxfId="17"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Region" dataDxfId="16"/>
+    <tableColumn id="18" xr3:uid="{83FDDE87-814A-408B-BFA0-80C2EF9523EE}" name="CPU" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{4233B0C1-7D74-4FEC-9AC0-DD9D57E2EBFC}" name="vCPU:Core" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Core" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{00ADF934-41FB-49C8-83C8-80D12E6C2679}" name="Max_x000a_ACU" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Memory_x000a_[GB]" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{563539C5-88BB-4812-AD69-427B399672FA}" name="Temp_x000a_Disk_x000a_Type" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Temp_x000a_Disk_x000a_Size_x000a_[GB]" dataDxfId="9"/>
+    <tableColumn id="24" xr3:uid="{F04EE936-A10F-45F3-9E4E-B6B39E1BF4CB}" name="Disk_x000a_Cache_x000a_Size_x000a_[GB]" dataDxfId="8"/>
+    <tableColumn id="22" xr3:uid="{CF572927-7FE1-46EF-BD12-4F4D38DEF1E1}" name="Max_x000a_IOPS_x000a_(cached)" dataDxfId="7"/>
+    <tableColumn id="23" xr3:uid="{24629223-8566-46A6-A505-AB5A8853EE6E}" name="Max_x000a_MB/s_x000a_(cached)" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Max_x000a_IOPS_x000a_(uncached)" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Max_x000a_MB/s_x000a_(uncached)" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Max_x000a_Data_x000a_Disks" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Max_x000a_NICs" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Network_x000a_bandwidth_x000a_[Mbps]" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3036,10 +3130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z258"/>
+  <dimension ref="A1:Z266"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N113" sqref="A113:N116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3057,16 +3151,16 @@
     <col min="11" max="11" width="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" customWidth="1"/>
+    <col min="14" max="14" width="18.5703125" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" customWidth="1"/>
+    <col min="20" max="21" width="13.7109375" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1"/>
     <col min="26" max="26" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3106,7 +3200,7 @@
         <v>277</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="E3" s="9" t="s">
         <v>337</v>
@@ -3118,10 +3212,10 @@
         <v>80</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>20</v>
@@ -3175,7 +3269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -3248,7 +3342,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -3323,7 +3417,7 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>42</v>
       </c>
@@ -3396,7 +3490,7 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -3471,7 +3565,7 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>264</v>
       </c>
@@ -3550,7 +3644,7 @@
       </c>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -3627,7 +3721,7 @@
       </c>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3704,7 +3798,7 @@
       </c>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
@@ -3777,7 +3871,7 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -3852,7 +3946,7 @@
       </c>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>264</v>
       </c>
@@ -3931,7 +4025,7 @@
       </c>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>264</v>
       </c>
@@ -4010,7 +4104,7 @@
       </c>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -4083,7 +4177,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -4158,7 +4252,7 @@
       </c>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -4231,7 +4325,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -4306,7 +4400,7 @@
       </c>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>264</v>
       </c>
@@ -4385,7 +4479,7 @@
       </c>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>264</v>
       </c>
@@ -4464,7 +4558,7 @@
       </c>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4633,7 @@
       </c>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -4614,7 +4708,7 @@
       </c>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -4689,7 +4783,7 @@
       </c>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -4768,7 +4862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>264</v>
       </c>
@@ -4847,7 +4941,7 @@
       </c>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>264</v>
       </c>
@@ -4926,7 +5020,7 @@
       </c>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -5084,7 +5178,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
@@ -5163,7 +5257,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -5242,7 +5336,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
@@ -5321,7 +5415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>22</v>
       </c>
@@ -5400,7 +5494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -5479,7 +5573,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>22</v>
       </c>
@@ -5558,7 +5652,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>22</v>
       </c>
@@ -5637,7 +5731,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>22</v>
       </c>
@@ -5716,7 +5810,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>22</v>
       </c>
@@ -5795,7 +5889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>265</v>
       </c>
@@ -5876,7 +5970,7 @@
       </c>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>266</v>
       </c>
@@ -5957,7 +6051,7 @@
       </c>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>265</v>
       </c>
@@ -6038,7 +6132,7 @@
       </c>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>266</v>
       </c>
@@ -6119,7 +6213,7 @@
       </c>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>265</v>
       </c>
@@ -6200,7 +6294,7 @@
       </c>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>266</v>
       </c>
@@ -6281,7 +6375,7 @@
       </c>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>265</v>
       </c>
@@ -6362,7 +6456,7 @@
       </c>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>266</v>
       </c>
@@ -6443,7 +6537,7 @@
       </c>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>265</v>
       </c>
@@ -6524,7 +6618,7 @@
       </c>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>266</v>
       </c>
@@ -6605,7 +6699,7 @@
       </c>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>266</v>
       </c>
@@ -6688,7 +6782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>267</v>
       </c>
@@ -6771,123 +6865,149 @@
     </row>
     <row r="50" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B50" s="17" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="G50" s="15">
-        <v>280.32</v>
+        <v>78.11</v>
       </c>
       <c r="H50" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I50" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J50" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1">
-        <v>16</v>
-      </c>
-      <c r="N50" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="N50" s="1">
+        <v>260</v>
+      </c>
       <c r="O50" s="1">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="P50" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q50" s="1">
-        <v>128</v>
+        <v>50</v>
       </c>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
+      <c r="W50" s="1">
+        <v>4</v>
+      </c>
+      <c r="X50" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="G51" s="15">
-        <v>280.32</v>
+        <v>78.11</v>
       </c>
       <c r="H51" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I51" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J51" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1">
+        <v>260</v>
+      </c>
+      <c r="O51" s="1">
+        <v>8</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q51" s="1">
         <v>16</v>
       </c>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1">
-        <v>64</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>128</v>
-      </c>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
+      <c r="R51" s="1">
+        <v>50</v>
+      </c>
+      <c r="S51" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T51" s="1">
+        <v>32</v>
+      </c>
+      <c r="U51" s="1">
+        <v>3200</v>
+      </c>
+      <c r="V51" s="1">
+        <v>48</v>
+      </c>
+      <c r="W51" s="1">
+        <v>4</v>
+      </c>
+      <c r="X51" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>267</v>
       </c>
@@ -6968,7 +7088,7 @@
       </c>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>265</v>
       </c>
@@ -7049,7 +7169,7 @@
       </c>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>266</v>
       </c>
@@ -7130,7 +7250,7 @@
       </c>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>267</v>
       </c>
@@ -7213,123 +7333,149 @@
     </row>
     <row r="56" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G56" s="15">
-        <v>35.04</v>
+        <v>320</v>
+      </c>
+      <c r="G56" s="4">
+        <v>102.93</v>
       </c>
       <c r="H56" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I56" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J56" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1">
         <v>2</v>
       </c>
-      <c r="N56" s="1"/>
+      <c r="N56" s="1">
+        <v>260</v>
+      </c>
       <c r="O56" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P56" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q56" s="1">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="1"/>
+      <c r="W56" s="1">
+        <v>4</v>
+      </c>
+      <c r="X56" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>385</v>
-      </c>
-      <c r="C57" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="E57" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G57" s="15">
-        <v>35.04</v>
+      <c r="E57" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" s="4">
+        <v>102.93</v>
       </c>
       <c r="H57" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I57" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L57" s="1"/>
-      <c r="M57" s="1">
+      <c r="M57" s="13">
         <v>2</v>
       </c>
-      <c r="N57" s="1"/>
+      <c r="N57" s="1">
+        <v>260</v>
+      </c>
       <c r="O57" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q57" s="1">
-        <v>16</v>
-      </c>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="R57" s="1">
+        <v>50</v>
+      </c>
+      <c r="S57" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T57" s="1">
+        <v>32</v>
+      </c>
+      <c r="U57" s="1">
+        <v>3200</v>
+      </c>
+      <c r="V57" s="1">
+        <v>48</v>
+      </c>
+      <c r="W57" s="1">
+        <v>4</v>
+      </c>
+      <c r="X57" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>267</v>
       </c>
@@ -7410,7 +7556,7 @@
       </c>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>265</v>
       </c>
@@ -7491,7 +7637,7 @@
       </c>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>266</v>
       </c>
@@ -7572,7 +7718,7 @@
       </c>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>267</v>
       </c>
@@ -7655,123 +7801,149 @@
     </row>
     <row r="62" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="G62" s="15">
-        <v>560.64</v>
+        <v>156.22</v>
       </c>
       <c r="H62" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I62" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1">
-        <v>32</v>
-      </c>
-      <c r="N62" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="N62" s="1">
+        <v>260</v>
+      </c>
       <c r="O62" s="1">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="P62" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q62" s="1">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
+      <c r="W62" s="1">
+        <v>8</v>
+      </c>
+      <c r="X62" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="G63" s="15">
-        <v>560.64</v>
+        <v>156.22</v>
       </c>
       <c r="H63" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I63" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1">
+        <v>4</v>
+      </c>
+      <c r="N63" s="1">
+        <v>260</v>
+      </c>
+      <c r="O63" s="1">
+        <v>16</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q63" s="1">
         <v>32</v>
       </c>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1">
-        <v>128</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q63" s="1">
-        <v>256</v>
-      </c>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
+      <c r="R63" s="1">
+        <v>100</v>
+      </c>
+      <c r="S63" s="1">
+        <v>8000</v>
+      </c>
+      <c r="T63" s="1">
+        <v>64</v>
+      </c>
+      <c r="U63" s="1">
+        <v>6400</v>
+      </c>
+      <c r="V63" s="1">
+        <v>96</v>
+      </c>
+      <c r="W63" s="1">
+        <v>8</v>
+      </c>
+      <c r="X63" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>267</v>
       </c>
@@ -7852,7 +8024,7 @@
       </c>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>265</v>
       </c>
@@ -7933,7 +8105,7 @@
       </c>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>266</v>
       </c>
@@ -8014,7 +8186,7 @@
       </c>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>267</v>
       </c>
@@ -8095,7 +8267,7 @@
       </c>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>267</v>
       </c>
@@ -8178,123 +8350,153 @@
     </row>
     <row r="69" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G69" s="15">
-        <v>840.96</v>
+        <v>320</v>
+      </c>
+      <c r="G69" s="4">
+        <v>205.86</v>
       </c>
       <c r="H69" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I69" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J69" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1">
-        <v>48</v>
-      </c>
-      <c r="N69" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="N69" s="1">
+        <v>260</v>
+      </c>
       <c r="O69" s="1">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="P69" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q69" s="1">
-        <v>384</v>
+        <v>100</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
-      <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
-      <c r="Y69" s="1"/>
+      <c r="W69" s="1">
+        <v>8</v>
+      </c>
+      <c r="X69" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>2000</v>
+      </c>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="B70" s="17" t="s">
-        <v>391</v>
+        <v>190</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D70" s="1"/>
+        <v>159</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="E70" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G70" s="15">
-        <v>840.96</v>
-      </c>
-      <c r="H70" s="15">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>320</v>
+      </c>
+      <c r="G70" s="14">
+        <v>102.93</v>
+      </c>
+      <c r="H70" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
       </c>
       <c r="I70" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J70" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L70" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="L70" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="M70" s="1">
-        <v>48</v>
-      </c>
-      <c r="N70" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="N70" s="1">
+        <v>190</v>
+      </c>
       <c r="O70" s="1">
-        <v>192</v>
+        <v>16</v>
       </c>
       <c r="P70" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q70" s="1">
-        <v>384</v>
-      </c>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="R70" s="1">
+        <v>0</v>
+      </c>
+      <c r="S70" s="1">
+        <v>3000</v>
+      </c>
+      <c r="T70" s="1">
+        <v>23</v>
+      </c>
+      <c r="U70" s="1">
+        <v>3000</v>
+      </c>
+      <c r="V70" s="1">
+        <v>23</v>
+      </c>
+      <c r="W70" s="1">
+        <v>4</v>
+      </c>
+      <c r="X70" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>267</v>
       </c>
@@ -8377,123 +8579,149 @@
     </row>
     <row r="72" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>393</v>
+        <v>381</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>387</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G72" s="15">
-        <v>70.08</v>
+        <v>315</v>
+      </c>
+      <c r="G72" s="14">
+        <v>312.44</v>
       </c>
       <c r="H72" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I72" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J72" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L72" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="L72" s="12"/>
       <c r="M72" s="1">
-        <v>4</v>
-      </c>
-      <c r="N72" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="N72" s="1">
+        <v>260</v>
+      </c>
       <c r="O72" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P72" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q72" s="1">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
       <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="W72" s="1">
+        <v>16</v>
+      </c>
+      <c r="X72" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>4000</v>
+      </c>
       <c r="Z72" s="1"/>
     </row>
     <row r="73" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>386</v>
+        <v>382</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>388</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G73" s="15">
-        <v>70.08</v>
+        <v>315</v>
+      </c>
+      <c r="G73" s="14">
+        <v>312.44</v>
       </c>
       <c r="H73" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I73" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J73" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L73" s="1"/>
+        <v>366</v>
+      </c>
+      <c r="L73" s="12"/>
       <c r="M73" s="1">
+        <v>8</v>
+      </c>
+      <c r="N73" s="1">
+        <v>260</v>
+      </c>
+      <c r="O73" s="1">
+        <v>32</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>64</v>
+      </c>
+      <c r="R73" s="1">
+        <v>200</v>
+      </c>
+      <c r="S73" s="1">
+        <v>16000</v>
+      </c>
+      <c r="T73" s="1">
+        <v>128</v>
+      </c>
+      <c r="U73" s="1">
+        <v>12800</v>
+      </c>
+      <c r="V73" s="1">
+        <v>192</v>
+      </c>
+      <c r="W73" s="1">
+        <v>16</v>
+      </c>
+      <c r="X73" s="1">
         <v>4</v>
       </c>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1">
-        <v>16</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>32</v>
-      </c>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
-      <c r="Y73" s="1"/>
+      <c r="Y73" s="1">
+        <v>4000</v>
+      </c>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>267</v>
       </c>
@@ -8574,7 +8802,7 @@
       </c>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>266</v>
       </c>
@@ -8655,7 +8883,7 @@
       </c>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>267</v>
       </c>
@@ -8738,123 +8966,153 @@
     </row>
     <row r="77" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="B77" s="17" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G77" s="15">
-        <v>1121.28</v>
+        <v>320</v>
+      </c>
+      <c r="G77" s="4">
+        <v>411.72</v>
       </c>
       <c r="H77" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I77" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J77" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L77" s="1"/>
       <c r="M77" s="1">
+        <v>8</v>
+      </c>
+      <c r="N77" s="1">
+        <v>260</v>
+      </c>
+      <c r="O77" s="1">
         <v>64</v>
       </c>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1">
-        <v>256</v>
-      </c>
       <c r="P77" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q77" s="1">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
+      <c r="W77" s="1">
+        <v>16</v>
+      </c>
+      <c r="X77" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>4000</v>
+      </c>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>367</v>
+        <v>268</v>
       </c>
       <c r="B78" s="17" t="s">
-        <v>389</v>
+        <v>191</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E78" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G78" s="15">
-        <v>1121.28</v>
-      </c>
-      <c r="H78" s="15">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>320</v>
+      </c>
+      <c r="G78" s="14">
+        <v>102.93</v>
+      </c>
+      <c r="H78" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
       </c>
       <c r="I78" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J78" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L78" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="L78" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="M78" s="1">
-        <v>64</v>
-      </c>
-      <c r="N78" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="N78" s="1">
+        <v>190</v>
+      </c>
       <c r="O78" s="1">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="P78" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q78" s="1">
-        <v>512</v>
-      </c>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1"/>
-      <c r="U78" s="1"/>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="R78" s="1">
+        <v>50</v>
+      </c>
+      <c r="S78" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T78" s="1">
+        <v>32</v>
+      </c>
+      <c r="U78" s="1">
+        <v>3200</v>
+      </c>
+      <c r="V78" s="1">
+        <v>48</v>
+      </c>
+      <c r="W78" s="1">
+        <v>4</v>
+      </c>
+      <c r="X78" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>1000</v>
+      </c>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>267</v>
       </c>
@@ -8935,7 +9193,7 @@
       </c>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>267</v>
       </c>
@@ -9018,123 +9276,149 @@
     </row>
     <row r="81" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B81" s="19" t="s">
         <v>381</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>389</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G81" s="14">
-        <v>140.16</v>
+        <v>315</v>
+      </c>
+      <c r="G81" s="15">
+        <v>624.88</v>
       </c>
       <c r="H81" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I81" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J81" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L81" s="12"/>
+        <v>366</v>
+      </c>
+      <c r="L81" s="1"/>
       <c r="M81" s="1">
-        <v>8</v>
-      </c>
-      <c r="N81" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="N81" s="1">
+        <v>260</v>
+      </c>
       <c r="O81" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q81" s="1">
-        <v>64</v>
+        <v>400</v>
       </c>
       <c r="R81" s="1"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
       <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
+      <c r="W81" s="1">
+        <v>32</v>
+      </c>
+      <c r="X81" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>8000</v>
+      </c>
       <c r="Z81" s="1"/>
     </row>
     <row r="82" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B82" s="19" t="s">
         <v>382</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>390</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G82" s="14">
-        <v>140.16</v>
+        <v>315</v>
+      </c>
+      <c r="G82" s="15">
+        <v>624.88</v>
       </c>
       <c r="H82" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>17.52</v>
+        <v>39.055</v>
       </c>
       <c r="I82" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>4.38</v>
+        <v>9.7637499999999999</v>
       </c>
       <c r="J82" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L82" s="12"/>
+        <v>366</v>
+      </c>
+      <c r="L82" s="1"/>
       <c r="M82" s="1">
+        <v>16</v>
+      </c>
+      <c r="N82" s="1">
+        <v>260</v>
+      </c>
+      <c r="O82" s="1">
+        <v>64</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>128</v>
+      </c>
+      <c r="R82" s="1">
+        <v>400</v>
+      </c>
+      <c r="S82" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T82" s="1">
+        <v>255</v>
+      </c>
+      <c r="U82" s="1">
+        <v>25600</v>
+      </c>
+      <c r="V82" s="1">
+        <v>384</v>
+      </c>
+      <c r="W82" s="1">
+        <v>32</v>
+      </c>
+      <c r="X82" s="1">
         <v>8</v>
       </c>
-      <c r="N82" s="1"/>
-      <c r="O82" s="1">
-        <v>32</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q82" s="1">
-        <v>64</v>
-      </c>
-      <c r="R82" s="1"/>
-      <c r="S82" s="1"/>
-      <c r="T82" s="1"/>
-      <c r="U82" s="1"/>
-      <c r="V82" s="1"/>
-      <c r="W82" s="1"/>
-      <c r="X82" s="1"/>
-      <c r="Y82" s="1"/>
+      <c r="Y82" s="1">
+        <v>8000</v>
+      </c>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>267</v>
       </c>
@@ -9373,7 +9657,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>265</v>
       </c>
@@ -9454,7 +9738,7 @@
       </c>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>266</v>
       </c>
@@ -9535,7 +9819,7 @@
       </c>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>265</v>
       </c>
@@ -9616,7 +9900,7 @@
       </c>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>266</v>
       </c>
@@ -9697,7 +9981,7 @@
       </c>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>266</v>
       </c>
@@ -9778,7 +10062,7 @@
       </c>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>265</v>
       </c>
@@ -9859,7 +10143,7 @@
       </c>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>266</v>
       </c>
@@ -9940,7 +10224,7 @@
       </c>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>266</v>
       </c>
@@ -10021,7 +10305,7 @@
       </c>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>266</v>
       </c>
@@ -10102,7 +10386,7 @@
       </c>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>265</v>
       </c>
@@ -10183,7 +10467,7 @@
       </c>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>266</v>
       </c>
@@ -10264,7 +10548,7 @@
       </c>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>266</v>
       </c>
@@ -10345,7 +10629,7 @@
       </c>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>266</v>
       </c>
@@ -10426,7 +10710,7 @@
       </c>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>265</v>
       </c>
@@ -10507,7 +10791,7 @@
       </c>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>266</v>
       </c>
@@ -10588,7 +10872,7 @@
       </c>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>266</v>
       </c>
@@ -10669,7 +10953,7 @@
       </c>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>266</v>
       </c>
@@ -10750,7 +11034,7 @@
       </c>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>266</v>
       </c>
@@ -10833,7 +11117,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>265</v>
       </c>
@@ -10914,7 +11198,7 @@
       </c>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>266</v>
       </c>
@@ -10995,7 +11279,7 @@
       </c>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>265</v>
       </c>
@@ -11076,7 +11360,7 @@
       </c>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>266</v>
       </c>
@@ -11157,7 +11441,7 @@
       </c>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>265</v>
       </c>
@@ -11238,7 +11522,7 @@
       </c>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>266</v>
       </c>
@@ -11319,7 +11603,7 @@
       </c>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
@@ -11400,18 +11684,18 @@
       </c>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="17" t="s">
-        <v>200</v>
+      <c r="B111" s="18" t="s">
+        <v>194</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>339</v>
@@ -11420,11 +11704,11 @@
         <v>320</v>
       </c>
       <c r="G111" s="14">
-        <v>823.44</v>
+        <v>205.86</v>
       </c>
       <c r="H111" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
+        <v>102.93</v>
       </c>
       <c r="I111" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -11441,52 +11725,52 @@
         <v>327</v>
       </c>
       <c r="M111" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N111" s="1">
         <v>190</v>
       </c>
       <c r="O111" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="P111" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q111" s="1">
-        <v>400</v>
+        <v>64</v>
       </c>
       <c r="R111" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S111" s="1">
-        <v>24000</v>
+        <v>6400</v>
       </c>
       <c r="T111" s="1">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="U111" s="1">
-        <v>24000</v>
+        <v>6400</v>
       </c>
       <c r="V111" s="1">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="W111" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="X111" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y111" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>160</v>
@@ -11501,7 +11785,7 @@
         <v>320</v>
       </c>
       <c r="G112" s="14">
-        <v>823.44</v>
+        <v>411.72</v>
       </c>
       <c r="H112" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -11522,71 +11806,69 @@
         <v>327</v>
       </c>
       <c r="M112" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N112" s="1">
         <v>190</v>
       </c>
       <c r="O112" s="1">
+        <v>64</v>
+      </c>
+      <c r="P112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q112" s="1">
         <v>128</v>
       </c>
-      <c r="P112" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q112" s="1">
-        <v>256</v>
-      </c>
       <c r="R112" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S112" s="1">
-        <v>32000</v>
+        <v>16000</v>
       </c>
       <c r="T112" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="U112" s="1">
-        <v>25600</v>
+        <v>12800</v>
       </c>
       <c r="V112" s="1">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="W112" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X112" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y112" s="1">
-        <v>8000</v>
+        <v>4000</v>
       </c>
       <c r="Z112" s="1"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B113" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C113" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="C113" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="1"/>
+      <c r="E113" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="F113" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G113" s="14">
-        <v>823.44</v>
-      </c>
-      <c r="H113" s="14">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>102.93</v>
+      <c r="G113" s="4">
+        <v>205.86</v>
+      </c>
+      <c r="H113" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
       </c>
       <c r="I113" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -11597,58 +11879,56 @@
         <v>23</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L113" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M113" s="1">
+        <v>366</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="M113" s="13">
+        <v>4</v>
+      </c>
+      <c r="N113" s="1">
+        <v>260</v>
+      </c>
+      <c r="O113" s="1">
+        <v>32</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q113" s="1">
+        <v>64</v>
+      </c>
+      <c r="R113" s="1">
+        <v>100</v>
+      </c>
+      <c r="S113" s="1">
+        <v>8000</v>
+      </c>
+      <c r="T113" s="1">
+        <v>64</v>
+      </c>
+      <c r="U113" s="1">
+        <v>6400</v>
+      </c>
+      <c r="V113" s="1">
+        <v>96</v>
+      </c>
+      <c r="W113" s="1">
         <v>8</v>
       </c>
-      <c r="N113" s="1">
-        <v>190</v>
-      </c>
-      <c r="O113" s="1">
-        <v>128</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q113" s="1">
-        <v>256</v>
-      </c>
-      <c r="R113" s="1">
-        <v>400</v>
-      </c>
-      <c r="S113" s="1">
-        <v>32000</v>
-      </c>
-      <c r="T113" s="1">
-        <v>256</v>
-      </c>
-      <c r="U113" s="1">
-        <v>25600</v>
-      </c>
-      <c r="V113" s="1">
-        <v>384</v>
-      </c>
-      <c r="W113" s="1">
-        <v>32</v>
-      </c>
       <c r="X113" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y113" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="Z113" s="1"/>
     </row>
     <row r="114" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>159</v>
@@ -11660,79 +11940,135 @@
       <c r="F114" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="14" t="e">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
-'[GB']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J114" s="3"/>
+      <c r="G114" s="2">
+        <v>823.44</v>
+      </c>
+      <c r="H114" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I114" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J114" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K114" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L114" s="12"/>
       <c r="M114" s="1">
         <v>16</v>
       </c>
-      <c r="N114" s="1"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="1"/>
-      <c r="Q114" s="1"/>
+      <c r="N114" s="1">
+        <v>260</v>
+      </c>
+      <c r="O114" s="1">
+        <v>128</v>
+      </c>
+      <c r="P114" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q114" s="1">
+        <v>400</v>
+      </c>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
       <c r="T114" s="1"/>
       <c r="U114" s="1"/>
       <c r="V114" s="1"/>
-      <c r="W114" s="1"/>
-      <c r="X114" s="1"/>
-      <c r="Y114" s="1"/>
+      <c r="W114" s="1">
+        <v>32</v>
+      </c>
+      <c r="X114" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y114" s="1">
+        <v>8000</v>
+      </c>
       <c r="Z114" s="1"/>
     </row>
     <row r="115" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B115" s="19" t="s">
-        <v>383</v>
+        <v>268</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>188</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="E115" s="1" t="s">
-        <v>365</v>
+        <v>339</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="14" t="e">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
-'[GB']]]</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J115" s="1"/>
+      <c r="G115" s="14">
+        <v>823.44</v>
+      </c>
+      <c r="H115" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>205.86</v>
+      </c>
+      <c r="I115" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="K115" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="L115" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>327</v>
+      </c>
       <c r="M115" s="1">
-        <v>16</v>
-      </c>
-      <c r="N115" s="1"/>
-      <c r="O115" s="5"/>
-      <c r="P115" s="1"/>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="1"/>
-      <c r="S115" s="1"/>
-      <c r="T115" s="1"/>
-      <c r="U115" s="1"/>
-      <c r="V115" s="1"/>
-      <c r="W115" s="1"/>
-      <c r="X115" s="1"/>
-      <c r="Y115" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="N115" s="1">
+        <v>190</v>
+      </c>
+      <c r="O115" s="1">
+        <v>128</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q115" s="1">
+        <v>256</v>
+      </c>
+      <c r="R115" s="1">
+        <v>400</v>
+      </c>
+      <c r="S115" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T115" s="1">
+        <v>256</v>
+      </c>
+      <c r="U115" s="1">
+        <v>25600</v>
+      </c>
+      <c r="V115" s="1">
+        <v>384</v>
+      </c>
+      <c r="W115" s="1">
+        <v>32</v>
+      </c>
+      <c r="X115" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y115" s="1">
+        <v>8000</v>
+      </c>
       <c r="Z115" s="1"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.25">
@@ -11740,13 +12076,13 @@
         <v>268</v>
       </c>
       <c r="B116" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>339</v>
@@ -11755,7 +12091,7 @@
         <v>320</v>
       </c>
       <c r="G116" s="14">
-        <v>823.44</v>
+        <v>205.86</v>
       </c>
       <c r="H116" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -11776,43 +12112,43 @@
         <v>327</v>
       </c>
       <c r="M116" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N116" s="1">
         <v>190</v>
       </c>
       <c r="O116" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="P116" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q116" s="1">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="R116" s="1">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S116" s="1">
-        <v>32000</v>
+        <v>6000</v>
       </c>
       <c r="T116" s="1">
-        <v>256</v>
+        <v>46</v>
       </c>
       <c r="U116" s="1">
-        <v>25600</v>
+        <v>6000</v>
       </c>
       <c r="V116" s="1">
-        <v>384</v>
+        <v>46</v>
       </c>
       <c r="W116" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="X116" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y116" s="1">
-        <v>8000</v>
+        <v>2000</v>
       </c>
       <c r="Z116" s="1"/>
     </row>
@@ -11821,13 +12157,13 @@
         <v>268</v>
       </c>
       <c r="B117" s="17" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>339</v>
@@ -11836,7 +12172,7 @@
         <v>320</v>
       </c>
       <c r="G117" s="14">
-        <v>102.93</v>
+        <v>205.86</v>
       </c>
       <c r="H117" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -11857,58 +12193,58 @@
         <v>327</v>
       </c>
       <c r="M117" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N117" s="1">
         <v>190</v>
       </c>
       <c r="O117" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P117" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q117" s="1">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R117" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S117" s="1">
-        <v>3000</v>
+        <v>6400</v>
       </c>
       <c r="T117" s="1">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="U117" s="1">
-        <v>3000</v>
+        <v>6400</v>
       </c>
       <c r="V117" s="1">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="W117" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X117" s="1">
         <v>2</v>
       </c>
       <c r="Y117" s="1">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B118" s="19" t="s">
-        <v>202</v>
+      <c r="B118" s="18" t="s">
+        <v>198</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>339</v>
@@ -11917,16 +12253,16 @@
         <v>320</v>
       </c>
       <c r="G118" s="14">
-        <v>1029.3</v>
+        <v>411.72</v>
       </c>
       <c r="H118" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.464999999999996</v>
+        <v>102.93</v>
       </c>
       <c r="I118" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.4331249999999995</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J118" s="13" t="s">
         <v>23</v>
@@ -11938,133 +12274,129 @@
         <v>327</v>
       </c>
       <c r="M118" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="N118" s="1">
         <v>190</v>
       </c>
       <c r="O118" s="1">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="P118" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q118" s="1">
-        <v>500</v>
+        <v>128</v>
       </c>
       <c r="R118" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S118" s="1">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="T118" s="1">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="U118" s="1">
-        <v>30000</v>
+        <v>12800</v>
       </c>
       <c r="V118" s="1">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="W118" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X118" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y118" s="1">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Z118" s="1"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>404</v>
+      </c>
+      <c r="C119" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="1"/>
+      <c r="E119" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="F119" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G119" s="14">
-        <v>1029.3</v>
-      </c>
-      <c r="H119" s="14">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.464999999999996</v>
+      <c r="G119" s="4">
+        <v>411.72</v>
+      </c>
+      <c r="H119" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
       </c>
       <c r="I119" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.4331249999999995</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J119" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L119" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M119" s="1">
-        <v>20</v>
+        <v>366</v>
+      </c>
+      <c r="L119" s="1"/>
+      <c r="M119" s="13">
+        <v>8</v>
       </c>
       <c r="N119" s="1">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="O119" s="1">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="P119" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q119" s="1">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="R119" s="1">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S119" s="1">
-        <v>40000</v>
+        <v>16000</v>
       </c>
       <c r="T119" s="1">
-        <v>320</v>
+        <v>128</v>
       </c>
       <c r="U119" s="1">
-        <v>32000</v>
+        <v>12800</v>
       </c>
       <c r="V119" s="1">
-        <v>480</v>
+        <v>192</v>
       </c>
       <c r="W119" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X119" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y119" s="1">
-        <v>10000</v>
+        <v>4000</v>
       </c>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B120" s="17" t="s">
-        <v>191</v>
+      <c r="B120" s="18" t="s">
+        <v>189</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>160</v>
@@ -12079,11 +12411,11 @@
         <v>320</v>
       </c>
       <c r="G120" s="14">
+        <v>823.44</v>
+      </c>
+      <c r="H120" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
         <v>102.93</v>
-      </c>
-      <c r="H120" s="14">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
       </c>
       <c r="I120" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -12100,58 +12432,58 @@
         <v>327</v>
       </c>
       <c r="M120" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N120" s="1">
         <v>190</v>
       </c>
       <c r="O120" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q120" s="1">
+        <v>256</v>
+      </c>
+      <c r="R120" s="1">
+        <v>400</v>
+      </c>
+      <c r="S120" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T120" s="1">
+        <v>256</v>
+      </c>
+      <c r="U120" s="1">
+        <v>25600</v>
+      </c>
+      <c r="V120" s="1">
+        <v>384</v>
+      </c>
+      <c r="W120" s="1">
         <v>32</v>
       </c>
-      <c r="R120" s="1">
-        <v>50</v>
-      </c>
-      <c r="S120" s="1">
-        <v>4000</v>
-      </c>
-      <c r="T120" s="1">
-        <v>32</v>
-      </c>
-      <c r="U120" s="1">
-        <v>3200</v>
-      </c>
-      <c r="V120" s="1">
-        <v>48</v>
-      </c>
-      <c r="W120" s="1">
-        <v>4</v>
-      </c>
       <c r="X120" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Y120" s="1">
-        <v>1000</v>
+        <v>8000</v>
       </c>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B121" s="17" t="s">
-        <v>204</v>
+      <c r="B121" s="18" t="s">
+        <v>192</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>339</v>
@@ -12164,7 +12496,7 @@
       </c>
       <c r="H121" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
+        <v>205.86</v>
       </c>
       <c r="I121" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -12181,7 +12513,7 @@
         <v>327</v>
       </c>
       <c r="M121" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N121" s="1">
         <v>190</v>
@@ -12193,22 +12525,22 @@
         <v>263</v>
       </c>
       <c r="Q121" s="1">
+        <v>512</v>
+      </c>
+      <c r="R121" s="1">
         <v>800</v>
       </c>
-      <c r="R121" s="1">
-        <v>0</v>
-      </c>
       <c r="S121" s="1">
-        <v>48000</v>
+        <v>64000</v>
       </c>
       <c r="T121" s="1">
-        <v>375</v>
+        <v>512</v>
       </c>
       <c r="U121" s="1">
-        <v>48000</v>
+        <v>51200</v>
       </c>
       <c r="V121" s="1">
-        <v>375</v>
+        <v>768</v>
       </c>
       <c r="W121" s="1">
         <v>32</v>
@@ -12225,14 +12557,14 @@
       <c r="A122" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B122" s="19" t="s">
-        <v>205</v>
+      <c r="B122" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E122" s="1" t="s">
         <v>339</v>
@@ -12241,11 +12573,11 @@
         <v>320</v>
       </c>
       <c r="G122" s="14">
-        <v>1646.88</v>
+        <v>411.72</v>
       </c>
       <c r="H122" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>102.93</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I122" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -12262,43 +12594,43 @@
         <v>327</v>
       </c>
       <c r="M122" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N122" s="1">
         <v>190</v>
       </c>
       <c r="O122" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P122" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q122" s="1">
-        <v>512</v>
+        <v>200</v>
       </c>
       <c r="R122" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S122" s="1">
-        <v>64000</v>
+        <v>12000</v>
       </c>
       <c r="T122" s="1">
-        <v>512</v>
+        <v>93</v>
       </c>
       <c r="U122" s="1">
-        <v>51200</v>
+        <v>12000</v>
       </c>
       <c r="V122" s="1">
-        <v>768</v>
+        <v>93</v>
       </c>
       <c r="W122" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X122" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y122" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Z122" s="1"/>
     </row>
@@ -12306,8 +12638,8 @@
       <c r="A123" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="18" t="s">
-        <v>192</v>
+      <c r="B123" s="17" t="s">
+        <v>199</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>160</v>
@@ -12322,11 +12654,11 @@
         <v>320</v>
       </c>
       <c r="G123" s="14">
-        <v>1646.88</v>
+        <v>411.72</v>
       </c>
       <c r="H123" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>205.86</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I123" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -12349,37 +12681,37 @@
         <v>190</v>
       </c>
       <c r="O123" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="P123" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q123" s="1">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="R123" s="1">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="S123" s="1">
-        <v>64000</v>
+        <v>16000</v>
       </c>
       <c r="T123" s="1">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="U123" s="1">
-        <v>51200</v>
+        <v>12800</v>
       </c>
       <c r="V123" s="1">
-        <v>768</v>
+        <v>192</v>
       </c>
       <c r="W123" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X123" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y123" s="1">
-        <v>16000</v>
+        <v>4000</v>
       </c>
       <c r="Z123" s="1"/>
     </row>
@@ -12388,13 +12720,13 @@
         <v>268</v>
       </c>
       <c r="B124" s="17" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E124" s="1" t="s">
         <v>339</v>
@@ -12403,7 +12735,7 @@
         <v>320</v>
       </c>
       <c r="G124" s="14">
-        <v>1646.88</v>
+        <v>823.44</v>
       </c>
       <c r="H124" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -12414,7 +12746,7 @@
 '[GB']]]</f>
         <v>6.4331250000000004</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K124" s="1" t="s">
@@ -12424,34 +12756,34 @@
         <v>327</v>
       </c>
       <c r="M124" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N124" s="1">
         <v>190</v>
       </c>
       <c r="O124" s="1">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="P124" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q124" s="1">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="R124" s="1">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="S124" s="1">
-        <v>64000</v>
+        <v>24000</v>
       </c>
       <c r="T124" s="1">
-        <v>512</v>
+        <v>187</v>
       </c>
       <c r="U124" s="1">
-        <v>51200</v>
+        <v>24000</v>
       </c>
       <c r="V124" s="1">
-        <v>768</v>
+        <v>187</v>
       </c>
       <c r="W124" s="1">
         <v>32</v>
@@ -12460,33 +12792,31 @@
         <v>8</v>
       </c>
       <c r="Y124" s="1">
-        <v>16000</v>
+        <v>8000</v>
       </c>
       <c r="Z124" s="1"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>193</v>
+        <v>400</v>
+      </c>
+      <c r="B125" s="19" t="s">
+        <v>377</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>159</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G125" s="14">
-        <v>205.86</v>
-      </c>
-      <c r="H125" s="14">
+      <c r="G125" s="2">
+        <v>823.44</v>
+      </c>
+      <c r="H125" s="15">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
         <v>51.465000000000003</v>
       </c>
@@ -12499,49 +12829,47 @@
         <v>23</v>
       </c>
       <c r="K125" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L125" s="12" t="s">
-        <v>327</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="L125" s="12"/>
       <c r="M125" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N125" s="1">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="O125" s="1">
+        <v>128</v>
+      </c>
+      <c r="P125" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>256</v>
+      </c>
+      <c r="R125" s="1">
+        <v>400</v>
+      </c>
+      <c r="S125" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T125" s="1">
+        <v>255</v>
+      </c>
+      <c r="U125" s="1">
+        <v>25600</v>
+      </c>
+      <c r="V125" s="1">
+        <v>384</v>
+      </c>
+      <c r="W125" s="1">
         <v>32</v>
       </c>
-      <c r="P125" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q125" s="1">
-        <v>100</v>
-      </c>
-      <c r="R125" s="1">
-        <v>0</v>
-      </c>
-      <c r="S125" s="1">
-        <v>6000</v>
-      </c>
-      <c r="T125" s="1">
-        <v>46</v>
-      </c>
-      <c r="U125" s="1">
-        <v>6000</v>
-      </c>
-      <c r="V125" s="1">
-        <v>46</v>
-      </c>
-      <c r="W125" s="1">
+      <c r="X125" s="1">
         <v>8</v>
       </c>
-      <c r="X125" s="1">
-        <v>2</v>
-      </c>
       <c r="Y125" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="Z125" s="1"/>
     </row>
@@ -12549,8 +12877,8 @@
       <c r="A126" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B126" s="18" t="s">
-        <v>194</v>
+      <c r="B126" s="17" t="s">
+        <v>201</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>160</v>
@@ -12565,11 +12893,11 @@
         <v>320</v>
       </c>
       <c r="G126" s="14">
-        <v>205.86</v>
+        <v>823.44</v>
       </c>
       <c r="H126" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>102.93</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I126" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -12586,58 +12914,58 @@
         <v>327</v>
       </c>
       <c r="M126" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N126" s="1">
         <v>190</v>
       </c>
       <c r="O126" s="1">
+        <v>128</v>
+      </c>
+      <c r="P126" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>256</v>
+      </c>
+      <c r="R126" s="1">
+        <v>400</v>
+      </c>
+      <c r="S126" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T126" s="1">
+        <v>256</v>
+      </c>
+      <c r="U126" s="1">
+        <v>25600</v>
+      </c>
+      <c r="V126" s="1">
+        <v>384</v>
+      </c>
+      <c r="W126" s="1">
         <v>32</v>
       </c>
-      <c r="P126" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q126" s="1">
-        <v>64</v>
-      </c>
-      <c r="R126" s="1">
-        <v>100</v>
-      </c>
-      <c r="S126" s="1">
-        <v>6400</v>
-      </c>
-      <c r="T126" s="1">
-        <v>64</v>
-      </c>
-      <c r="U126" s="1">
-        <v>6400</v>
-      </c>
-      <c r="V126" s="1">
-        <v>96</v>
-      </c>
-      <c r="W126" s="1">
+      <c r="X126" s="1">
         <v>8</v>
       </c>
-      <c r="X126" s="1">
-        <v>2</v>
-      </c>
       <c r="Y126" s="1">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B127" s="17" t="s">
-        <v>358</v>
+      <c r="B127" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E127" s="1" t="s">
         <v>339</v>
@@ -12646,11 +12974,11 @@
         <v>320</v>
       </c>
       <c r="G127" s="14">
-        <v>2470.3200000000002</v>
+        <v>1646.88</v>
       </c>
       <c r="H127" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
+        <v>102.93</v>
       </c>
       <c r="I127" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -12667,34 +12995,34 @@
         <v>327</v>
       </c>
       <c r="M127" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N127" s="1">
         <v>190</v>
       </c>
       <c r="O127" s="1">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="P127" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q127" s="1">
-        <v>1200</v>
+        <v>512</v>
       </c>
       <c r="R127" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S127" s="1">
-        <v>96000</v>
+        <v>64000</v>
       </c>
       <c r="T127" s="1">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="U127" s="1">
-        <v>96000</v>
+        <v>51200</v>
       </c>
       <c r="V127" s="1">
-        <v>500</v>
+        <v>768</v>
       </c>
       <c r="W127" s="1">
         <v>32</v>
@@ -12703,16 +13031,16 @@
         <v>8</v>
       </c>
       <c r="Y127" s="1">
-        <v>24000</v>
+        <v>16000</v>
       </c>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B128" s="17" t="s">
-        <v>359</v>
+      <c r="B128" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>160</v>
@@ -12727,16 +13055,16 @@
         <v>320</v>
       </c>
       <c r="G128" s="14">
-        <v>2470.3200000000002</v>
+        <v>2964.53</v>
       </c>
       <c r="H128" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
+        <v>185.28312500000001</v>
       </c>
       <c r="I128" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.4331250000000004</v>
+        <v>6.8623379629629637</v>
       </c>
       <c r="J128" s="13" t="s">
         <v>23</v>
@@ -12748,34 +13076,34 @@
         <v>327</v>
       </c>
       <c r="M128" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="N128" s="1">
         <v>190</v>
       </c>
       <c r="O128" s="1">
-        <v>384</v>
+        <v>432</v>
       </c>
       <c r="P128" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q128" s="1">
-        <v>768</v>
+        <v>864</v>
       </c>
       <c r="R128" s="1">
+        <v>1600</v>
+      </c>
+      <c r="S128" s="1">
+        <v>128000</v>
+      </c>
+      <c r="T128" s="1">
+        <v>1024</v>
+      </c>
+      <c r="U128" s="1">
+        <v>80000</v>
+      </c>
+      <c r="V128" s="1">
         <v>1200</v>
-      </c>
-      <c r="S128" s="1">
-        <v>96000</v>
-      </c>
-      <c r="T128" s="1">
-        <v>768</v>
-      </c>
-      <c r="U128" s="1">
-        <v>76800</v>
-      </c>
-      <c r="V128" s="1">
-        <v>1152</v>
       </c>
       <c r="W128" s="1">
         <v>32</v>
@@ -12784,7 +13112,7 @@
         <v>8</v>
       </c>
       <c r="Y128" s="1">
-        <v>24000</v>
+        <v>30000</v>
       </c>
       <c r="Z128" s="1"/>
     </row>
@@ -12792,14 +13120,14 @@
       <c r="A129" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B129" s="17" t="s">
-        <v>195</v>
+      <c r="B129" s="19" t="s">
+        <v>202</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E129" s="1" t="s">
         <v>339</v>
@@ -12808,16 +13136,16 @@
         <v>320</v>
       </c>
       <c r="G129" s="14">
-        <v>205.86</v>
+        <v>1029.3</v>
       </c>
       <c r="H129" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
+        <v>51.464999999999996</v>
       </c>
       <c r="I129" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.4331250000000004</v>
+        <v>6.4331249999999995</v>
       </c>
       <c r="J129" s="13" t="s">
         <v>23</v>
@@ -12829,43 +13157,43 @@
         <v>327</v>
       </c>
       <c r="M129" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="N129" s="1">
         <v>190</v>
       </c>
       <c r="O129" s="1">
+        <v>160</v>
+      </c>
+      <c r="P129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>500</v>
+      </c>
+      <c r="R129" s="1">
+        <v>0</v>
+      </c>
+      <c r="S129" s="1">
+        <v>30000</v>
+      </c>
+      <c r="T129" s="1">
+        <v>234</v>
+      </c>
+      <c r="U129" s="1">
+        <v>30000</v>
+      </c>
+      <c r="V129" s="1">
+        <v>234</v>
+      </c>
+      <c r="W129" s="1">
         <v>32</v>
       </c>
-      <c r="P129" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q129" s="1">
-        <v>64</v>
-      </c>
-      <c r="R129" s="1">
-        <v>100</v>
-      </c>
-      <c r="S129" s="1">
-        <v>6400</v>
-      </c>
-      <c r="T129" s="1">
-        <v>64</v>
-      </c>
-      <c r="U129" s="1">
-        <v>6400</v>
-      </c>
-      <c r="V129" s="1">
-        <v>96</v>
-      </c>
-      <c r="W129" s="1">
+      <c r="X129" s="1">
         <v>8</v>
       </c>
-      <c r="X129" s="1">
-        <v>2</v>
-      </c>
       <c r="Y129" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="Z129" s="1"/>
     </row>
@@ -12873,14 +13201,14 @@
       <c r="A130" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B130" s="17" t="s">
-        <v>207</v>
+      <c r="B130" s="19" t="s">
+        <v>203</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E130" s="1" t="s">
         <v>339</v>
@@ -12889,16 +13217,16 @@
         <v>320</v>
       </c>
       <c r="G130" s="14">
-        <v>2954.53</v>
+        <v>1029.3</v>
       </c>
       <c r="H130" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>46.164531250000003</v>
+        <v>51.464999999999996</v>
       </c>
       <c r="I130" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.8391898148148149</v>
+        <v>6.4331249999999995</v>
       </c>
       <c r="J130" s="13" t="s">
         <v>23</v>
@@ -12910,34 +13238,34 @@
         <v>327</v>
       </c>
       <c r="M130" s="1">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="N130" s="1">
         <v>190</v>
       </c>
       <c r="O130" s="1">
-        <v>432</v>
+        <v>160</v>
       </c>
       <c r="P130" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q130" s="1">
-        <v>1600</v>
+        <v>320</v>
       </c>
       <c r="R130" s="1">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S130" s="1">
-        <v>96000</v>
+        <v>40000</v>
       </c>
       <c r="T130" s="1">
-        <v>500</v>
+        <v>320</v>
       </c>
       <c r="U130" s="1">
-        <v>96000</v>
+        <v>32000</v>
       </c>
       <c r="V130" s="1">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="W130" s="1">
         <v>32</v>
@@ -12946,79 +13274,75 @@
         <v>8</v>
       </c>
       <c r="Y130" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Z130" s="1"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="C131" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="C131" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="1"/>
+      <c r="E131" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F131" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G131" s="14">
-        <v>2964.53</v>
-      </c>
-      <c r="H131" s="14">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>185.28312500000001</v>
+      <c r="G131" s="4">
+        <v>1029.3</v>
+      </c>
+      <c r="H131" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.464999999999996</v>
       </c>
       <c r="I131" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.8623379629629637</v>
+        <v>6.4331249999999995</v>
       </c>
       <c r="J131" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K131" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L131" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M131" s="1">
-        <v>16</v>
+        <v>366</v>
+      </c>
+      <c r="L131" s="1"/>
+      <c r="M131" s="13">
+        <v>20</v>
       </c>
       <c r="N131" s="1">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="O131" s="1">
-        <v>432</v>
+        <v>160</v>
       </c>
       <c r="P131" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q131" s="1">
-        <v>864</v>
+        <v>320</v>
       </c>
       <c r="R131" s="1">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="S131" s="1">
-        <v>128000</v>
+        <v>40000</v>
       </c>
       <c r="T131" s="1">
-        <v>1024</v>
+        <v>320</v>
       </c>
       <c r="U131" s="1">
-        <v>80000</v>
+        <v>32000</v>
       </c>
       <c r="V131" s="1">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="W131" s="1">
         <v>32</v>
@@ -13027,7 +13351,7 @@
         <v>8</v>
       </c>
       <c r="Y131" s="1">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="Z131" s="1"/>
     </row>
@@ -13035,14 +13359,14 @@
       <c r="A132" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="19" t="s">
-        <v>209</v>
+      <c r="B132" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>339</v>
@@ -13051,16 +13375,16 @@
         <v>320</v>
       </c>
       <c r="G132" s="14">
-        <v>2964.53</v>
+        <v>1646.88</v>
       </c>
       <c r="H132" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>92.641562500000006</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I132" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.8623379629629637</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J132" s="13" t="s">
         <v>23</v>
@@ -13078,28 +13402,28 @@
         <v>190</v>
       </c>
       <c r="O132" s="1">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q132" s="1">
-        <v>864</v>
+        <v>800</v>
       </c>
       <c r="R132" s="1">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="S132" s="1">
-        <v>128000</v>
+        <v>48000</v>
       </c>
       <c r="T132" s="1">
-        <v>1024</v>
+        <v>375</v>
       </c>
       <c r="U132" s="1">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="V132" s="1">
-        <v>1200</v>
+        <v>375</v>
       </c>
       <c r="W132" s="1">
         <v>32</v>
@@ -13108,7 +13432,7 @@
         <v>8</v>
       </c>
       <c r="Y132" s="1">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Z132" s="1"/>
     </row>
@@ -13117,13 +13441,13 @@
         <v>268</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E133" s="1" t="s">
         <v>339</v>
@@ -13132,16 +13456,16 @@
         <v>320</v>
       </c>
       <c r="G133" s="14">
-        <v>2964.53</v>
+        <v>1646.88</v>
       </c>
       <c r="H133" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>46.320781250000003</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I133" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.8623379629629637</v>
+        <v>6.4331250000000004</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>23</v>
@@ -13153,34 +13477,34 @@
         <v>327</v>
       </c>
       <c r="M133" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N133" s="1">
         <v>190</v>
       </c>
       <c r="O133" s="1">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q133" s="1">
-        <v>1600</v>
+        <v>512</v>
       </c>
       <c r="R133" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S133" s="1">
-        <v>96000</v>
+        <v>64000</v>
       </c>
       <c r="T133" s="1">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="U133" s="1">
-        <v>96000</v>
+        <v>51200</v>
       </c>
       <c r="V133" s="1">
-        <v>500</v>
+        <v>768</v>
       </c>
       <c r="W133" s="1">
         <v>32</v>
@@ -13189,18 +13513,16 @@
         <v>8</v>
       </c>
       <c r="Y133" s="1">
-        <v>30000</v>
-      </c>
-      <c r="Z133" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="134" spans="1:26" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+      <c r="Z133" s="1"/>
+    </row>
+    <row r="134" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B134" s="17" t="s">
-        <v>211</v>
+      <c r="B134" s="19" t="s">
+        <v>209</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>160</v>
@@ -13219,14 +13541,14 @@
       </c>
       <c r="H134" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>46.320781250000003</v>
+        <v>92.641562500000006</v>
       </c>
       <c r="I134" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
         <v>6.8623379629629637</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K134" s="1" t="s">
@@ -13236,7 +13558,7 @@
         <v>327</v>
       </c>
       <c r="M134" s="1">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="N134" s="1">
         <v>190</v>
@@ -13274,79 +13596,73 @@
       <c r="Y134" s="1">
         <v>30000</v>
       </c>
-      <c r="Z134" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="Z134" s="1"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="C135" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="D135" s="1"/>
+      <c r="E135" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="F135" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G135" s="14">
-        <v>2964.53</v>
-      </c>
-      <c r="H135" s="14">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>46.320781250000003</v>
+      <c r="G135" s="4">
+        <v>1646.88</v>
+      </c>
+      <c r="H135" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
       </c>
       <c r="I135" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.8623379629629637</v>
-      </c>
-      <c r="J135" s="1" t="s">
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J135" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K135" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L135" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M135" s="1">
-        <v>64</v>
+        <v>366</v>
+      </c>
+      <c r="L135" s="1"/>
+      <c r="M135" s="13">
+        <v>32</v>
       </c>
       <c r="N135" s="1">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="O135" s="1">
-        <v>432</v>
+        <v>256</v>
       </c>
       <c r="P135" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q135" s="1">
-        <v>864</v>
+        <v>512</v>
       </c>
       <c r="R135" s="1">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="S135" s="1">
-        <v>128000</v>
+        <v>64000</v>
       </c>
       <c r="T135" s="1">
-        <v>1024</v>
+        <v>510</v>
       </c>
       <c r="U135" s="1">
-        <v>80000</v>
+        <v>51200</v>
       </c>
       <c r="V135" s="1">
-        <v>1200</v>
+        <v>768</v>
       </c>
       <c r="W135" s="1">
         <v>32</v>
@@ -13355,7 +13671,7 @@
         <v>8</v>
       </c>
       <c r="Y135" s="1">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="Z135" s="1"/>
     </row>
@@ -13364,7 +13680,7 @@
         <v>268</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>196</v>
+        <v>358</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>159</v>
@@ -13379,7 +13695,7 @@
         <v>320</v>
       </c>
       <c r="G136" s="14">
-        <v>411.72</v>
+        <v>2470.3200000000002</v>
       </c>
       <c r="H136" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -13400,43 +13716,43 @@
         <v>327</v>
       </c>
       <c r="M136" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N136" s="1">
         <v>190</v>
       </c>
       <c r="O136" s="1">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="P136" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q136" s="1">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="R136" s="1">
         <v>0</v>
       </c>
       <c r="S136" s="1">
-        <v>12000</v>
+        <v>96000</v>
       </c>
       <c r="T136" s="1">
-        <v>93</v>
+        <v>500</v>
       </c>
       <c r="U136" s="1">
-        <v>12000</v>
+        <v>96000</v>
       </c>
       <c r="V136" s="1">
-        <v>93</v>
+        <v>500</v>
       </c>
       <c r="W136" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X136" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y136" s="1">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="Z136" s="1"/>
     </row>
@@ -13444,8 +13760,8 @@
       <c r="A137" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B137" s="18" t="s">
-        <v>197</v>
+      <c r="B137" s="17" t="s">
+        <v>359</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>160</v>
@@ -13460,11 +13776,11 @@
         <v>320</v>
       </c>
       <c r="G137" s="14">
-        <v>411.72</v>
+        <v>2470.3200000000002</v>
       </c>
       <c r="H137" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>205.86</v>
+        <v>51.465000000000003</v>
       </c>
       <c r="I137" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -13481,71 +13797,69 @@
         <v>327</v>
       </c>
       <c r="M137" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="N137" s="1">
         <v>190</v>
       </c>
       <c r="O137" s="1">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="P137" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q137" s="1">
-        <v>128</v>
+        <v>768</v>
       </c>
       <c r="R137" s="1">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="S137" s="1">
-        <v>16000</v>
+        <v>96000</v>
       </c>
       <c r="T137" s="1">
-        <v>128</v>
+        <v>768</v>
       </c>
       <c r="U137" s="1">
-        <v>12800</v>
+        <v>76800</v>
       </c>
       <c r="V137" s="1">
-        <v>192</v>
+        <v>1152</v>
       </c>
       <c r="W137" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X137" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y137" s="1">
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="Z137" s="1"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B138" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="C138" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>407</v>
+      </c>
+      <c r="C138" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F138" s="1" t="s">
+      <c r="D138" s="1"/>
+      <c r="E138" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="F138" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G138" s="14">
-        <v>411.72</v>
-      </c>
-      <c r="H138" s="14">
-        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>102.93</v>
+      <c r="G138" s="4">
+        <v>2470.3200000000002</v>
+      </c>
+      <c r="H138" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
       </c>
       <c r="I138" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
@@ -13556,50 +13870,34 @@
         <v>23</v>
       </c>
       <c r="K138" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L138" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="M138" s="1">
-        <v>4</v>
+        <v>366</v>
+      </c>
+      <c r="L138" s="1"/>
+      <c r="M138" s="13">
+        <v>48</v>
       </c>
       <c r="N138" s="1">
-        <v>190</v>
+        <v>260</v>
       </c>
       <c r="O138" s="1">
-        <v>64</v>
+        <v>384</v>
       </c>
       <c r="P138" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q138" s="1">
-        <v>128</v>
-      </c>
-      <c r="R138" s="1">
-        <v>200</v>
-      </c>
-      <c r="S138" s="1">
-        <v>16000</v>
-      </c>
-      <c r="T138" s="1">
-        <v>128</v>
-      </c>
-      <c r="U138" s="1">
-        <v>12800</v>
-      </c>
-      <c r="V138" s="1">
-        <v>192</v>
-      </c>
+        <v>768</v>
+      </c>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
       <c r="W138" s="1">
-        <v>16</v>
-      </c>
-      <c r="X138" s="1">
-        <v>4</v>
-      </c>
-      <c r="Y138" s="1">
-        <v>4000</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.25">
@@ -13607,13 +13905,13 @@
         <v>268</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E139" s="1" t="s">
         <v>339</v>
@@ -13622,16 +13920,16 @@
         <v>320</v>
       </c>
       <c r="G139" s="14">
-        <v>411.72</v>
+        <v>2954.53</v>
       </c>
       <c r="H139" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>51.465000000000003</v>
+        <v>46.164531250000003</v>
       </c>
       <c r="I139" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>6.4331250000000004</v>
+        <v>6.8391898148148149</v>
       </c>
       <c r="J139" s="13" t="s">
         <v>23</v>
@@ -13643,47 +13941,47 @@
         <v>327</v>
       </c>
       <c r="M139" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="N139" s="1">
         <v>190</v>
       </c>
       <c r="O139" s="1">
-        <v>64</v>
+        <v>432</v>
       </c>
       <c r="P139" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q139" s="1">
-        <v>128</v>
+        <v>1600</v>
       </c>
       <c r="R139" s="1">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S139" s="1">
-        <v>16000</v>
+        <v>96000</v>
       </c>
       <c r="T139" s="1">
-        <v>128</v>
+        <v>500</v>
       </c>
       <c r="U139" s="1">
-        <v>12800</v>
+        <v>96000</v>
       </c>
       <c r="V139" s="1">
-        <v>192</v>
+        <v>500</v>
       </c>
       <c r="W139" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X139" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y139" s="1">
-        <v>4000</v>
+        <v>30000</v>
       </c>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
@@ -13764,15 +14062,15 @@
       </c>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B141" s="17" t="s">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>159</v>
@@ -13784,16 +14082,16 @@
         <v>43</v>
       </c>
       <c r="G141" s="14">
-        <v>660.65</v>
+        <v>41.317999999999998</v>
       </c>
       <c r="H141" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.290624999999999</v>
+        <v>41.317999999999998</v>
       </c>
       <c r="I141" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.645312499999999</v>
+        <v>20.658999999999999</v>
       </c>
       <c r="J141" s="13" t="s">
         <v>23</v>
@@ -13805,52 +14103,52 @@
         <v>326</v>
       </c>
       <c r="M141" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N141" s="1">
         <v>250</v>
       </c>
       <c r="O141" s="1">
+        <v>2</v>
+      </c>
+      <c r="P141" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q141" s="1">
+        <v>4</v>
+      </c>
+      <c r="R141" s="1">
+        <v>12</v>
+      </c>
+      <c r="S141" s="1">
+        <v>4000</v>
+      </c>
+      <c r="T141" s="1">
         <v>32</v>
       </c>
-      <c r="P141" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q141" s="1">
-        <v>256</v>
-      </c>
-      <c r="R141" s="1">
-        <v>0</v>
-      </c>
-      <c r="S141" s="1">
-        <v>48000</v>
-      </c>
-      <c r="T141" s="1">
-        <v>23</v>
-      </c>
       <c r="U141" s="1">
-        <v>48000</v>
+        <v>3200</v>
       </c>
       <c r="V141" s="1">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="W141" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="X141" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y141" s="1">
-        <v>12000</v>
+        <v>750</v>
       </c>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B142" s="17" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>160</v>
@@ -13865,76 +14163,76 @@
         <v>43</v>
       </c>
       <c r="G142" s="14">
-        <v>660.65</v>
+        <v>70.08</v>
       </c>
       <c r="H142" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.290624999999999</v>
+        <v>35.04</v>
       </c>
       <c r="I142" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.645312499999999</v>
-      </c>
-      <c r="J142" s="13" t="s">
+        <v>17.52</v>
+      </c>
+      <c r="J142" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K142" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M142" s="1">
+        <v>2</v>
+      </c>
+      <c r="N142" s="1">
+        <v>210</v>
+      </c>
+      <c r="O142" s="1">
+        <v>4</v>
+      </c>
+      <c r="P142" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q142" s="1">
         <v>16</v>
       </c>
-      <c r="N142" s="1">
-        <v>250</v>
-      </c>
-      <c r="O142" s="1">
+      <c r="R142" s="1">
         <v>32</v>
       </c>
-      <c r="P142" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q142" s="1">
-        <v>64</v>
-      </c>
-      <c r="R142" s="1">
-        <v>192</v>
-      </c>
       <c r="S142" s="1">
-        <v>64000</v>
+        <v>4000</v>
       </c>
       <c r="T142" s="1">
-        <v>512</v>
+        <v>31</v>
       </c>
       <c r="U142" s="1">
-        <v>51200</v>
+        <v>3200</v>
       </c>
       <c r="V142" s="1">
-        <v>768</v>
+        <v>47</v>
       </c>
       <c r="W142" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="X142" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Y142" s="1">
-        <v>12000</v>
+        <v>875</v>
       </c>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B143" s="17" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>159</v>
@@ -13946,73 +14244,73 @@
         <v>43</v>
       </c>
       <c r="G143" s="14">
-        <v>560.64</v>
+        <v>82.49</v>
       </c>
       <c r="H143" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>35.04</v>
+        <v>41.244999999999997</v>
       </c>
       <c r="I143" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>17.52</v>
+        <v>20.622499999999999</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K143" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M143" s="1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N143" s="1">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O143" s="1">
+        <v>4</v>
+      </c>
+      <c r="P143" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q143" s="1">
         <v>32</v>
       </c>
-      <c r="P143" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q143" s="1">
-        <v>128</v>
-      </c>
       <c r="R143" s="1">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="S143" s="1">
-        <v>32000</v>
+        <v>6000</v>
       </c>
       <c r="T143" s="1">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="U143" s="1">
-        <v>25600</v>
+        <v>6000</v>
       </c>
       <c r="V143" s="1">
-        <v>380</v>
+        <v>46</v>
       </c>
       <c r="W143" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="X143" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Y143" s="1">
-        <v>7000</v>
+        <v>1500</v>
       </c>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B144" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>160</v>
@@ -14027,16 +14325,16 @@
         <v>43</v>
       </c>
       <c r="G144" s="14">
-        <v>41.317999999999998</v>
+        <v>82.49</v>
       </c>
       <c r="H144" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.317999999999998</v>
+        <v>41.244999999999997</v>
       </c>
       <c r="I144" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.658999999999999</v>
+        <v>20.622499999999999</v>
       </c>
       <c r="J144" s="13" t="s">
         <v>23</v>
@@ -14048,55 +14346,55 @@
         <v>326</v>
       </c>
       <c r="M144" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N144" s="1">
         <v>250</v>
       </c>
       <c r="O144" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P144" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q144" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R144" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="S144" s="1">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="T144" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="U144" s="1">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="V144" s="1">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="W144" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X144" s="1">
         <v>2</v>
       </c>
       <c r="Y144" s="1">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>159</v>
@@ -14108,34 +14406,34 @@
         <v>43</v>
       </c>
       <c r="G145" s="14">
-        <v>82.49</v>
+        <v>140.16</v>
       </c>
       <c r="H145" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.244999999999997</v>
+        <v>35.04</v>
       </c>
       <c r="I145" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.622499999999999</v>
-      </c>
-      <c r="J145" s="1" t="s">
+        <v>17.52</v>
+      </c>
+      <c r="J145" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L145" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M145" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N145" s="1">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O145" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P145" s="1" t="s">
         <v>263</v>
@@ -14144,19 +14442,19 @@
         <v>32</v>
       </c>
       <c r="R145" s="1">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="S145" s="1">
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="T145" s="1">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="U145" s="1">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="V145" s="1">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="W145" s="1">
         <v>8</v>
@@ -14165,19 +14463,19 @@
         <v>2</v>
       </c>
       <c r="Y145" s="1">
-        <v>1500</v>
+        <v>1750</v>
       </c>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>159</v>
@@ -14189,7 +14487,7 @@
         <v>43</v>
       </c>
       <c r="G146" s="14">
-        <v>82.49</v>
+        <v>164.98</v>
       </c>
       <c r="H146" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -14200,7 +14498,7 @@
 '[GB']]]</f>
         <v>20.622499999999999</v>
       </c>
-      <c r="J146" s="13" t="s">
+      <c r="J146" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K146" s="1" t="s">
@@ -14210,52 +14508,52 @@
         <v>326</v>
       </c>
       <c r="M146" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N146" s="1">
         <v>250</v>
       </c>
       <c r="O146" s="1">
+        <v>8</v>
+      </c>
+      <c r="P146" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q146" s="1">
+        <v>64</v>
+      </c>
+      <c r="R146" s="1">
+        <v>0</v>
+      </c>
+      <c r="S146" s="1">
+        <v>12000</v>
+      </c>
+      <c r="T146" s="1">
+        <v>93</v>
+      </c>
+      <c r="U146" s="1">
+        <v>12000</v>
+      </c>
+      <c r="V146" s="1">
+        <v>93</v>
+      </c>
+      <c r="W146" s="1">
+        <v>16</v>
+      </c>
+      <c r="X146" s="1">
         <v>4</v>
       </c>
-      <c r="P146" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q146" s="1">
-        <v>8</v>
-      </c>
-      <c r="R146" s="1">
-        <v>24</v>
-      </c>
-      <c r="S146" s="1">
-        <v>8000</v>
-      </c>
-      <c r="T146" s="1">
-        <v>64</v>
-      </c>
-      <c r="U146" s="1">
-        <v>6400</v>
-      </c>
-      <c r="V146" s="1">
-        <v>96</v>
-      </c>
-      <c r="W146" s="1">
-        <v>8</v>
-      </c>
-      <c r="X146" s="1">
-        <v>2</v>
-      </c>
       <c r="Y146" s="1">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>213</v>
+        <v>153</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>160</v>
@@ -14270,34 +14568,34 @@
         <v>43</v>
       </c>
       <c r="G147" s="14">
-        <v>70.08</v>
+        <v>164.98</v>
       </c>
       <c r="H147" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>35.04</v>
+        <v>41.244999999999997</v>
       </c>
       <c r="I147" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>17.52</v>
-      </c>
-      <c r="J147" s="1" t="s">
+        <v>20.622499999999999</v>
+      </c>
+      <c r="J147" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M147" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N147" s="1">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O147" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P147" s="1" t="s">
         <v>263</v>
@@ -14306,37 +14604,37 @@
         <v>16</v>
       </c>
       <c r="R147" s="1">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="S147" s="1">
-        <v>4000</v>
+        <v>16000</v>
       </c>
       <c r="T147" s="1">
-        <v>31</v>
+        <v>128</v>
       </c>
       <c r="U147" s="1">
-        <v>3200</v>
+        <v>12800</v>
       </c>
       <c r="V147" s="1">
-        <v>47</v>
+        <v>192</v>
       </c>
       <c r="W147" s="1">
+        <v>16</v>
+      </c>
+      <c r="X147" s="1">
         <v>4</v>
       </c>
-      <c r="X147" s="1">
-        <v>2</v>
-      </c>
       <c r="Y147" s="1">
-        <v>875</v>
+        <v>3000</v>
       </c>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>160</v>
@@ -14351,7 +14649,7 @@
         <v>43</v>
       </c>
       <c r="G148" s="14">
-        <v>1121.28</v>
+        <v>280.32</v>
       </c>
       <c r="H148" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -14372,52 +14670,52 @@
         <v>327</v>
       </c>
       <c r="M148" s="1">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="N148" s="1">
         <v>210</v>
       </c>
       <c r="O148" s="1">
+        <v>16</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q148" s="1">
         <v>64</v>
       </c>
-      <c r="P148" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q148" s="1">
-        <v>256</v>
-      </c>
       <c r="R148" s="1">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="S148" s="1">
-        <v>64000</v>
+        <v>16000</v>
       </c>
       <c r="T148" s="1">
-        <v>512</v>
+        <v>127</v>
       </c>
       <c r="U148" s="1">
-        <v>51200</v>
+        <v>12800</v>
       </c>
       <c r="V148" s="1">
-        <v>750</v>
+        <v>96</v>
       </c>
       <c r="W148" s="1">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="X148" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Y148" s="1">
-        <v>14000</v>
+        <v>3500</v>
       </c>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>159</v>
@@ -14432,7 +14730,7 @@
         <v>43</v>
       </c>
       <c r="G149" s="14">
-        <v>164.98</v>
+        <v>329.96</v>
       </c>
       <c r="H149" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -14453,52 +14751,52 @@
         <v>326</v>
       </c>
       <c r="M149" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N149" s="1">
         <v>250</v>
       </c>
       <c r="O149" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P149" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q149" s="1">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="R149" s="1">
         <v>0</v>
       </c>
       <c r="S149" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="T149" s="1">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="U149" s="1">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="V149" s="1">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="W149" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X149" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y149" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B150" s="17" t="s">
-        <v>357</v>
+        <v>154</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>160</v>
@@ -14513,55 +14811,55 @@
         <v>43</v>
       </c>
       <c r="G150" s="14">
-        <v>1681.92</v>
+        <v>329.96</v>
       </c>
       <c r="H150" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>35.04</v>
+        <v>41.244999999999997</v>
       </c>
       <c r="I150" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>35.04</v>
+        <v>20.622499999999999</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K150" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M150" s="1">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="N150" s="1">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O150" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P150" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q150" s="1">
+        <v>32</v>
+      </c>
+      <c r="R150" s="1">
+        <v>96</v>
+      </c>
+      <c r="S150" s="1">
+        <v>32000</v>
+      </c>
+      <c r="T150" s="1">
+        <v>256</v>
+      </c>
+      <c r="U150" s="1">
+        <v>25600</v>
+      </c>
+      <c r="V150" s="1">
         <v>384</v>
-      </c>
-      <c r="R150" s="1">
-        <v>768</v>
-      </c>
-      <c r="S150" s="1">
-        <v>96000</v>
-      </c>
-      <c r="T150" s="1">
-        <v>768</v>
-      </c>
-      <c r="U150" s="1">
-        <v>76800</v>
-      </c>
-      <c r="V150" s="1">
-        <v>1100</v>
       </c>
       <c r="W150" s="1">
         <v>32</v>
@@ -14570,16 +14868,16 @@
         <v>8</v>
       </c>
       <c r="Y150" s="1">
-        <v>21000</v>
+        <v>6000</v>
       </c>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B151" s="17" t="s">
-        <v>153</v>
+        <v>216</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>160</v>
@@ -14594,76 +14892,76 @@
         <v>43</v>
       </c>
       <c r="G151" s="14">
-        <v>164.98</v>
+        <v>560.64</v>
       </c>
       <c r="H151" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.244999999999997</v>
+        <v>35.04</v>
       </c>
       <c r="I151" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.622499999999999</v>
-      </c>
-      <c r="J151" s="13" t="s">
+        <v>17.52</v>
+      </c>
+      <c r="J151" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L151" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M151" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N151" s="1">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O151" s="1">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="P151" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q151" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="R151" s="1">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="S151" s="1">
-        <v>16000</v>
+        <v>32000</v>
       </c>
       <c r="T151" s="1">
-        <v>128</v>
+        <v>255</v>
       </c>
       <c r="U151" s="1">
-        <v>12800</v>
+        <v>25600</v>
       </c>
       <c r="V151" s="1">
-        <v>192</v>
+        <v>380</v>
       </c>
       <c r="W151" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X151" s="1">
         <v>4</v>
       </c>
       <c r="Y151" s="1">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B152" s="17" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>159</v>
@@ -14675,73 +14973,73 @@
         <v>43</v>
       </c>
       <c r="G152" s="14">
-        <v>140.16</v>
+        <v>660.65</v>
       </c>
       <c r="H152" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>35.04</v>
+        <v>41.290624999999999</v>
       </c>
       <c r="I152" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>17.52</v>
+        <v>20.645312499999999</v>
       </c>
       <c r="J152" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M152" s="1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N152" s="1">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="O152" s="1">
+        <v>32</v>
+      </c>
+      <c r="P152" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q152" s="1">
+        <v>256</v>
+      </c>
+      <c r="R152" s="1">
+        <v>0</v>
+      </c>
+      <c r="S152" s="1">
+        <v>48000</v>
+      </c>
+      <c r="T152" s="1">
+        <v>23</v>
+      </c>
+      <c r="U152" s="1">
+        <v>48000</v>
+      </c>
+      <c r="V152" s="1">
+        <v>23</v>
+      </c>
+      <c r="W152" s="1">
+        <v>64</v>
+      </c>
+      <c r="X152" s="1">
         <v>8</v>
       </c>
-      <c r="P152" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q152" s="1">
-        <v>32</v>
-      </c>
-      <c r="R152" s="1">
-        <v>64</v>
-      </c>
-      <c r="S152" s="1">
-        <v>8000</v>
-      </c>
-      <c r="T152" s="1">
-        <v>63</v>
-      </c>
-      <c r="U152" s="1">
-        <v>6400</v>
-      </c>
-      <c r="V152" s="1">
-        <v>95</v>
-      </c>
-      <c r="W152" s="1">
-        <v>8</v>
-      </c>
-      <c r="X152" s="1">
-        <v>2</v>
-      </c>
       <c r="Y152" s="1">
-        <v>1750</v>
+        <v>12000</v>
       </c>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>269</v>
+        <v>9</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>218</v>
+        <v>45</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>160</v>
@@ -14756,73 +15054,73 @@
         <v>43</v>
       </c>
       <c r="G153" s="14">
-        <v>2242.56</v>
+        <v>660.65</v>
       </c>
       <c r="H153" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>35.04</v>
+        <v>41.290624999999999</v>
       </c>
       <c r="I153" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>17.52</v>
-      </c>
-      <c r="J153" s="1" t="s">
+        <v>20.645312499999999</v>
+      </c>
+      <c r="J153" s="13" t="s">
         <v>23</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="L153" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M153" s="1">
+        <v>16</v>
+      </c>
+      <c r="N153" s="1">
+        <v>250</v>
+      </c>
+      <c r="O153" s="1">
+        <v>32</v>
+      </c>
+      <c r="P153" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q153" s="1">
         <v>64</v>
       </c>
-      <c r="N153" s="1">
-        <v>210</v>
-      </c>
-      <c r="O153" s="1">
-        <v>128</v>
-      </c>
-      <c r="P153" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q153" s="1">
+      <c r="R153" s="1">
+        <v>192</v>
+      </c>
+      <c r="S153" s="1">
+        <v>64000</v>
+      </c>
+      <c r="T153" s="1">
         <v>512</v>
       </c>
-      <c r="R153" s="1">
-        <v>1024</v>
-      </c>
-      <c r="S153" s="1">
-        <v>128000</v>
-      </c>
-      <c r="T153" s="1">
-        <v>1024</v>
-      </c>
       <c r="U153" s="1">
-        <v>80000</v>
+        <v>51200</v>
       </c>
       <c r="V153" s="1">
-        <v>1100</v>
+        <v>768</v>
       </c>
       <c r="W153" s="1">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="X153" s="1">
         <v>8</v>
       </c>
       <c r="Y153" s="1">
-        <v>28000</v>
+        <v>12000</v>
       </c>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>160</v>
@@ -14837,7 +15135,7 @@
         <v>43</v>
       </c>
       <c r="G154" s="14">
-        <v>2522.88</v>
+        <v>1121.28</v>
       </c>
       <c r="H154" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -14858,34 +15156,34 @@
         <v>327</v>
       </c>
       <c r="M154" s="1">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="N154" s="1">
         <v>210</v>
       </c>
       <c r="O154" s="1">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="P154" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q154" s="1">
-        <v>576</v>
+        <v>256</v>
       </c>
       <c r="R154" s="1">
-        <v>1520</v>
+        <v>512</v>
       </c>
       <c r="S154" s="1">
-        <v>144000</v>
+        <v>64000</v>
       </c>
       <c r="T154" s="1">
-        <v>1152</v>
+        <v>512</v>
       </c>
       <c r="U154" s="1">
-        <v>80000</v>
+        <v>51200</v>
       </c>
       <c r="V154" s="1">
-        <v>1100</v>
+        <v>750</v>
       </c>
       <c r="W154" s="1">
         <v>32</v>
@@ -14894,21 +15192,19 @@
         <v>8</v>
       </c>
       <c r="Y154" s="1">
-        <v>30000</v>
-      </c>
-      <c r="Z154" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="155" spans="1:26" x14ac:dyDescent="0.25">
+        <v>14000</v>
+      </c>
+      <c r="Z154" s="1"/>
+    </row>
+    <row r="155" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>158</v>
+        <v>357</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>159</v>
@@ -14920,55 +15216,55 @@
         <v>43</v>
       </c>
       <c r="G155" s="14">
-        <v>329.96</v>
+        <v>1681.92</v>
       </c>
       <c r="H155" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.244999999999997</v>
+        <v>35.04</v>
       </c>
       <c r="I155" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.622499999999999</v>
+        <v>35.04</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L155" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M155" s="1">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="N155" s="1">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O155" s="1">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P155" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q155" s="1">
-        <v>128</v>
+        <v>384</v>
       </c>
       <c r="R155" s="1">
-        <v>0</v>
+        <v>768</v>
       </c>
       <c r="S155" s="1">
-        <v>24000</v>
+        <v>96000</v>
       </c>
       <c r="T155" s="1">
-        <v>187</v>
+        <v>768</v>
       </c>
       <c r="U155" s="1">
-        <v>24000</v>
+        <v>76800</v>
       </c>
       <c r="V155" s="1">
-        <v>187</v>
+        <v>1100</v>
       </c>
       <c r="W155" s="1">
         <v>32</v>
@@ -14977,16 +15273,16 @@
         <v>8</v>
       </c>
       <c r="Y155" s="1">
-        <v>6000</v>
+        <v>21000</v>
       </c>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="B156" s="17" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>160</v>
@@ -15001,55 +15297,55 @@
         <v>43</v>
       </c>
       <c r="G156" s="14">
-        <v>329.96</v>
+        <v>2242.56</v>
       </c>
       <c r="H156" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
-        <v>41.244999999999997</v>
+        <v>35.04</v>
       </c>
       <c r="I156" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
 '[GB']]]</f>
-        <v>20.622499999999999</v>
+        <v>17.52</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M156" s="1">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="N156" s="1">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="O156" s="1">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="P156" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q156" s="1">
-        <v>32</v>
+        <v>512</v>
       </c>
       <c r="R156" s="1">
-        <v>96</v>
+        <v>1024</v>
       </c>
       <c r="S156" s="1">
-        <v>32000</v>
+        <v>128000</v>
       </c>
       <c r="T156" s="1">
-        <v>256</v>
+        <v>1024</v>
       </c>
       <c r="U156" s="1">
-        <v>25600</v>
+        <v>80000</v>
       </c>
       <c r="V156" s="1">
-        <v>384</v>
+        <v>1100</v>
       </c>
       <c r="W156" s="1">
         <v>32</v>
@@ -15058,16 +15354,16 @@
         <v>8</v>
       </c>
       <c r="Y156" s="1">
-        <v>6000</v>
+        <v>28000</v>
       </c>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B157" s="17" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>160</v>
@@ -15082,7 +15378,7 @@
         <v>43</v>
       </c>
       <c r="G157" s="14">
-        <v>280.32</v>
+        <v>2522.88</v>
       </c>
       <c r="H157" s="14">
         <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
@@ -15103,47 +15399,49 @@
         <v>327</v>
       </c>
       <c r="M157" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="N157" s="1">
         <v>210</v>
       </c>
       <c r="O157" s="1">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="P157" s="1" t="s">
         <v>263</v>
       </c>
       <c r="Q157" s="1">
-        <v>64</v>
+        <v>576</v>
       </c>
       <c r="R157" s="1">
-        <v>128</v>
+        <v>1520</v>
       </c>
       <c r="S157" s="1">
-        <v>16000</v>
+        <v>144000</v>
       </c>
       <c r="T157" s="1">
-        <v>127</v>
+        <v>1152</v>
       </c>
       <c r="U157" s="1">
-        <v>12800</v>
+        <v>80000</v>
       </c>
       <c r="V157" s="1">
-        <v>96</v>
+        <v>1100</v>
       </c>
       <c r="W157" s="1">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="X157" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Y157" s="1">
-        <v>3500</v>
-      </c>
-      <c r="Z157" s="1"/>
-    </row>
-    <row r="158" spans="1:26" x14ac:dyDescent="0.25">
+        <v>30000</v>
+      </c>
+      <c r="Z157" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>10</v>
       </c>
@@ -15224,7 +15522,7 @@
       </c>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>10</v>
       </c>
@@ -15305,7 +15603,7 @@
       </c>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>10</v>
       </c>
@@ -15386,7 +15684,7 @@
       </c>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>10</v>
       </c>
@@ -15467,7 +15765,7 @@
       </c>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>10</v>
       </c>
@@ -15550,7 +15848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>10</v>
       </c>
@@ -15631,7 +15929,7 @@
       </c>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>10</v>
       </c>
@@ -15712,7 +16010,7 @@
       </c>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>10</v>
       </c>
@@ -15793,7 +16091,7 @@
       </c>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>10</v>
       </c>
@@ -15874,7 +16172,7 @@
       </c>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>10</v>
       </c>
@@ -15955,7 +16253,7 @@
       </c>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>10</v>
       </c>
@@ -16036,7 +16334,7 @@
       </c>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
@@ -16119,7 +16417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>10</v>
       </c>
@@ -16202,7 +16500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>10</v>
       </c>
@@ -16285,7 +16583,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>11</v>
       </c>
@@ -16362,7 +16660,7 @@
       </c>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>11</v>
       </c>
@@ -16439,7 +16737,7 @@
       </c>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>11</v>
       </c>
@@ -16518,7 +16816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>11</v>
       </c>
@@ -16597,7 +16895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>11</v>
       </c>
@@ -16674,7 +16972,7 @@
       </c>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>11</v>
       </c>
@@ -16751,7 +17049,7 @@
       </c>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>332</v>
       </c>
@@ -16816,7 +17114,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>334</v>
       </c>
@@ -16881,7 +17179,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>27</v>
       </c>
@@ -16962,7 +17260,7 @@
       </c>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>296</v>
       </c>
@@ -17045,7 +17343,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>27</v>
       </c>
@@ -17128,7 +17426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>296</v>
       </c>
@@ -17211,7 +17509,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>296</v>
       </c>
@@ -17294,7 +17592,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>27</v>
       </c>
@@ -17375,7 +17673,7 @@
       </c>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>296</v>
       </c>
@@ -17458,7 +17756,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>296</v>
       </c>
@@ -17541,7 +17839,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>27</v>
       </c>
@@ -17622,7 +17920,7 @@
       </c>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>296</v>
       </c>
@@ -17705,7 +18003,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>26</v>
       </c>
@@ -17786,7 +18084,7 @@
       </c>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>26</v>
       </c>
@@ -17869,7 +18167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>26</v>
       </c>
@@ -17952,7 +18250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>26</v>
       </c>
@@ -18033,7 +18331,7 @@
       </c>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>26</v>
       </c>
@@ -18116,7 +18414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>26</v>
       </c>
@@ -18197,7 +18495,7 @@
       </c>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>26</v>
       </c>
@@ -18436,7 +18734,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="199" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>26</v>
       </c>
@@ -18517,7 +18815,7 @@
       </c>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>26</v>
       </c>
@@ -18598,7 +18896,7 @@
       </c>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>26</v>
       </c>
@@ -18679,7 +18977,7 @@
       </c>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>26</v>
       </c>
@@ -18760,7 +19058,7 @@
       </c>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>26</v>
       </c>
@@ -18841,7 +19139,7 @@
       </c>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>26</v>
       </c>
@@ -18922,7 +19220,7 @@
       </c>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>26</v>
       </c>
@@ -19003,7 +19301,7 @@
       </c>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>26</v>
       </c>
@@ -19084,7 +19382,7 @@
       </c>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>26</v>
       </c>
@@ -19165,7 +19463,7 @@
       </c>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>26</v>
       </c>
@@ -19246,7 +19544,7 @@
       </c>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>26</v>
       </c>
@@ -19327,7 +19625,7 @@
       </c>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>16</v>
       </c>
@@ -19400,7 +19698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>49</v>
       </c>
@@ -19471,7 +19769,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>83</v>
       </c>
@@ -19542,7 +19840,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="213" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>16</v>
       </c>
@@ -19615,7 +19913,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>49</v>
       </c>
@@ -19686,7 +19984,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="215" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>16</v>
       </c>
@@ -19759,7 +20057,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="216" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>49</v>
       </c>
@@ -19830,7 +20128,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="217" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>83</v>
       </c>
@@ -19901,7 +20199,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="218" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>83</v>
       </c>
@@ -19972,7 +20270,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="219" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>16</v>
       </c>
@@ -20045,7 +20343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>49</v>
       </c>
@@ -20116,7 +20414,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>83</v>
       </c>
@@ -20187,7 +20485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="222" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>73</v>
       </c>
@@ -20258,7 +20556,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="223" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>73</v>
       </c>
@@ -20329,7 +20627,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="224" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>73</v>
       </c>
@@ -20400,7 +20698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="225" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>308</v>
       </c>
@@ -20469,7 +20767,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="226" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>73</v>
       </c>
@@ -20540,7 +20838,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>12</v>
       </c>
@@ -20611,7 +20909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>289</v>
       </c>
@@ -20678,7 +20976,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="229" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>340</v>
       </c>
@@ -20743,10 +21041,10 @@
     </row>
     <row r="230" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B230" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>160</v>
@@ -20767,7 +21065,7 @@
       </c>
       <c r="J230" s="1"/>
       <c r="K230" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L230" s="1"/>
       <c r="M230" s="1">
@@ -20790,10 +21088,10 @@
         <v>50000</v>
       </c>
       <c r="Z230" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="231" spans="1:26" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>12</v>
       </c>
@@ -20864,7 +21162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>289</v>
       </c>
@@ -20931,7 +21229,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="233" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>340</v>
       </c>
@@ -20996,10 +21294,10 @@
     </row>
     <row r="234" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>160</v>
@@ -21020,7 +21318,7 @@
       </c>
       <c r="J234" s="1"/>
       <c r="K234" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L234" s="1"/>
       <c r="M234" s="1">
@@ -21043,10 +21341,10 @@
         <v>50000</v>
       </c>
       <c r="Z234" s="1" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="235" spans="1:26" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="235" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>340</v>
       </c>
@@ -21111,10 +21409,10 @@
     </row>
     <row r="236" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B236" s="19" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>160</v>
@@ -21135,7 +21433,7 @@
       </c>
       <c r="J236" s="1"/>
       <c r="K236" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L236" s="12"/>
       <c r="M236" s="1">
@@ -21158,10 +21456,10 @@
         <v>50000</v>
       </c>
       <c r="Z236" s="1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="237" spans="1:26" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="237" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>12</v>
       </c>
@@ -21232,7 +21530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>289</v>
       </c>
@@ -21301,10 +21599,10 @@
     </row>
     <row r="239" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B239" s="19" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>160</v>
@@ -21325,7 +21623,7 @@
       </c>
       <c r="J239" s="1"/>
       <c r="K239" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L239" s="12"/>
       <c r="M239" s="1">
@@ -21348,10 +21646,10 @@
         <v>50000</v>
       </c>
       <c r="Z239" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="240" spans="1:26" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>95</v>
       </c>
@@ -21416,7 +21714,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="241" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>95</v>
       </c>
@@ -21481,7 +21779,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="242" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>95</v>
       </c>
@@ -21546,7 +21844,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="243" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>95</v>
       </c>
@@ -21611,7 +21909,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="244" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>95</v>
       </c>
@@ -21676,7 +21974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="245" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>95</v>
       </c>
@@ -21741,7 +22039,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="246" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>95</v>
       </c>
@@ -21806,7 +22104,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>95</v>
       </c>
@@ -21871,7 +22169,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>95</v>
       </c>
@@ -21936,285 +22234,1223 @@
         <v>104</v>
       </c>
     </row>
-    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
-      <c r="B249" s="17"/>
-      <c r="C249" s="1"/>
+    <row r="249" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B249" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D249" s="1"/>
-      <c r="E249" s="1"/>
-      <c r="F249" s="1"/>
-      <c r="G249" s="4"/>
-      <c r="H249" s="4"/>
-      <c r="I249" s="4"/>
-      <c r="J249" s="1"/>
-      <c r="K249" s="1"/>
+      <c r="E249" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G249" s="4">
+        <v>1029.3</v>
+      </c>
+      <c r="H249" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.464999999999996</v>
+      </c>
+      <c r="I249" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331249999999995</v>
+      </c>
+      <c r="J249" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L249" s="1"/>
-      <c r="M249" s="1"/>
-      <c r="N249" s="1"/>
-      <c r="O249" s="1"/>
-      <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
+      <c r="M249" s="1">
+        <v>20</v>
+      </c>
+      <c r="N249" s="1">
+        <v>260</v>
+      </c>
+      <c r="O249" s="1">
+        <v>160</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q249" s="1">
+        <v>500</v>
+      </c>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
       <c r="T249" s="1"/>
       <c r="U249" s="1"/>
       <c r="V249" s="1"/>
-      <c r="W249" s="1"/>
-      <c r="X249" s="1"/>
-      <c r="Y249" s="1"/>
+      <c r="W249" s="1">
+        <v>32</v>
+      </c>
+      <c r="X249" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y249" s="1">
+        <v>10000</v>
+      </c>
       <c r="Z249" s="1"/>
     </row>
     <row r="250" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A250" s="1"/>
-      <c r="B250" s="17"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="1"/>
-      <c r="F250" s="1"/>
-      <c r="G250" s="4"/>
-      <c r="H250" s="4"/>
-      <c r="I250" s="4"/>
-      <c r="J250" s="1"/>
-      <c r="K250" s="1"/>
-      <c r="L250" s="1"/>
-      <c r="M250" s="1"/>
-      <c r="N250" s="1"/>
-      <c r="O250" s="1"/>
-      <c r="P250" s="1"/>
-      <c r="Q250" s="1"/>
-      <c r="R250" s="1"/>
-      <c r="S250" s="1"/>
-      <c r="T250" s="1"/>
-      <c r="U250" s="1"/>
-      <c r="V250" s="1"/>
-      <c r="W250" s="1"/>
-      <c r="X250" s="1"/>
-      <c r="Y250" s="1"/>
-      <c r="Z250" s="1"/>
-    </row>
-    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="17"/>
-      <c r="C251" s="1"/>
+      <c r="A250" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B250" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G250" s="14">
+        <v>2964.53</v>
+      </c>
+      <c r="H250" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>46.320781250000003</v>
+      </c>
+      <c r="I250" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.8623379629629637</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L250" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="M250" s="1">
+        <v>64</v>
+      </c>
+      <c r="N250" s="1">
+        <v>190</v>
+      </c>
+      <c r="O250" s="1">
+        <v>432</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q250" s="1">
+        <v>1600</v>
+      </c>
+      <c r="R250" s="1">
+        <v>0</v>
+      </c>
+      <c r="S250" s="1">
+        <v>96000</v>
+      </c>
+      <c r="T250" s="1">
+        <v>500</v>
+      </c>
+      <c r="U250" s="1">
+        <v>96000</v>
+      </c>
+      <c r="V250" s="1">
+        <v>500</v>
+      </c>
+      <c r="W250" s="1">
+        <v>32</v>
+      </c>
+      <c r="X250" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y250" s="1">
+        <v>30000</v>
+      </c>
+      <c r="Z250" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="251" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B251" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D251" s="1"/>
-      <c r="E251" s="1"/>
-      <c r="F251" s="1"/>
-      <c r="G251" s="4"/>
-      <c r="H251" s="4"/>
-      <c r="I251" s="4"/>
-      <c r="J251" s="1"/>
-      <c r="K251" s="1"/>
+      <c r="E251" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G251" s="15">
+        <v>1249.76</v>
+      </c>
+      <c r="H251" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.055</v>
+      </c>
+      <c r="I251" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7637499999999999</v>
+      </c>
+      <c r="J251" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L251" s="1"/>
-      <c r="M251" s="1"/>
-      <c r="N251" s="1"/>
-      <c r="O251" s="1"/>
-      <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
+      <c r="M251" s="1">
+        <v>32</v>
+      </c>
+      <c r="N251" s="1">
+        <v>260</v>
+      </c>
+      <c r="O251" s="1">
+        <v>128</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q251" s="1">
+        <v>800</v>
+      </c>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
       <c r="T251" s="1"/>
       <c r="U251" s="1"/>
       <c r="V251" s="1"/>
-      <c r="W251" s="1"/>
-      <c r="X251" s="1"/>
-      <c r="Y251" s="1"/>
+      <c r="W251" s="1">
+        <v>32</v>
+      </c>
+      <c r="X251" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y251" s="1">
+        <v>16000</v>
+      </c>
       <c r="Z251" s="1"/>
     </row>
-    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="17"/>
-      <c r="C252" s="1"/>
+    <row r="252" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B252" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D252" s="1"/>
-      <c r="E252" s="1"/>
-      <c r="F252" s="1"/>
-      <c r="G252" s="4"/>
-      <c r="H252" s="4"/>
-      <c r="I252" s="4"/>
-      <c r="J252" s="1"/>
-      <c r="K252" s="1"/>
+      <c r="E252" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G252" s="15">
+        <v>1249.76</v>
+      </c>
+      <c r="H252" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.055</v>
+      </c>
+      <c r="I252" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7637499999999999</v>
+      </c>
+      <c r="J252" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L252" s="1"/>
-      <c r="M252" s="1"/>
-      <c r="N252" s="1"/>
-      <c r="O252" s="1"/>
-      <c r="P252" s="1"/>
-      <c r="Q252" s="1"/>
-      <c r="R252" s="1"/>
-      <c r="S252" s="1"/>
-      <c r="T252" s="1"/>
-      <c r="U252" s="1"/>
-      <c r="V252" s="1"/>
-      <c r="W252" s="1"/>
-      <c r="X252" s="1"/>
-      <c r="Y252" s="1"/>
+      <c r="M252" s="1">
+        <v>32</v>
+      </c>
+      <c r="N252" s="1">
+        <v>260</v>
+      </c>
+      <c r="O252" s="1">
+        <v>128</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q252" s="1">
+        <v>256</v>
+      </c>
+      <c r="R252" s="1">
+        <v>800</v>
+      </c>
+      <c r="S252" s="1">
+        <v>64000</v>
+      </c>
+      <c r="T252" s="1">
+        <v>510</v>
+      </c>
+      <c r="U252" s="1">
+        <v>51200</v>
+      </c>
+      <c r="V252" s="1">
+        <v>768</v>
+      </c>
+      <c r="W252" s="1">
+        <v>32</v>
+      </c>
+      <c r="X252" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y252" s="1">
+        <v>16000</v>
+      </c>
       <c r="Z252" s="1"/>
     </row>
-    <row r="253" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="17"/>
-      <c r="C253" s="1"/>
+    <row r="253" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B253" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-      <c r="F253" s="1"/>
-      <c r="G253" s="4"/>
-      <c r="H253" s="4"/>
-      <c r="I253" s="4"/>
-      <c r="J253" s="1"/>
-      <c r="K253" s="1"/>
+      <c r="E253" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G253" s="4">
+        <v>1646.88</v>
+      </c>
+      <c r="H253" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I253" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J253" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L253" s="1"/>
-      <c r="M253" s="1"/>
-      <c r="N253" s="1"/>
-      <c r="O253" s="1"/>
-      <c r="P253" s="1"/>
-      <c r="Q253" s="1"/>
+      <c r="M253" s="1">
+        <v>32</v>
+      </c>
+      <c r="N253" s="1">
+        <v>260</v>
+      </c>
+      <c r="O253" s="1">
+        <v>256</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q253" s="1">
+        <v>800</v>
+      </c>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
       <c r="T253" s="1"/>
       <c r="U253" s="1"/>
       <c r="V253" s="1"/>
-      <c r="W253" s="1"/>
-      <c r="X253" s="1"/>
-      <c r="Y253" s="1"/>
+      <c r="W253" s="1">
+        <v>32</v>
+      </c>
+      <c r="X253" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y253" s="1">
+        <v>16000</v>
+      </c>
       <c r="Z253" s="1"/>
     </row>
     <row r="254" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="17"/>
-      <c r="C254" s="1"/>
-      <c r="D254" s="1"/>
-      <c r="E254" s="1"/>
-      <c r="F254" s="1"/>
-      <c r="G254" s="4"/>
-      <c r="H254" s="4"/>
-      <c r="I254" s="4"/>
-      <c r="J254" s="1"/>
-      <c r="K254" s="1"/>
-      <c r="L254" s="1"/>
-      <c r="M254" s="1"/>
-      <c r="N254" s="1"/>
-      <c r="O254" s="1"/>
-      <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-      <c r="R254" s="1"/>
-      <c r="S254" s="1"/>
-      <c r="T254" s="1"/>
-      <c r="U254" s="1"/>
-      <c r="V254" s="1"/>
-      <c r="W254" s="1"/>
-      <c r="X254" s="1"/>
-      <c r="Y254" s="1"/>
-      <c r="Z254" s="1"/>
-    </row>
-    <row r="255" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="17"/>
-      <c r="C255" s="1"/>
+      <c r="A254" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B254" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G254" s="14">
+        <v>2964.53</v>
+      </c>
+      <c r="H254" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>46.320781250000003</v>
+      </c>
+      <c r="I254" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.8623379629629637</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L254" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="M254" s="1">
+        <v>64</v>
+      </c>
+      <c r="N254" s="1">
+        <v>190</v>
+      </c>
+      <c r="O254" s="1">
+        <v>432</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q254" s="1">
+        <v>864</v>
+      </c>
+      <c r="R254" s="1">
+        <v>1600</v>
+      </c>
+      <c r="S254" s="1">
+        <v>128000</v>
+      </c>
+      <c r="T254" s="1">
+        <v>1024</v>
+      </c>
+      <c r="U254" s="1">
+        <v>80000</v>
+      </c>
+      <c r="V254" s="1">
+        <v>1200</v>
+      </c>
+      <c r="W254" s="1">
+        <v>32</v>
+      </c>
+      <c r="X254" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y254" s="1">
+        <v>30000</v>
+      </c>
+      <c r="Z254" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B255" s="17" t="s">
+        <v>393</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D255" s="1"/>
-      <c r="E255" s="1"/>
-      <c r="F255" s="1"/>
-      <c r="G255" s="4"/>
-      <c r="H255" s="4"/>
-      <c r="I255" s="4"/>
-      <c r="J255" s="1"/>
-      <c r="K255" s="1"/>
+      <c r="E255" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G255" s="15">
+        <v>1874.64</v>
+      </c>
+      <c r="H255" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.055</v>
+      </c>
+      <c r="I255" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7637499999999999</v>
+      </c>
+      <c r="J255" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L255" s="1"/>
-      <c r="M255" s="1"/>
-      <c r="N255" s="1"/>
-      <c r="O255" s="1"/>
-      <c r="P255" s="1"/>
-      <c r="Q255" s="1"/>
+      <c r="M255" s="1">
+        <v>48</v>
+      </c>
+      <c r="N255" s="1">
+        <v>260</v>
+      </c>
+      <c r="O255" s="1">
+        <v>192</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q255" s="1">
+        <v>1200</v>
+      </c>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
       <c r="T255" s="1"/>
       <c r="U255" s="1"/>
       <c r="V255" s="1"/>
-      <c r="W255" s="1"/>
+      <c r="W255" s="1">
+        <v>32</v>
+      </c>
       <c r="X255" s="1"/>
       <c r="Y255" s="1"/>
       <c r="Z255" s="1"/>
     </row>
-    <row r="256" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A256" s="1"/>
-      <c r="B256" s="17"/>
-      <c r="C256" s="1"/>
+    <row r="256" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>394</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D256" s="1"/>
-      <c r="E256" s="1"/>
-      <c r="F256" s="1"/>
-      <c r="G256" s="4"/>
-      <c r="H256" s="4"/>
-      <c r="I256" s="4"/>
-      <c r="J256" s="1"/>
-      <c r="K256" s="1"/>
+      <c r="E256" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G256" s="15">
+        <v>1874.64</v>
+      </c>
+      <c r="H256" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.055</v>
+      </c>
+      <c r="I256" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7637499999999999</v>
+      </c>
+      <c r="J256" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L256" s="1"/>
-      <c r="M256" s="1"/>
-      <c r="N256" s="1"/>
-      <c r="O256" s="1"/>
-      <c r="P256" s="1"/>
-      <c r="Q256" s="1"/>
+      <c r="M256" s="1">
+        <v>48</v>
+      </c>
+      <c r="N256" s="1">
+        <v>260</v>
+      </c>
+      <c r="O256" s="1">
+        <v>192</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q256" s="1">
+        <v>384</v>
+      </c>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
       <c r="T256" s="1"/>
       <c r="U256" s="1"/>
       <c r="V256" s="1"/>
-      <c r="W256" s="1"/>
+      <c r="W256" s="1">
+        <v>32</v>
+      </c>
       <c r="X256" s="1"/>
       <c r="Y256" s="1"/>
       <c r="Z256" s="1"/>
     </row>
-    <row r="257" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A257" s="1"/>
-      <c r="B257" s="17"/>
-      <c r="C257" s="1"/>
+    <row r="257" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B257" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D257" s="1"/>
-      <c r="E257" s="1"/>
-      <c r="F257" s="1"/>
-      <c r="G257" s="4"/>
-      <c r="H257" s="4"/>
-      <c r="I257" s="4"/>
-      <c r="J257" s="1"/>
-      <c r="K257" s="1"/>
+      <c r="E257" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G257" s="4">
+        <v>2470.3200000000002</v>
+      </c>
+      <c r="H257" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I257" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J257" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="L257" s="1"/>
-      <c r="M257" s="1"/>
-      <c r="N257" s="1"/>
-      <c r="O257" s="1"/>
-      <c r="P257" s="1"/>
-      <c r="Q257" s="1"/>
+      <c r="M257" s="1">
+        <v>48</v>
+      </c>
+      <c r="N257" s="1">
+        <v>260</v>
+      </c>
+      <c r="O257" s="1">
+        <v>384</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q257" s="1">
+        <v>1200</v>
+      </c>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
       <c r="T257" s="1"/>
       <c r="U257" s="1"/>
       <c r="V257" s="1"/>
-      <c r="W257" s="1"/>
+      <c r="W257" s="1">
+        <v>32</v>
+      </c>
       <c r="X257" s="1"/>
       <c r="Y257" s="1"/>
       <c r="Z257" s="1"/>
     </row>
     <row r="258" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="17"/>
-      <c r="C258" s="1"/>
-      <c r="D258" s="1"/>
-      <c r="E258" s="1"/>
-      <c r="F258" s="1"/>
-      <c r="G258" s="4"/>
-      <c r="H258" s="4"/>
-      <c r="I258" s="4"/>
-      <c r="J258" s="1"/>
-      <c r="K258" s="1"/>
-      <c r="L258" s="1"/>
-      <c r="M258" s="1"/>
-      <c r="N258" s="1"/>
-      <c r="O258" s="1"/>
-      <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
-      <c r="R258" s="1"/>
-      <c r="S258" s="1"/>
-      <c r="T258" s="1"/>
-      <c r="U258" s="1"/>
-      <c r="V258" s="1"/>
-      <c r="W258" s="1"/>
-      <c r="X258" s="1"/>
-      <c r="Y258" s="1"/>
+      <c r="A258" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B258" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G258" s="14">
+        <v>2964.53</v>
+      </c>
+      <c r="H258" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>46.320781250000003</v>
+      </c>
+      <c r="I258" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.8623379629629637</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L258" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="M258" s="1">
+        <v>64</v>
+      </c>
+      <c r="N258" s="1">
+        <v>190</v>
+      </c>
+      <c r="O258" s="1">
+        <v>432</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q258" s="1">
+        <v>864</v>
+      </c>
+      <c r="R258" s="1">
+        <v>1600</v>
+      </c>
+      <c r="S258" s="1">
+        <v>128000</v>
+      </c>
+      <c r="T258" s="1">
+        <v>1024</v>
+      </c>
+      <c r="U258" s="1">
+        <v>80000</v>
+      </c>
+      <c r="V258" s="1">
+        <v>1200</v>
+      </c>
+      <c r="W258" s="1">
+        <v>32</v>
+      </c>
+      <c r="X258" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y258" s="1">
+        <v>30000</v>
+      </c>
       <c r="Z258" s="1"/>
+    </row>
+    <row r="259" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B259" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="C259" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D259" s="1"/>
+      <c r="E259" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F259" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G259" s="15">
+        <v>2499.52</v>
+      </c>
+      <c r="H259" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.055</v>
+      </c>
+      <c r="I259" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7637499999999999</v>
+      </c>
+      <c r="J259" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L259" s="1"/>
+      <c r="M259" s="24">
+        <v>64</v>
+      </c>
+      <c r="N259" s="1">
+        <v>260</v>
+      </c>
+      <c r="O259" s="1">
+        <v>256</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q259" s="1">
+        <v>1600</v>
+      </c>
+      <c r="R259" s="1"/>
+      <c r="S259" s="1"/>
+      <c r="T259" s="1"/>
+      <c r="U259" s="1"/>
+      <c r="V259" s="1"/>
+      <c r="W259" s="1">
+        <v>32</v>
+      </c>
+      <c r="X259" s="1"/>
+      <c r="Y259" s="1"/>
+      <c r="Z259" s="1"/>
+    </row>
+    <row r="260" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B260" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="C260" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D260" s="1"/>
+      <c r="E260" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F260" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G260" s="15">
+        <v>2499.52</v>
+      </c>
+      <c r="H260" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.055</v>
+      </c>
+      <c r="I260" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7637499999999999</v>
+      </c>
+      <c r="J260" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L260" s="1"/>
+      <c r="M260" s="24">
+        <v>64</v>
+      </c>
+      <c r="N260" s="1">
+        <v>260</v>
+      </c>
+      <c r="O260" s="1">
+        <v>256</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q260" s="1">
+        <v>512</v>
+      </c>
+      <c r="R260" s="1"/>
+      <c r="S260" s="1"/>
+      <c r="T260" s="1"/>
+      <c r="U260" s="1"/>
+      <c r="V260" s="1"/>
+      <c r="W260" s="1">
+        <v>32</v>
+      </c>
+      <c r="X260" s="1"/>
+      <c r="Y260" s="1"/>
+      <c r="Z260" s="1"/>
+    </row>
+    <row r="261" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B261" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="C261" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D261" s="1"/>
+      <c r="E261" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F261" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G261" s="4">
+        <v>3293.76</v>
+      </c>
+      <c r="H261" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I261" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J261" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L261" s="1"/>
+      <c r="M261" s="24">
+        <v>64</v>
+      </c>
+      <c r="N261" s="1">
+        <v>260</v>
+      </c>
+      <c r="O261" s="1">
+        <v>512</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q261" s="1">
+        <v>1600</v>
+      </c>
+      <c r="R261" s="1"/>
+      <c r="S261" s="1"/>
+      <c r="T261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="1"/>
+      <c r="W261" s="1">
+        <v>32</v>
+      </c>
+      <c r="X261" s="1"/>
+      <c r="Y261" s="1"/>
+      <c r="Z261" s="1"/>
+    </row>
+    <row r="262" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B262" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="C262" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D262" s="1"/>
+      <c r="E262" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F262" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G262" s="4">
+        <v>3293.76</v>
+      </c>
+      <c r="H262" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I262" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>6.4331250000000004</v>
+      </c>
+      <c r="J262" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L262" s="1"/>
+      <c r="M262" s="24">
+        <v>64</v>
+      </c>
+      <c r="N262" s="1">
+        <v>260</v>
+      </c>
+      <c r="O262" s="1">
+        <v>512</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q262" s="1">
+        <v>1024</v>
+      </c>
+      <c r="R262" s="1"/>
+      <c r="S262" s="1"/>
+      <c r="T262" s="1"/>
+      <c r="U262" s="1"/>
+      <c r="V262" s="1"/>
+      <c r="W262" s="1">
+        <v>32</v>
+      </c>
+      <c r="X262" s="1"/>
+      <c r="Y262" s="1"/>
+      <c r="Z262" s="1"/>
+    </row>
+    <row r="263" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B263" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="C263" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D263" s="1"/>
+      <c r="E263" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F263" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G263" s="4">
+        <v>3748.28</v>
+      </c>
+      <c r="H263" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.044583333333335</v>
+      </c>
+      <c r="I263" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7611458333333339</v>
+      </c>
+      <c r="J263" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L263" s="1"/>
+      <c r="M263" s="24">
+        <v>96</v>
+      </c>
+      <c r="N263" s="1">
+        <v>260</v>
+      </c>
+      <c r="O263" s="1">
+        <v>384</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q263" s="1">
+        <v>2400</v>
+      </c>
+      <c r="R263" s="1"/>
+      <c r="S263" s="1"/>
+      <c r="T263" s="1"/>
+      <c r="U263" s="1"/>
+      <c r="V263" s="1"/>
+      <c r="W263" s="1">
+        <v>32</v>
+      </c>
+      <c r="X263" s="1"/>
+      <c r="Y263" s="1"/>
+      <c r="Z263" s="1"/>
+    </row>
+    <row r="264" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B264" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="C264" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D264" s="1"/>
+      <c r="E264" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F264" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="G264" s="4">
+        <v>3748.28</v>
+      </c>
+      <c r="H264" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>39.044583333333335</v>
+      </c>
+      <c r="I264" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>9.7611458333333339</v>
+      </c>
+      <c r="J264" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L264" s="1"/>
+      <c r="M264" s="24">
+        <v>96</v>
+      </c>
+      <c r="N264" s="1">
+        <v>260</v>
+      </c>
+      <c r="O264" s="1">
+        <v>384</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q264" s="1">
+        <v>768</v>
+      </c>
+      <c r="R264" s="1"/>
+      <c r="S264" s="1"/>
+      <c r="T264" s="1"/>
+      <c r="U264" s="1"/>
+      <c r="V264" s="1"/>
+      <c r="W264" s="1">
+        <v>32</v>
+      </c>
+      <c r="X264" s="1"/>
+      <c r="Y264" s="1"/>
+      <c r="Z264" s="1"/>
+    </row>
+    <row r="265" spans="1:26" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B265" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="C265" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D265" s="1"/>
+      <c r="E265" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F265" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G265" s="4">
+        <v>4940.6400000000003</v>
+      </c>
+      <c r="H265" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I265" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>7.3521428571428578</v>
+      </c>
+      <c r="J265" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L265" s="1"/>
+      <c r="M265" s="24">
+        <v>96</v>
+      </c>
+      <c r="N265" s="1">
+        <v>260</v>
+      </c>
+      <c r="O265" s="1">
+        <v>672</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q265" s="1">
+        <v>2400</v>
+      </c>
+      <c r="R265" s="1"/>
+      <c r="S265" s="1"/>
+      <c r="T265" s="1"/>
+      <c r="U265" s="1"/>
+      <c r="V265" s="1"/>
+      <c r="W265" s="1">
+        <v>32</v>
+      </c>
+      <c r="X265" s="1"/>
+      <c r="Y265" s="1"/>
+      <c r="Z265" s="1"/>
+    </row>
+    <row r="266" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A266" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B266" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="C266" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="D266" s="13"/>
+      <c r="E266" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="F266" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G266" s="4">
+        <v>4940.6400000000003</v>
+      </c>
+      <c r="H266" s="15">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Core]]</f>
+        <v>51.465000000000003</v>
+      </c>
+      <c r="I266" s="14">
+        <f>Table2[[#This Row],[Price Linux]]/Table2[[#This Row],[Memory
+'[GB']]]</f>
+        <v>7.3521428571428578</v>
+      </c>
+      <c r="J266" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="L266" s="13"/>
+      <c r="M266" s="24">
+        <v>96</v>
+      </c>
+      <c r="N266" s="1">
+        <v>260</v>
+      </c>
+      <c r="O266" s="13">
+        <v>672</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q266" s="13">
+        <v>1344</v>
+      </c>
+      <c r="R266" s="13"/>
+      <c r="S266" s="13"/>
+      <c r="T266" s="13"/>
+      <c r="U266" s="13"/>
+      <c r="V266" s="13"/>
+      <c r="W266" s="13">
+        <v>32</v>
+      </c>
+      <c r="X266" s="13"/>
+      <c r="Y266" s="13"/>
+      <c r="Z266" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
